--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,19 +80,16 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
-    <t>10/13/2024 17:04:57</t>
-  </si>
-  <si>
-    <t>LP.1A</t>
-  </si>
-  <si>
-    <t>BS76</t>
-  </si>
-  <si>
-    <t>FARAND COLLECTION</t>
-  </si>
-  <si>
-    <t>KRUI</t>
+    <t>JR-RW</t>
+  </si>
+  <si>
+    <t>RB55</t>
+  </si>
+  <si>
+    <t>PT.MEGA KRIAN PERMAI(PALAPA KRIAN- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>SIDOARJO</t>
   </si>
   <si>
     <t>BARU</t>
@@ -101,25 +98,10 @@
     <t>GFORM</t>
   </si>
   <si>
-    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 188*200CM</t>
-  </si>
-  <si>
-    <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>24/10/2024</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>28/10/2024</t>
+    <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
+  </si>
+  <si>
+    <t>PENDING DR SALES</t>
   </si>
 </sst>
 </file>
@@ -536,62 +518,41 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>45577.43577434</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>45580</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,6 +80,117 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
+    <t>JR.STO</t>
+  </si>
+  <si>
+    <t>RB5</t>
+  </si>
+  <si>
+    <t>NUNO BABY SHOP</t>
+  </si>
+  <si>
+    <t>MADIUN</t>
+  </si>
+  <si>
+    <t>BARU</t>
+  </si>
+  <si>
+    <t>GFORM</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 22*15cm</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>JR.DO</t>
+  </si>
+  <si>
+    <t>RB50</t>
+  </si>
+  <si>
+    <t>LAUTAN DALEMAN</t>
+  </si>
+  <si>
+    <t>BANYUWANGI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 750*50cm</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>JR.WT</t>
+  </si>
+  <si>
+    <t>RB51</t>
+  </si>
+  <si>
+    <t>Toserba amanah loris</t>
+  </si>
+  <si>
+    <t>Blitar</t>
+  </si>
+  <si>
+    <t>PEREMAJAAN</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 60cm*40cm</t>
+  </si>
+  <si>
+    <t>smj</t>
+  </si>
+  <si>
+    <t>RB52</t>
+  </si>
+  <si>
+    <t>Toserba amanah JKT</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 66cm*154cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 192cm*21cm</t>
+  </si>
+  <si>
+    <t>JB IL</t>
+  </si>
+  <si>
+    <t>RB53</t>
+  </si>
+  <si>
+    <t>Tabina ( JB IL )</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>NEONBOX 200*60CM</t>
+  </si>
+  <si>
+    <t>email ke pak dadang</t>
+  </si>
+  <si>
+    <t>JR.SUL</t>
+  </si>
+  <si>
+    <t>RB54</t>
+  </si>
+  <si>
+    <t>ATLAS SPORT CENTER</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>X BANNER 60*160cm</t>
+  </si>
+  <si>
+    <t>PENDING DR SALES</t>
+  </si>
+  <si>
     <t>JR-RW</t>
   </si>
   <si>
@@ -92,16 +203,70 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>BARU</t>
-  </si>
-  <si>
-    <t>GFORM</t>
-  </si>
-  <si>
     <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
   </si>
   <si>
-    <t>PENDING DR SALES</t>
+    <t>JR-RMI</t>
+  </si>
+  <si>
+    <t>RB56</t>
+  </si>
+  <si>
+    <t>PT.MEGA SEPANJANG PERMAI (PALAPA SEPANJANG- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 42*39CM</t>
+  </si>
+  <si>
+    <t>RB57</t>
+  </si>
+  <si>
+    <t>SPORT CENTER SITUBONDO</t>
+  </si>
+  <si>
+    <t>SITUBONDO</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*100cm</t>
+  </si>
+  <si>
+    <t>kirim email pak santo</t>
+  </si>
+  <si>
+    <t>RB58</t>
+  </si>
+  <si>
+    <t>POSTER DOFF  330*120cm</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>RB59</t>
+  </si>
+  <si>
+    <t>DAF FUTSAL</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*100CM</t>
+  </si>
+  <si>
+    <t>ramziewahyu@gmail.com</t>
+  </si>
+  <si>
+    <t>JR. ACD</t>
+  </si>
+  <si>
+    <t>RB500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpk Robet sahri </t>
+  </si>
+  <si>
+    <t>Pamekasan</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 80*30cm</t>
   </si>
 </sst>
 </file>
@@ -441,7 +606,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +684,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
-        <v>45577.43577434</v>
+        <v>45567.460275116</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -543,16 +708,613 @@
         <v>27</v>
       </c>
       <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>45579</v>
+      </c>
+      <c r="K2">
+        <v>45579</v>
+      </c>
+      <c r="L2">
+        <v>45579</v>
+      </c>
+      <c r="M2">
+        <v>45579</v>
+      </c>
+      <c r="N2">
+        <v>45579</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2">
+        <v>45589</v>
+      </c>
+      <c r="Q2">
+        <v>45594</v>
+      </c>
+      <c r="R2">
+        <v>45594</v>
+      </c>
+      <c r="S2">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>45575.798742315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>45583</v>
+      </c>
+      <c r="K3">
+        <v>45583</v>
+      </c>
+      <c r="L3">
+        <v>45583</v>
+      </c>
+      <c r="M3">
+        <v>45586</v>
+      </c>
+      <c r="N3">
+        <v>45586</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3">
+        <v>45595</v>
+      </c>
+      <c r="Q3">
+        <v>45596</v>
+      </c>
+      <c r="R3">
+        <v>45599</v>
+      </c>
+      <c r="S3">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>45575.8103636</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>45583</v>
+      </c>
+      <c r="K4">
+        <v>45583</v>
+      </c>
+      <c r="L4">
+        <v>45583</v>
+      </c>
+      <c r="M4">
+        <v>45586</v>
+      </c>
+      <c r="N4">
+        <v>45586</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>45575.816080995</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>45583</v>
+      </c>
+      <c r="K5">
+        <v>45588</v>
+      </c>
+      <c r="L5">
+        <v>45588</v>
+      </c>
+      <c r="M5">
+        <v>45588</v>
+      </c>
+      <c r="N5">
+        <v>45588</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>45595</v>
+      </c>
+      <c r="Q5">
+        <v>45596</v>
+      </c>
+      <c r="R5">
+        <v>45599</v>
+      </c>
+      <c r="S5">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>45575.816080995</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>45583</v>
+      </c>
+      <c r="K6">
+        <v>45588</v>
+      </c>
+      <c r="L6">
+        <v>45588</v>
+      </c>
+      <c r="M6">
+        <v>45588</v>
+      </c>
+      <c r="N6">
+        <v>45588</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6">
+        <v>45595</v>
+      </c>
+      <c r="Q6">
+        <v>45596</v>
+      </c>
+      <c r="R6">
+        <v>45599</v>
+      </c>
+      <c r="S6">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>45576.471612882</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>45583</v>
+      </c>
+      <c r="K7">
+        <v>45583</v>
+      </c>
+      <c r="L7">
+        <v>45583</v>
+      </c>
+      <c r="M7">
+        <v>45586</v>
+      </c>
+      <c r="N7">
+        <v>45586</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>45576.888672269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>45586</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>45577.43577434</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="J9">
         <v>45580</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>45577.445383704</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>45586</v>
+      </c>
+      <c r="K10">
+        <v>45586</v>
+      </c>
+      <c r="L10">
+        <v>45586</v>
+      </c>
+      <c r="M10">
+        <v>45586</v>
+      </c>
+      <c r="N10">
+        <v>45586</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>45595</v>
+      </c>
+      <c r="Q10">
+        <v>45596</v>
+      </c>
+      <c r="R10">
+        <v>45599</v>
+      </c>
+      <c r="S10">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>45577.519131944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>45586</v>
+      </c>
+      <c r="K11">
+        <v>45586</v>
+      </c>
+      <c r="L11">
+        <v>45586</v>
+      </c>
+      <c r="M11">
+        <v>45586</v>
+      </c>
+      <c r="N11">
+        <v>45586</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>45577.521805648</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>45586</v>
+      </c>
+      <c r="K12">
+        <v>45586</v>
+      </c>
+      <c r="L12">
+        <v>45586</v>
+      </c>
+      <c r="M12">
+        <v>45586</v>
+      </c>
+      <c r="N12">
+        <v>45586</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>45579.346423611</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>45581</v>
+      </c>
+      <c r="K13">
+        <v>45581</v>
+      </c>
+      <c r="L13">
+        <v>45581</v>
+      </c>
+      <c r="M13">
+        <v>45581</v>
+      </c>
+      <c r="N13">
+        <v>45582</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>45671.629597674</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,16 +80,16 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
-    <t>JR.STO</t>
-  </si>
-  <si>
-    <t>RB5</t>
-  </si>
-  <si>
-    <t>NUNO BABY SHOP</t>
-  </si>
-  <si>
-    <t>MADIUN</t>
+    <t>Jt.ro</t>
+  </si>
+  <si>
+    <t>BS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toko maharani </t>
+  </si>
+  <si>
+    <t>Jepara</t>
   </si>
   <si>
     <t>BARU</t>
@@ -98,175 +98,1258 @@
     <t>GFORM</t>
   </si>
   <si>
-    <t>AKRILIK BENING 22*15cm</t>
+    <t>AKRILIK KAPUR / PVC 40*40 cm</t>
   </si>
   <si>
     <t>SPOT</t>
   </si>
   <si>
-    <t>JR.DO</t>
-  </si>
-  <si>
-    <t>RB50</t>
-  </si>
-  <si>
-    <t>LAUTAN DALEMAN</t>
-  </si>
-  <si>
-    <t>BANYUWANGI</t>
-  </si>
-  <si>
-    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 750*50cm</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>JR.WT</t>
-  </si>
-  <si>
-    <t>RB51</t>
-  </si>
-  <si>
-    <t>Toserba amanah loris</t>
-  </si>
-  <si>
-    <t>Blitar</t>
+    <t>Jt.tg</t>
+  </si>
+  <si>
+    <t>BS50</t>
+  </si>
+  <si>
+    <t>Toko farhan jaya</t>
+  </si>
+  <si>
+    <t>Pemalang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 60*40cm</t>
+  </si>
+  <si>
+    <t>Jt.jk</t>
+  </si>
+  <si>
+    <t>BS51</t>
+  </si>
+  <si>
+    <t>Toko busana ayu</t>
+  </si>
+  <si>
+    <t>Wonosobo</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 300*100cm</t>
+  </si>
+  <si>
+    <t>BS52</t>
+  </si>
+  <si>
+    <t>Toko al multazam</t>
+  </si>
+  <si>
+    <t>Brebes</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1000*80cm</t>
+  </si>
+  <si>
+    <t>BS53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toko bebiku </t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 50*25cm</t>
+  </si>
+  <si>
+    <t>Lp-fiz</t>
+  </si>
+  <si>
+    <t>BS54</t>
+  </si>
+  <si>
+    <t>New star baby shop</t>
+  </si>
+  <si>
+    <t>Cilacap</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 180*60 cm</t>
+  </si>
+  <si>
+    <t>BS55</t>
+  </si>
+  <si>
+    <t>Bsm serba 35</t>
+  </si>
+  <si>
+    <t>Lahat</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 670*130cm</t>
+  </si>
+  <si>
+    <t>JT-IM</t>
+  </si>
+  <si>
+    <t>BS56</t>
+  </si>
+  <si>
+    <t>AL keisha fashion</t>
+  </si>
+  <si>
+    <t>WONOGIRI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 90*350 cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 200*95 cm</t>
+  </si>
+  <si>
+    <t>JT-FJ</t>
+  </si>
+  <si>
+    <t>BS57</t>
+  </si>
+  <si>
+    <t>SWALAYAN PURNAMA 3</t>
+  </si>
+  <si>
+    <t>Bantul</t>
   </si>
   <si>
     <t>PEREMAJAAN</t>
   </si>
   <si>
-    <t>IMPRABOARD 60cm*40cm</t>
-  </si>
-  <si>
-    <t>smj</t>
-  </si>
-  <si>
-    <t>RB52</t>
-  </si>
-  <si>
-    <t>Toserba amanah JKT</t>
-  </si>
-  <si>
-    <t>STIKER DOFF 66cm*154cm</t>
-  </si>
-  <si>
-    <t>STIKER DOFF 192cm*21cm</t>
-  </si>
-  <si>
-    <t>JB IL</t>
-  </si>
-  <si>
-    <t>RB53</t>
-  </si>
-  <si>
-    <t>Tabina ( JB IL )</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>NEONBOX 200*60CM</t>
-  </si>
-  <si>
-    <t>email ke pak dadang</t>
-  </si>
-  <si>
-    <t>JR.SUL</t>
-  </si>
-  <si>
-    <t>RB54</t>
-  </si>
-  <si>
-    <t>ATLAS SPORT CENTER</t>
-  </si>
-  <si>
-    <t>SURABAYA</t>
-  </si>
-  <si>
-    <t>X BANNER 60*160cm</t>
-  </si>
-  <si>
-    <t>PENDING DR SALES</t>
-  </si>
-  <si>
-    <t>JR-RW</t>
-  </si>
-  <si>
-    <t>RB55</t>
-  </si>
-  <si>
-    <t>PT.MEGA KRIAN PERMAI(PALAPA KRIAN- SIDOARJO)</t>
-  </si>
-  <si>
-    <t>SIDOARJO</t>
-  </si>
-  <si>
-    <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
-  </si>
-  <si>
-    <t>JR-RMI</t>
-  </si>
-  <si>
-    <t>RB56</t>
-  </si>
-  <si>
-    <t>PT.MEGA SEPANJANG PERMAI (PALAPA SEPANJANG- SIDOARJO)</t>
-  </si>
-  <si>
-    <t>STIKER DOFF 42*39CM</t>
-  </si>
-  <si>
-    <t>RB57</t>
-  </si>
-  <si>
-    <t>SPORT CENTER SITUBONDO</t>
-  </si>
-  <si>
-    <t>SITUBONDO</t>
+    <t>IMPRABOARD</t>
+  </si>
+  <si>
+    <t>SMJ</t>
+  </si>
+  <si>
+    <t>DK-MUL</t>
+  </si>
+  <si>
+    <t>BS58</t>
+  </si>
+  <si>
+    <t>HERI JAYA</t>
+  </si>
+  <si>
+    <t>Jembatan lima</t>
+  </si>
+  <si>
+    <t>AKRILIK BERDIRI 1mk 30*15cm</t>
+  </si>
+  <si>
+    <t>barang dibawa mulyadi</t>
+  </si>
+  <si>
+    <t>LP.1A</t>
+  </si>
+  <si>
+    <t>BS59</t>
+  </si>
+  <si>
+    <t>TW COLLECTION</t>
+  </si>
+  <si>
+    <t>METRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIKER DOFF 82*52CM </t>
+  </si>
+  <si>
+    <t>JT-DK</t>
+  </si>
+  <si>
+    <t>BS500</t>
+  </si>
+  <si>
+    <t>Luwes Ungaran</t>
+  </si>
+  <si>
+    <t>Ungaran kab. Semarang</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 100*20 cm</t>
+  </si>
+  <si>
+    <t>BS501</t>
+  </si>
+  <si>
+    <t>Standing Akrilik 30*25 cm</t>
+  </si>
+  <si>
+    <t>BS502</t>
+  </si>
+  <si>
+    <t>Tko swalayan saudara 2</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 210*100cm</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 60*25cm</t>
+  </si>
+  <si>
+    <t>BS503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion Story UII </t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>ROLL UP BANNER</t>
+  </si>
+  <si>
+    <t>JT SR</t>
+  </si>
+  <si>
+    <t>BS504</t>
+  </si>
+  <si>
+    <t>Aira Fashion</t>
+  </si>
+  <si>
+    <t>Blora</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 30*250cm</t>
+  </si>
+  <si>
+    <t>DK-JAE</t>
+  </si>
+  <si>
+    <t>BS505</t>
+  </si>
+  <si>
+    <t>SPORT CENTER DALAM KOTA</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 400*150cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*100cm</t>
+  </si>
+  <si>
+    <t>LP-VRD</t>
+  </si>
+  <si>
+    <t>BS506</t>
+  </si>
+  <si>
+    <t>Mitra Family</t>
+  </si>
+  <si>
+    <t>Ketapang - Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 350*100cm</t>
+  </si>
+  <si>
+    <t>BS507</t>
+  </si>
+  <si>
+    <t>Mitra Sukoharjo</t>
+  </si>
+  <si>
+    <t>Sukoharjo</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 60*250 cm</t>
+  </si>
+  <si>
+    <t>BS508</t>
+  </si>
+  <si>
+    <t>OZORA 35</t>
+  </si>
+  <si>
+    <t>Purwodadi</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 80*820 cm</t>
+  </si>
+  <si>
+    <t>BS509</t>
+  </si>
+  <si>
+    <t>Tko dians fashion</t>
+  </si>
+  <si>
+    <t>Tegal</t>
   </si>
   <si>
     <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*100cm</t>
   </si>
   <si>
-    <t>kirim email pak santo</t>
-  </si>
-  <si>
-    <t>RB58</t>
-  </si>
-  <si>
-    <t>POSTER DOFF  330*120cm</t>
-  </si>
-  <si>
-    <t>JB</t>
-  </si>
-  <si>
-    <t>RB59</t>
-  </si>
-  <si>
-    <t>DAF FUTSAL</t>
-  </si>
-  <si>
-    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*100CM</t>
-  </si>
-  <si>
-    <t>ramziewahyu@gmail.com</t>
-  </si>
-  <si>
-    <t>JR. ACD</t>
-  </si>
-  <si>
-    <t>RB500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bpk Robet sahri </t>
-  </si>
-  <si>
-    <t>Pamekasan</t>
-  </si>
-  <si>
-    <t>AKRILIK BENING 80*30cm</t>
+    <t>DK-TOM</t>
+  </si>
+  <si>
+    <t>BS510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vinza aqila underwear</t>
+  </si>
+  <si>
+    <t>Pasar angke</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 260*60cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES TOMI</t>
+  </si>
+  <si>
+    <t>BS511</t>
+  </si>
+  <si>
+    <t>Tko aneka jaya sambiroto</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 60*25cmcm</t>
+  </si>
+  <si>
+    <t>LP.GM</t>
+  </si>
+  <si>
+    <t>BS512</t>
+  </si>
+  <si>
+    <t>Siak grosir MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekanbaru </t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 244*78cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 50*60cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 160*60cm</t>
+  </si>
+  <si>
+    <t>DK-KSN</t>
+  </si>
+  <si>
+    <t>BS513</t>
+  </si>
+  <si>
+    <t>SUCI (Fathur)</t>
+  </si>
+  <si>
+    <t>Munjul</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 75*100cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES IPANG</t>
+  </si>
+  <si>
+    <t>JT TH</t>
+  </si>
+  <si>
+    <t>BS514</t>
+  </si>
+  <si>
+    <t>Toserba Harno</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 200*100cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 150*250cm</t>
+  </si>
+  <si>
+    <t>LP.put</t>
+  </si>
+  <si>
+    <t>BS515</t>
+  </si>
+  <si>
+    <t>Star kids geudong</t>
+  </si>
+  <si>
+    <t>Geudong</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 525*390cm</t>
+  </si>
+  <si>
+    <t>LP.gm</t>
+  </si>
+  <si>
+    <t>BS516</t>
+  </si>
+  <si>
+    <t>Duta</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 264*44cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 262*42 cm</t>
+  </si>
+  <si>
+    <t>BS517</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Magelang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 20*35 cm</t>
+  </si>
+  <si>
+    <t>KIRIM VIA JNE</t>
+  </si>
+  <si>
+    <t>BS518</t>
+  </si>
+  <si>
+    <t>Aneka Busana</t>
+  </si>
+  <si>
+    <t>Grabag, kab. Magelang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*85 cm</t>
+  </si>
+  <si>
+    <t>DK-KRM</t>
+  </si>
+  <si>
+    <t>BS519</t>
+  </si>
+  <si>
+    <t>DYARSHOP</t>
+  </si>
+  <si>
+    <t>Pondok aren</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 250*150cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES RODI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 350*250cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*250cm</t>
+  </si>
+  <si>
+    <t>BS520</t>
+  </si>
+  <si>
+    <t>Muntilan</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 300*100 cm</t>
+  </si>
+  <si>
+    <t>BS521</t>
+  </si>
+  <si>
+    <t>Dayli Collection</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 500*100 cm</t>
+  </si>
+  <si>
+    <t>DK-BN</t>
+  </si>
+  <si>
+    <t>BS522</t>
+  </si>
+  <si>
+    <t>PUTRI SINTA</t>
+  </si>
+  <si>
+    <t>Pasar bahari</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR 3mm 2mk 70*40cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES BENI</t>
+  </si>
+  <si>
+    <t>BS523</t>
+  </si>
+  <si>
+    <t>Fashion Story Godean Sandang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING</t>
+  </si>
+  <si>
+    <t>BS524</t>
+  </si>
+  <si>
+    <t>Rejeki</t>
+  </si>
+  <si>
+    <t>Solo (surakarta)</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*100 cm</t>
+  </si>
+  <si>
+    <t>BS525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikha </t>
+  </si>
+  <si>
+    <t>boyolali</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 200*60 cm</t>
+  </si>
+  <si>
+    <t>BS526</t>
+  </si>
+  <si>
+    <t>Harno Surya</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 900*80 cm</t>
+  </si>
+  <si>
+    <t>Lp.gm</t>
+  </si>
+  <si>
+    <t>BS527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'pay underwear </t>
+  </si>
+  <si>
+    <t>Stiker doff 93*51cm</t>
+  </si>
+  <si>
+    <t>Stiker doff 54*51cm</t>
+  </si>
+  <si>
+    <t>Stiker doff 60*51cm</t>
+  </si>
+  <si>
+    <t>BS528</t>
+  </si>
+  <si>
+    <t>Stiker doff  54*51cm</t>
+  </si>
+  <si>
+    <t>BS529</t>
+  </si>
+  <si>
+    <t>Stiker doff  60*50cm</t>
+  </si>
+  <si>
+    <t>Stiker doff  50*50cm</t>
+  </si>
+  <si>
+    <t>Stiker doff  90*50cm</t>
+  </si>
+  <si>
+    <t>BS530</t>
+  </si>
+  <si>
+    <t>Stiker doff 60*50cm</t>
+  </si>
+  <si>
+    <t>BS531</t>
+  </si>
+  <si>
+    <t>Poster doff 140*50cm</t>
+  </si>
+  <si>
+    <t>BS532</t>
+  </si>
+  <si>
+    <t>Poster doff 55*50cm</t>
+  </si>
+  <si>
+    <t>lp.gm</t>
+  </si>
+  <si>
+    <t>BS533</t>
+  </si>
+  <si>
+    <t>Poster doff 45*50cm</t>
+  </si>
+  <si>
+    <t>LP gm</t>
+  </si>
+  <si>
+    <t>BS534</t>
+  </si>
+  <si>
+    <t>BS535</t>
+  </si>
+  <si>
+    <t>vina</t>
+  </si>
+  <si>
+    <t>Poster doff 285*65cm</t>
+  </si>
+  <si>
+    <t>Poster doff 375*65cm</t>
+  </si>
+  <si>
+    <t>LP-FIZ</t>
+  </si>
+  <si>
+    <t>BS536</t>
+  </si>
+  <si>
+    <t>Donima style</t>
+  </si>
+  <si>
+    <t>Batam</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 565*50 cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES FAIZIN</t>
+  </si>
+  <si>
+    <t>BS537</t>
+  </si>
+  <si>
+    <t>POSTER GLOSSY 420*50cm</t>
+  </si>
+  <si>
+    <t>Jt tg</t>
+  </si>
+  <si>
+    <t>BS538</t>
+  </si>
+  <si>
+    <t>Tko bu anik</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>BS539</t>
+  </si>
+  <si>
+    <t>SPORT CENTER DALKOT</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 400*300cm</t>
+  </si>
+  <si>
+    <t>BS540</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Sekadau</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 380*150cm</t>
+  </si>
+  <si>
+    <t>BS541</t>
+  </si>
+  <si>
+    <t>Moro Seneng</t>
+  </si>
+  <si>
+    <t>Wonogiri</t>
+  </si>
+  <si>
+    <t>DK-RD</t>
+  </si>
+  <si>
+    <t>BS542</t>
+  </si>
+  <si>
+    <t>ANANDA</t>
+  </si>
+  <si>
+    <t>Pasar pucung</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 80*40cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 71*51cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 42*40cm</t>
+  </si>
+  <si>
+    <t>BS543</t>
+  </si>
+  <si>
+    <t>Toko Alia jaya</t>
+  </si>
+  <si>
+    <t>Kp makasar</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 400*50cm</t>
+  </si>
+  <si>
+    <t>BARANG DIBAWA SALES JAENI</t>
+  </si>
+  <si>
+    <t>DK-JIT</t>
+  </si>
+  <si>
+    <t>BS544</t>
+  </si>
+  <si>
+    <t>AGAM 25 toserba</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X BANNER 60*160cm </t>
+  </si>
+  <si>
+    <t>DK-DD</t>
+  </si>
+  <si>
+    <t>BS545</t>
+  </si>
+  <si>
+    <t>BS546</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 100*50cm</t>
+  </si>
+  <si>
+    <t>BS547</t>
+  </si>
+  <si>
+    <t>Gunung mas</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*100cm</t>
+  </si>
+  <si>
+    <t>BS548</t>
+  </si>
+  <si>
+    <t>BS549</t>
+  </si>
+  <si>
+    <t>CV maju Ria</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 500*150cm</t>
+  </si>
+  <si>
+    <t>lp.sdi</t>
+  </si>
+  <si>
+    <t>BS550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayla underwear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukittinggi </t>
+  </si>
+  <si>
+    <t>Spanduk Korea dengan mata ayam 330*30cm</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>BS551</t>
+  </si>
+  <si>
+    <t>Alya shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payakumbuh </t>
+  </si>
+  <si>
+    <t>Poster doff 300*50cm</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>BS552</t>
+  </si>
+  <si>
+    <t>MUTIARA FUTSAL</t>
+  </si>
+  <si>
+    <t>BS553</t>
+  </si>
+  <si>
+    <t>BS554</t>
+  </si>
+  <si>
+    <t>ABY KIDS</t>
+  </si>
+  <si>
+    <t>Pasar perumnas klender</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR 3mm 2mk 60*40cm</t>
+  </si>
+  <si>
+    <t>DK-KUS</t>
+  </si>
+  <si>
+    <t>BS555</t>
+  </si>
+  <si>
+    <t>YING-YING</t>
+  </si>
+  <si>
+    <t>itc mangga dua</t>
+  </si>
+  <si>
+    <t>Kertas photo 24*10cm</t>
+  </si>
+  <si>
+    <t>PRINT GH</t>
+  </si>
+  <si>
+    <t>BS556</t>
+  </si>
+  <si>
+    <t>AKIAW</t>
+  </si>
+  <si>
+    <t>ita mangga dua</t>
+  </si>
+  <si>
+    <t>Kertas photo 20*8cm</t>
+  </si>
+  <si>
+    <t>BS557</t>
+  </si>
+  <si>
+    <t>MENARA UNDERWEAR</t>
+  </si>
+  <si>
+    <t>itc BSD</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 40*36cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 40*40cm</t>
+  </si>
+  <si>
+    <t>BS558</t>
+  </si>
+  <si>
+    <t>CHARTELL</t>
+  </si>
+  <si>
+    <t>Pasar malabar</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 165*36cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*50cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 150*60cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 100*60cm</t>
+  </si>
+  <si>
+    <t>BS559</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 65*50cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 62*36cm</t>
+  </si>
+  <si>
+    <t>LP.sdi</t>
+  </si>
+  <si>
+    <t>BS560</t>
+  </si>
+  <si>
+    <t>Stiker doff 330*30cm</t>
+  </si>
+  <si>
+    <t>BS561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anugrah underwear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padang Sidempuan </t>
+  </si>
+  <si>
+    <t>poster doff 190*47cm</t>
+  </si>
+  <si>
+    <t>BS562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anugrah underwear </t>
+  </si>
+  <si>
+    <t>Poster doff  490*50cm</t>
+  </si>
+  <si>
+    <t>BS563</t>
+  </si>
+  <si>
+    <t>FAMILY FASHION</t>
+  </si>
+  <si>
+    <t>Boyolali</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 800*100 cm</t>
+  </si>
+  <si>
+    <t>JT-AL</t>
+  </si>
+  <si>
+    <t>BS564</t>
+  </si>
+  <si>
+    <t>Ms Gatot</t>
+  </si>
+  <si>
+    <t>yogyakarta</t>
+  </si>
+  <si>
+    <t>BS565</t>
+  </si>
+  <si>
+    <t>Aneka jaya sambiroto</t>
+  </si>
+  <si>
+    <t>BS566</t>
+  </si>
+  <si>
+    <t>SANDANG MURAH</t>
+  </si>
+  <si>
+    <t>Pandeglang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 400*80cm</t>
+  </si>
+  <si>
+    <t>BS567</t>
+  </si>
+  <si>
+    <t>IQSAN (mang ade)</t>
+  </si>
+  <si>
+    <t>Pasar rumput</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 100*44cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 51*44cm</t>
+  </si>
+  <si>
+    <t>BS568</t>
+  </si>
+  <si>
+    <t>PARIS BABY SHOP</t>
+  </si>
+  <si>
+    <t>NEONBOX 2mk 120*100cm</t>
+  </si>
+  <si>
+    <t>BS569</t>
+  </si>
+  <si>
+    <t>Serang(petir)</t>
+  </si>
+  <si>
+    <t>BS570</t>
+  </si>
+  <si>
+    <t>Sofie</t>
+  </si>
+  <si>
+    <t>Putussibau - Kalbar</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 800*100cm</t>
+  </si>
+  <si>
+    <t>BS571</t>
+  </si>
+  <si>
+    <t>ayla shop</t>
+  </si>
+  <si>
+    <t>Stiker dofff 300*50cm</t>
+  </si>
+  <si>
+    <t>BS572</t>
+  </si>
+  <si>
+    <t>Arita bra</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 250*100cm</t>
+  </si>
+  <si>
+    <t>BS573</t>
+  </si>
+  <si>
+    <t>Tunas baru ( Zia baby grosir )</t>
+  </si>
+  <si>
+    <t>Poster dofff 200*240cm</t>
+  </si>
+  <si>
+    <t>BS574</t>
+  </si>
+  <si>
+    <t>tunas baru (Zia baby grosir)</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 500*130cm</t>
+  </si>
+  <si>
+    <t>BS575</t>
+  </si>
+  <si>
+    <t>Toko aneka jaya bandungrejo</t>
+  </si>
+  <si>
+    <t>Demak</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 150*50cm</t>
+  </si>
+  <si>
+    <t>TMS H</t>
+  </si>
+  <si>
+    <t>BS576</t>
+  </si>
+  <si>
+    <t>Annisa</t>
+  </si>
+  <si>
+    <t>Ambarawa</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 200*40cm</t>
+  </si>
+  <si>
+    <t>BS577</t>
+  </si>
+  <si>
+    <t>Aneka jaya bandungrejo</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 40*60cm</t>
+  </si>
+  <si>
+    <t>DK-FD</t>
+  </si>
+  <si>
+    <t>BS578</t>
+  </si>
+  <si>
+    <t>CITRA BERSAMA</t>
+  </si>
+  <si>
+    <t>Tanah abang</t>
+  </si>
+  <si>
+    <t>BS579</t>
+  </si>
+  <si>
+    <t>ELFIRA</t>
+  </si>
+  <si>
+    <t>Citra raya</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 200*70cm</t>
+  </si>
+  <si>
+    <t>BS580</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*20cm</t>
+  </si>
+  <si>
+    <t>LP-DEN</t>
+  </si>
+  <si>
+    <t>BS581</t>
+  </si>
+  <si>
+    <t>Ume Labels</t>
+  </si>
+  <si>
+    <t>Bontang - Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*110cm</t>
+  </si>
+  <si>
+    <t>Jt.ns</t>
+  </si>
+  <si>
+    <t>BS582</t>
+  </si>
+  <si>
+    <t>Tko pak ngadi</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 350*150cm</t>
+  </si>
+  <si>
+    <t>BS583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idola kosmetik </t>
+  </si>
+  <si>
+    <t>Belilas</t>
+  </si>
+  <si>
+    <t>Stiker doff 122*51cm</t>
+  </si>
+  <si>
+    <t>BS584</t>
+  </si>
+  <si>
+    <t>Lapak zahra</t>
+  </si>
+  <si>
+    <t>BS585</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 190*47cm</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 490*50cm</t>
+  </si>
+  <si>
+    <t>BS586</t>
+  </si>
+  <si>
+    <t>Spanduk Pakai mata ayam 155*62cm</t>
+  </si>
+  <si>
+    <t>BS587</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 64*64cm</t>
+  </si>
+  <si>
+    <t>BS588</t>
+  </si>
+  <si>
+    <t>arita bra</t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam  153*62cm</t>
+  </si>
+  <si>
+    <t>BS589</t>
+  </si>
+  <si>
+    <t>Stiker doff  133*48cm</t>
+  </si>
+  <si>
+    <t>BS590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usaha bersama Marpoyan </t>
+  </si>
+  <si>
+    <t>Spanduk Korea pakai mata ayam 710*60cm</t>
+  </si>
+  <si>
+    <t>LP-RC</t>
+  </si>
+  <si>
+    <t>BS591</t>
+  </si>
+  <si>
+    <t>Mama Amin</t>
+  </si>
+  <si>
+    <t>Pagatan - Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*80cm</t>
+  </si>
+  <si>
+    <t>BS592</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 350*80cm</t>
+  </si>
+  <si>
+    <t>BS593</t>
+  </si>
+  <si>
+    <t>NUR SALIM</t>
+  </si>
+  <si>
+    <t>SRAGEN</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1000*100 cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 900*100 cm</t>
+  </si>
+  <si>
+    <t>BS594</t>
+  </si>
+  <si>
+    <t>Dunia Wanita (Loktabat )</t>
+  </si>
+  <si>
+    <t>Banjarmasin - Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 350*30 cm</t>
+  </si>
+  <si>
+    <t>BS595</t>
+  </si>
+  <si>
+    <t>Dunia Wanita ( Loktabat )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 360*80cm</t>
   </si>
 </sst>
 </file>
@@ -606,7 +1689,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,7 +1767,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2">
-        <v>45567.460275116</v>
+        <v>45567.420462963</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -708,42 +1791,30 @@
         <v>27</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>45579</v>
+        <v>45574</v>
       </c>
       <c r="K2">
-        <v>45579</v>
+        <v>45574</v>
       </c>
       <c r="L2">
-        <v>45579</v>
+        <v>45574</v>
       </c>
       <c r="M2">
-        <v>45579</v>
+        <v>45574</v>
       </c>
       <c r="N2">
-        <v>45579</v>
+        <v>45574</v>
       </c>
       <c r="O2" t="s">
         <v>28</v>
-      </c>
-      <c r="P2">
-        <v>45589</v>
-      </c>
-      <c r="Q2">
-        <v>45594</v>
-      </c>
-      <c r="R2">
-        <v>45594</v>
-      </c>
-      <c r="S2">
-        <v>45594</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3">
-        <v>45575.798742315</v>
+        <v>45575.544398148</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -770,216 +1841,240 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="K3">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="L3">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="M3">
-        <v>45586</v>
+        <v>45580</v>
       </c>
       <c r="N3">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P3">
-        <v>45595</v>
+        <v>45589</v>
       </c>
       <c r="Q3">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="R3">
-        <v>45599</v>
+        <v>45594</v>
       </c>
       <c r="S3">
-        <v>45599</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4">
-        <v>45575.8103636</v>
+        <v>45575.546932905</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="K4">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="L4">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="M4">
-        <v>45586</v>
+        <v>45580</v>
       </c>
       <c r="N4">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>45587</v>
+      </c>
+      <c r="Q4">
+        <v>45588</v>
+      </c>
+      <c r="R4">
+        <v>45588</v>
+      </c>
+      <c r="S4">
+        <v>45588</v>
+      </c>
+      <c r="T4">
+        <v>45590</v>
+      </c>
+      <c r="U4">
+        <v>45590</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5">
-        <v>45575.816080995</v>
+        <v>45575.548518519</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="K5">
+        <v>45580</v>
+      </c>
+      <c r="L5">
+        <v>45580</v>
+      </c>
+      <c r="M5">
+        <v>45580</v>
+      </c>
+      <c r="N5">
+        <v>45581</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>45587</v>
+      </c>
+      <c r="Q5">
         <v>45588</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>45588</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>45588</v>
       </c>
-      <c r="N5">
-        <v>45588</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5">
-        <v>45595</v>
-      </c>
-      <c r="Q5">
-        <v>45596</v>
-      </c>
-      <c r="R5">
-        <v>45599</v>
-      </c>
-      <c r="S5">
-        <v>45599</v>
+      <c r="T5">
+        <v>45590</v>
+      </c>
+      <c r="U5">
+        <v>45590</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>45575.816080995</v>
+        <v>45575.713622685</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="K6">
-        <v>45588</v>
+        <v>45580</v>
       </c>
       <c r="L6">
-        <v>45588</v>
+        <v>45580</v>
       </c>
       <c r="M6">
-        <v>45588</v>
+        <v>45580</v>
       </c>
       <c r="N6">
-        <v>45588</v>
+        <v>45580</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P6">
-        <v>45595</v>
+        <v>45589</v>
       </c>
       <c r="Q6">
-        <v>45596</v>
+        <v>45594</v>
       </c>
       <c r="R6">
-        <v>45599</v>
+        <v>45594</v>
       </c>
       <c r="S6">
-        <v>45599</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>45576.471612882</v>
+        <v>45576.409930556</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -988,19 +2083,19 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="K7">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="L7">
-        <v>45583</v>
+        <v>45580</v>
       </c>
       <c r="M7">
         <v>45586</v>
@@ -1009,206 +2104,275 @@
         <v>45586</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="P7">
+        <v>45589</v>
+      </c>
+      <c r="Q7">
+        <v>45590</v>
+      </c>
+      <c r="R7">
+        <v>45593</v>
+      </c>
+      <c r="S7">
+        <v>45593</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8">
-        <v>45576.888672269</v>
+        <v>45576.414375</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>45586</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
+        <v>45581</v>
+      </c>
+      <c r="K8">
+        <v>45581</v>
+      </c>
+      <c r="L8">
+        <v>45581</v>
+      </c>
+      <c r="M8">
+        <v>45582</v>
+      </c>
+      <c r="N8">
+        <v>45582</v>
+      </c>
+      <c r="O8">
+        <v>45587</v>
+      </c>
+      <c r="P8">
+        <v>45588</v>
+      </c>
+      <c r="Q8">
+        <v>45588</v>
+      </c>
+      <c r="R8">
+        <v>45588</v>
+      </c>
+      <c r="S8">
+        <v>45590</v>
+      </c>
+      <c r="T8">
+        <v>45590</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9">
-        <v>45577.43577434</v>
+        <v>45576.433773148</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
       <c r="I9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>45580</v>
-      </c>
-      <c r="K9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
+        <v>45581</v>
+      </c>
+      <c r="K9">
+        <v>45581</v>
+      </c>
+      <c r="L9">
+        <v>45581</v>
+      </c>
+      <c r="M9">
+        <v>45581</v>
+      </c>
+      <c r="N9">
+        <v>45582</v>
+      </c>
+      <c r="O9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9">
+        <v>45587</v>
+      </c>
+      <c r="Q9">
+        <v>45588</v>
+      </c>
+      <c r="R9">
+        <v>45588</v>
+      </c>
+      <c r="S9">
+        <v>45588</v>
+      </c>
+      <c r="T9">
+        <v>45590</v>
+      </c>
+      <c r="U9">
+        <v>45590</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10">
-        <v>45577.445383704</v>
+        <v>45576.433773148</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="K10">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="L10">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="M10">
-        <v>45586</v>
+        <v>45581</v>
       </c>
       <c r="N10">
-        <v>45586</v>
+        <v>45582</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P10">
-        <v>45595</v>
+        <v>45587</v>
       </c>
       <c r="Q10">
-        <v>45596</v>
+        <v>45588</v>
       </c>
       <c r="R10">
-        <v>45599</v>
+        <v>45588</v>
       </c>
       <c r="S10">
-        <v>45599</v>
+        <v>45588</v>
+      </c>
+      <c r="T10">
+        <v>45590</v>
+      </c>
+      <c r="U10">
+        <v>45590</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11">
-        <v>45577.519131944</v>
+        <v>45576.441365741</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>45581</v>
+      </c>
+      <c r="K11">
+        <v>45581</v>
+      </c>
+      <c r="L11">
+        <v>45581</v>
+      </c>
+      <c r="M11">
+        <v>45581</v>
+      </c>
+      <c r="N11">
+        <v>45582</v>
+      </c>
+      <c r="O11" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>45586</v>
-      </c>
-      <c r="K11">
-        <v>45586</v>
-      </c>
-      <c r="L11">
-        <v>45586</v>
-      </c>
-      <c r="M11">
-        <v>45586</v>
-      </c>
-      <c r="N11">
-        <v>45586</v>
-      </c>
-      <c r="O11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
-        <v>45577.521805648</v>
+        <v>45576.451770718</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -1220,42 +2384,57 @@
         <v>73</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="K12">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="L12">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="M12">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="N12">
-        <v>45586</v>
+        <v>45576</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="P12">
+        <v>45583</v>
+      </c>
+      <c r="Q12">
+        <v>45583</v>
+      </c>
+      <c r="R12">
+        <v>45583</v>
+      </c>
+      <c r="S12">
+        <v>45583</v>
+      </c>
+      <c r="T12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
-        <v>45579.346423611</v>
+        <v>45576.876670278</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1264,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1279,41 +2458,5935 @@
         <v>45581</v>
       </c>
       <c r="M13">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="N13">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>45587</v>
+      </c>
+      <c r="Q13">
+        <v>45588</v>
+      </c>
+      <c r="R13">
+        <v>45588</v>
+      </c>
+      <c r="S13">
+        <v>45588</v>
+      </c>
+      <c r="T13">
+        <v>45590</v>
+      </c>
+      <c r="U13">
+        <v>45594</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
-        <v>45671.629597674</v>
+        <v>45650.468366238</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>45652</v>
+      </c>
+      <c r="K14">
+        <v>45652</v>
+      </c>
+      <c r="L14">
+        <v>45652</v>
+      </c>
+      <c r="M14">
+        <v>45652</v>
+      </c>
+      <c r="N14">
+        <v>45653</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>45650.473280914</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E15" t="s">
         <v>83</v>
       </c>
-      <c r="I14">
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>45652</v>
+      </c>
+      <c r="K15">
+        <v>45652</v>
+      </c>
+      <c r="L15">
+        <v>45652</v>
+      </c>
+      <c r="M15">
+        <v>45652</v>
+      </c>
+      <c r="N15">
+        <v>45653</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>45664</v>
+      </c>
+      <c r="Q15">
+        <v>45665</v>
+      </c>
+      <c r="R15">
+        <v>45665</v>
+      </c>
+      <c r="S15">
+        <v>45665</v>
+      </c>
+      <c r="T15">
+        <v>45666</v>
+      </c>
+      <c r="U15">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>45650.485700208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>45652</v>
+      </c>
+      <c r="K16">
+        <v>45652</v>
+      </c>
+      <c r="L16">
+        <v>45652</v>
+      </c>
+      <c r="M16">
+        <v>45652</v>
+      </c>
+      <c r="N16">
+        <v>45653</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>45650.485700208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>45652</v>
+      </c>
+      <c r="K17">
+        <v>45652</v>
+      </c>
+      <c r="L17">
+        <v>45652</v>
+      </c>
+      <c r="M17">
+        <v>45652</v>
+      </c>
+      <c r="N17">
+        <v>45653</v>
+      </c>
+      <c r="O17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17">
+        <v>45664</v>
+      </c>
+      <c r="Q17">
+        <v>45665</v>
+      </c>
+      <c r="R17">
+        <v>45665</v>
+      </c>
+      <c r="S17">
+        <v>45665</v>
+      </c>
+      <c r="T17">
+        <v>45666</v>
+      </c>
+      <c r="U17">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>45652.643620845</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>45653</v>
+      </c>
+      <c r="K18">
+        <v>45653</v>
+      </c>
+      <c r="L18">
+        <v>45653</v>
+      </c>
+      <c r="M18">
+        <v>45653</v>
+      </c>
+      <c r="N18">
+        <v>45653</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>45652.728849028</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>45653</v>
+      </c>
+      <c r="K19">
+        <v>45653</v>
+      </c>
+      <c r="L19">
+        <v>45653</v>
+      </c>
+      <c r="M19">
+        <v>45653</v>
+      </c>
+      <c r="N19">
+        <v>45653</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19">
+        <v>45657</v>
+      </c>
+      <c r="Q19">
+        <v>45657</v>
+      </c>
+      <c r="R19">
+        <v>45659</v>
+      </c>
+      <c r="S19">
+        <v>45659</v>
+      </c>
+      <c r="T19">
+        <v>45660</v>
+      </c>
+      <c r="U19">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>45653.638989306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>45653</v>
+      </c>
+      <c r="K20">
+        <v>45653</v>
+      </c>
+      <c r="L20">
+        <v>45653</v>
+      </c>
+      <c r="M20">
+        <v>45653</v>
+      </c>
+      <c r="N20">
+        <v>45653</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>45653.638989306</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>45653</v>
+      </c>
+      <c r="K21">
+        <v>45653</v>
+      </c>
+      <c r="L21">
+        <v>45653</v>
+      </c>
+      <c r="M21">
+        <v>45653</v>
+      </c>
+      <c r="N21">
+        <v>45653</v>
+      </c>
+      <c r="O21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>45653.840061829</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>45656</v>
+      </c>
+      <c r="K22">
+        <v>45656</v>
+      </c>
+      <c r="L22">
+        <v>45656</v>
+      </c>
+      <c r="M22">
+        <v>45656</v>
+      </c>
+      <c r="N22">
+        <v>45657</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22">
+        <v>45660</v>
+      </c>
+      <c r="Q22">
+        <v>45663</v>
+      </c>
+      <c r="R22">
+        <v>45664</v>
+      </c>
+      <c r="S22">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>45656.49278566</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>45657</v>
+      </c>
+      <c r="K23">
+        <v>45657</v>
+      </c>
+      <c r="L23">
+        <v>45657</v>
+      </c>
+      <c r="M23">
+        <v>45657</v>
+      </c>
+      <c r="N23">
+        <v>45657</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>45664</v>
+      </c>
+      <c r="Q23">
+        <v>45665</v>
+      </c>
+      <c r="R23">
+        <v>45665</v>
+      </c>
+      <c r="S23">
+        <v>45665</v>
+      </c>
+      <c r="T23">
+        <v>45666</v>
+      </c>
+      <c r="U23">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>45656.4946039</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>45657</v>
+      </c>
+      <c r="K24">
+        <v>45657</v>
+      </c>
+      <c r="L24">
+        <v>45657</v>
+      </c>
+      <c r="M24">
+        <v>45657</v>
+      </c>
+      <c r="N24">
+        <v>45657</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <v>45664</v>
+      </c>
+      <c r="Q24">
+        <v>45665</v>
+      </c>
+      <c r="R24">
+        <v>45665</v>
+      </c>
+      <c r="S24">
+        <v>45665</v>
+      </c>
+      <c r="T24">
+        <v>45666</v>
+      </c>
+      <c r="U24">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>45657.489883252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>45659</v>
+      </c>
+      <c r="K25">
+        <v>45659</v>
+      </c>
+      <c r="L25">
+        <v>45659</v>
+      </c>
+      <c r="M25">
+        <v>45659</v>
+      </c>
+      <c r="N25">
+        <v>45659</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>45664</v>
+      </c>
+      <c r="Q25">
+        <v>45665</v>
+      </c>
+      <c r="R25">
+        <v>45665</v>
+      </c>
+      <c r="S25">
+        <v>45665</v>
+      </c>
+      <c r="T25">
+        <v>45666</v>
+      </c>
+      <c r="U25">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>45657.586455891</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>45659</v>
+      </c>
+      <c r="K26">
+        <v>45659</v>
+      </c>
+      <c r="L26">
+        <v>45660</v>
+      </c>
+      <c r="M26">
+        <v>45660</v>
+      </c>
+      <c r="N26">
+        <v>45660</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26">
+        <v>45664</v>
+      </c>
+      <c r="Q26">
+        <v>45664</v>
+      </c>
+      <c r="R26">
+        <v>45664</v>
+      </c>
+      <c r="S26">
+        <v>45664</v>
+      </c>
+      <c r="T26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>45659.544989306</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>45660</v>
+      </c>
+      <c r="K27">
+        <v>45660</v>
+      </c>
+      <c r="L27">
+        <v>45660</v>
+      </c>
+      <c r="M27">
+        <v>45664</v>
+      </c>
+      <c r="N27">
+        <v>45664</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27">
+        <v>45672</v>
+      </c>
+      <c r="Q27">
+        <v>45672</v>
+      </c>
+      <c r="R27">
+        <v>45673</v>
+      </c>
+      <c r="S27">
+        <v>45673</v>
+      </c>
+      <c r="T27">
+        <v>45674</v>
+      </c>
+      <c r="U27">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>45661.819951493</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>45664</v>
+      </c>
+      <c r="K28">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>45661.819951493</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>45664</v>
+      </c>
+      <c r="K29">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>45661.819951493</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>45664</v>
+      </c>
+      <c r="K30">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>45663.583815822</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>45664</v>
+      </c>
+      <c r="K31">
+        <v>45664</v>
+      </c>
+      <c r="L31">
+        <v>45664</v>
+      </c>
+      <c r="M31">
+        <v>45664</v>
+      </c>
+      <c r="N31">
+        <v>45664</v>
+      </c>
+      <c r="O31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31">
+        <v>45671</v>
+      </c>
+      <c r="Q31">
+        <v>45678</v>
+      </c>
+      <c r="R31">
+        <v>45678</v>
+      </c>
+      <c r="S31">
+        <v>45678</v>
+      </c>
+      <c r="T31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>45663.689457049</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>45664</v>
+      </c>
+      <c r="K32">
+        <v>45664</v>
+      </c>
+      <c r="L32">
+        <v>45664</v>
+      </c>
+      <c r="M32">
+        <v>45664</v>
+      </c>
+      <c r="N32">
+        <v>45664</v>
+      </c>
+      <c r="O32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32">
+        <v>45671</v>
+      </c>
+      <c r="Q32">
+        <v>45671</v>
+      </c>
+      <c r="R32">
+        <v>45672</v>
+      </c>
+      <c r="S32">
+        <v>45672</v>
+      </c>
+      <c r="T32">
+        <v>45672</v>
+      </c>
+      <c r="U32">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>45663.689457049</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>45664</v>
+      </c>
+      <c r="K33">
+        <v>45664</v>
+      </c>
+      <c r="L33">
+        <v>45664</v>
+      </c>
+      <c r="M33">
+        <v>45664</v>
+      </c>
+      <c r="N33">
+        <v>45664</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33">
+        <v>45671</v>
+      </c>
+      <c r="Q33">
+        <v>45671</v>
+      </c>
+      <c r="R33">
+        <v>45672</v>
+      </c>
+      <c r="S33">
+        <v>45672</v>
+      </c>
+      <c r="T33">
+        <v>45672</v>
+      </c>
+      <c r="U33">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34">
+        <v>45664.37754713</v>
+      </c>
+      <c r="B34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>45664</v>
+      </c>
+      <c r="K34">
+        <v>45664</v>
+      </c>
+      <c r="L34">
+        <v>45670</v>
+      </c>
+      <c r="M34">
+        <v>45670</v>
+      </c>
+      <c r="N34">
+        <v>45670</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34">
+        <v>45672</v>
+      </c>
+      <c r="Q34">
+        <v>45672</v>
+      </c>
+      <c r="R34">
+        <v>45673</v>
+      </c>
+      <c r="S34">
+        <v>45673</v>
+      </c>
+      <c r="T34">
+        <v>45674</v>
+      </c>
+      <c r="U34">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35">
+        <v>45664.401232697</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>45665</v>
+      </c>
+      <c r="K35">
+        <v>45665</v>
+      </c>
+      <c r="L35">
+        <v>45665</v>
+      </c>
+      <c r="M35">
+        <v>45672</v>
+      </c>
+      <c r="N35">
+        <v>45672</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35">
+        <v>45677</v>
+      </c>
+      <c r="Q35">
+        <v>45677</v>
+      </c>
+      <c r="R35">
+        <v>45678</v>
+      </c>
+      <c r="S35">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>45664.401232697</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>45665</v>
+      </c>
+      <c r="K36">
+        <v>45665</v>
+      </c>
+      <c r="L36">
+        <v>45665</v>
+      </c>
+      <c r="M36">
+        <v>45672</v>
+      </c>
+      <c r="N36">
+        <v>45672</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36">
+        <v>45677</v>
+      </c>
+      <c r="Q36">
+        <v>45677</v>
+      </c>
+      <c r="R36">
+        <v>45678</v>
+      </c>
+      <c r="S36">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>45664.653271632</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>45665</v>
+      </c>
+      <c r="K37">
+        <v>45665</v>
+      </c>
+      <c r="L37">
+        <v>45665</v>
+      </c>
+      <c r="M37">
+        <v>45665</v>
+      </c>
+      <c r="N37">
+        <v>45665</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37">
+        <v>45672</v>
+      </c>
+      <c r="Q37">
+        <v>45672</v>
+      </c>
+      <c r="R37">
+        <v>45672</v>
+      </c>
+      <c r="S37">
+        <v>45672</v>
+      </c>
+      <c r="T37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <v>45664.657430856</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>45665</v>
+      </c>
+      <c r="K38">
+        <v>45665</v>
+      </c>
+      <c r="L38">
+        <v>45665</v>
+      </c>
+      <c r="M38">
+        <v>45670</v>
+      </c>
+      <c r="N38">
+        <v>45670</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38">
+        <v>45677</v>
+      </c>
+      <c r="Q38">
+        <v>45677</v>
+      </c>
+      <c r="R38">
+        <v>45678</v>
+      </c>
+      <c r="S38">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39">
+        <v>45664.657749537</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>45665</v>
+      </c>
+      <c r="K39">
+        <v>45665</v>
+      </c>
+      <c r="L39">
+        <v>45665</v>
+      </c>
+      <c r="M39">
+        <v>45665</v>
+      </c>
+      <c r="N39">
+        <v>45665</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39">
+        <v>45671</v>
+      </c>
+      <c r="Q39">
+        <v>45677</v>
+      </c>
+      <c r="R39">
+        <v>45677</v>
+      </c>
+      <c r="S39">
+        <v>45677</v>
+      </c>
+      <c r="T39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40">
+        <v>45664.657749537</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>45665</v>
+      </c>
+      <c r="K40">
+        <v>45665</v>
+      </c>
+      <c r="L40">
+        <v>45665</v>
+      </c>
+      <c r="M40">
+        <v>45665</v>
+      </c>
+      <c r="N40">
+        <v>45665</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40">
+        <v>45671</v>
+      </c>
+      <c r="Q40">
+        <v>45677</v>
+      </c>
+      <c r="R40">
+        <v>45677</v>
+      </c>
+      <c r="S40">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41">
+        <v>45664.657749537</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>45665</v>
+      </c>
+      <c r="K41">
+        <v>45665</v>
+      </c>
+      <c r="L41">
+        <v>45665</v>
+      </c>
+      <c r="M41">
+        <v>45665</v>
+      </c>
+      <c r="N41">
+        <v>45665</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41">
+        <v>45671</v>
+      </c>
+      <c r="Q41">
+        <v>45677</v>
+      </c>
+      <c r="R41">
+        <v>45677</v>
+      </c>
+      <c r="S41">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42">
+        <v>45664.660135046</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>45665</v>
+      </c>
+      <c r="K42">
+        <v>45665</v>
+      </c>
+      <c r="L42">
+        <v>45665</v>
+      </c>
+      <c r="M42">
+        <v>45665</v>
+      </c>
+      <c r="N42">
+        <v>45665</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42">
+        <v>45671</v>
+      </c>
+      <c r="Q42">
+        <v>45671</v>
+      </c>
+      <c r="R42">
+        <v>45672</v>
+      </c>
+      <c r="S42">
+        <v>45672</v>
+      </c>
+      <c r="T42">
+        <v>45672</v>
+      </c>
+      <c r="U42">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43">
+        <v>45664.661589699</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>45665</v>
+      </c>
+      <c r="K43">
+        <v>45665</v>
+      </c>
+      <c r="L43">
+        <v>45665</v>
+      </c>
+      <c r="M43">
+        <v>45665</v>
+      </c>
+      <c r="N43">
+        <v>45665</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43">
+        <v>45671</v>
+      </c>
+      <c r="Q43">
+        <v>45671</v>
+      </c>
+      <c r="R43">
+        <v>45672</v>
+      </c>
+      <c r="S43">
+        <v>45672</v>
+      </c>
+      <c r="T43">
+        <v>45672</v>
+      </c>
+      <c r="U43">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44">
+        <v>45664.66212875</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>45665</v>
+      </c>
+      <c r="K44">
+        <v>45665</v>
+      </c>
+      <c r="L44">
+        <v>45665</v>
+      </c>
+      <c r="M44">
+        <v>45665</v>
+      </c>
+      <c r="N44">
+        <v>45665</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>45672</v>
+      </c>
+      <c r="Q44">
+        <v>45677</v>
+      </c>
+      <c r="R44">
+        <v>45677</v>
+      </c>
+      <c r="S44">
+        <v>45677</v>
+      </c>
+      <c r="T44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45">
+        <v>45664.663440023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>45665</v>
+      </c>
+      <c r="K45">
+        <v>45665</v>
+      </c>
+      <c r="L45">
+        <v>45665</v>
+      </c>
+      <c r="M45">
+        <v>45665</v>
+      </c>
+      <c r="N45">
+        <v>45665</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45">
+        <v>45672</v>
+      </c>
+      <c r="Q45">
+        <v>45672</v>
+      </c>
+      <c r="R45">
+        <v>45672</v>
+      </c>
+      <c r="S45">
+        <v>45672</v>
+      </c>
+      <c r="T45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46">
+        <v>45664.66731772</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>45665</v>
+      </c>
+      <c r="K46">
+        <v>45665</v>
+      </c>
+      <c r="L46">
+        <v>45665</v>
+      </c>
+      <c r="M46">
+        <v>45665</v>
+      </c>
+      <c r="N46">
+        <v>45665</v>
+      </c>
+      <c r="O46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46">
+        <v>45671</v>
+      </c>
+      <c r="Q46">
+        <v>45671</v>
+      </c>
+      <c r="R46">
+        <v>45672</v>
+      </c>
+      <c r="S46">
+        <v>45672</v>
+      </c>
+      <c r="T46">
+        <v>45672</v>
+      </c>
+      <c r="U46">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47">
+        <v>45664.668988299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>45665</v>
+      </c>
+      <c r="K47">
+        <v>45665</v>
+      </c>
+      <c r="L47">
+        <v>45665</v>
+      </c>
+      <c r="M47">
+        <v>45665</v>
+      </c>
+      <c r="N47">
+        <v>45665</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47">
+        <v>45671</v>
+      </c>
+      <c r="Q47">
+        <v>45671</v>
+      </c>
+      <c r="R47">
+        <v>45672</v>
+      </c>
+      <c r="S47">
+        <v>45672</v>
+      </c>
+      <c r="T47">
+        <v>45672</v>
+      </c>
+      <c r="U47">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48">
+        <v>45664.670708322</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>45665</v>
+      </c>
+      <c r="K48">
+        <v>45665</v>
+      </c>
+      <c r="L48">
+        <v>45665</v>
+      </c>
+      <c r="M48">
+        <v>45665</v>
+      </c>
+      <c r="N48">
+        <v>45665</v>
+      </c>
+      <c r="O48" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48">
+        <v>45671</v>
+      </c>
+      <c r="Q48">
+        <v>45671</v>
+      </c>
+      <c r="R48">
+        <v>45672</v>
+      </c>
+      <c r="S48">
+        <v>45672</v>
+      </c>
+      <c r="T48">
+        <v>45672</v>
+      </c>
+      <c r="U48">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49">
+        <v>45665.385308032</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>45666</v>
+      </c>
+      <c r="K49">
+        <v>45301</v>
+      </c>
+      <c r="L49">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50">
+        <v>45665.385308032</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>45666</v>
+      </c>
+      <c r="K50">
+        <v>45301</v>
+      </c>
+      <c r="L50">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51">
+        <v>45665.385308032</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>45666</v>
+      </c>
+      <c r="K51">
+        <v>45301</v>
+      </c>
+      <c r="L51">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52">
+        <v>45665.387045428</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>45666</v>
+      </c>
+      <c r="K52">
+        <v>45301</v>
+      </c>
+      <c r="L52">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53">
+        <v>45665.389789931</v>
+      </c>
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>45666</v>
+      </c>
+      <c r="K53">
+        <v>45301</v>
+      </c>
+      <c r="L53">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54">
+        <v>45665.389789931</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>45666</v>
+      </c>
+      <c r="K54">
+        <v>45301</v>
+      </c>
+      <c r="L54">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55">
+        <v>45665.389789931</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>45666</v>
+      </c>
+      <c r="K55">
+        <v>45301</v>
+      </c>
+      <c r="L55">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56">
+        <v>45665.391167627</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>45666</v>
+      </c>
+      <c r="K56">
+        <v>45301</v>
+      </c>
+      <c r="L56">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57">
+        <v>45665.392974086</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>218</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>45666</v>
+      </c>
+      <c r="K57">
+        <v>45301</v>
+      </c>
+      <c r="L57">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58">
+        <v>45665.395678264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>220</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>45666</v>
+      </c>
+      <c r="K58">
+        <v>45301</v>
+      </c>
+      <c r="L58">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59">
+        <v>45665.397304271</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>45666</v>
+      </c>
+      <c r="K59">
+        <v>45301</v>
+      </c>
+      <c r="L59">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60">
+        <v>45665.398521215</v>
+      </c>
+      <c r="B60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>223</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>45666</v>
+      </c>
+      <c r="K60">
+        <v>45301</v>
+      </c>
+      <c r="L60">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61">
+        <v>45666.359450984</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>228</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>45666</v>
+      </c>
+      <c r="K61">
+        <v>45301</v>
+      </c>
+      <c r="L61">
+        <v>45301</v>
+      </c>
+      <c r="M61">
+        <v>45670</v>
+      </c>
+      <c r="N61">
+        <v>45671</v>
+      </c>
+      <c r="O61" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61">
+        <v>45677</v>
+      </c>
+      <c r="Q61">
+        <v>45677</v>
+      </c>
+      <c r="R61">
+        <v>45678</v>
+      </c>
+      <c r="S61">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62">
+        <v>45666.359450984</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>45666</v>
+      </c>
+      <c r="K62">
+        <v>45301</v>
+      </c>
+      <c r="L62">
+        <v>45301</v>
+      </c>
+      <c r="M62">
+        <v>45670</v>
+      </c>
+      <c r="N62">
+        <v>45671</v>
+      </c>
+      <c r="O62" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62">
+        <v>45677</v>
+      </c>
+      <c r="Q62">
+        <v>45677</v>
+      </c>
+      <c r="R62">
+        <v>45678</v>
+      </c>
+      <c r="S62">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63">
+        <v>45666.40125235</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>45667</v>
+      </c>
+      <c r="K63">
+        <v>45667</v>
+      </c>
+      <c r="L63">
+        <v>45667</v>
+      </c>
+      <c r="M63">
+        <v>45667</v>
+      </c>
+      <c r="N63">
+        <v>45667</v>
+      </c>
+      <c r="O63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63">
+        <v>45306</v>
+      </c>
+      <c r="Q63">
+        <v>45306</v>
+      </c>
+      <c r="R63">
+        <v>45306</v>
+      </c>
+      <c r="S63">
+        <v>45306</v>
+      </c>
+      <c r="T63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64">
+        <v>45666.402964502</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>45667</v>
+      </c>
+      <c r="K64">
+        <v>45667</v>
+      </c>
+      <c r="L64">
+        <v>45667</v>
+      </c>
+      <c r="M64">
+        <v>45667</v>
+      </c>
+      <c r="N64">
+        <v>45667</v>
+      </c>
+      <c r="O64" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64">
+        <v>45306</v>
+      </c>
+      <c r="Q64">
+        <v>45306</v>
+      </c>
+      <c r="R64">
+        <v>45306</v>
+      </c>
+      <c r="S64">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65">
+        <v>45666.427908079</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>45667</v>
+      </c>
+      <c r="K65">
+        <v>45667</v>
+      </c>
+      <c r="L65">
+        <v>45667</v>
+      </c>
+      <c r="M65">
+        <v>45667</v>
+      </c>
+      <c r="N65">
+        <v>45667</v>
+      </c>
+      <c r="O65" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65">
+        <v>45306</v>
+      </c>
+      <c r="Q65">
+        <v>45306</v>
+      </c>
+      <c r="R65">
+        <v>45307</v>
+      </c>
+      <c r="S65">
+        <v>45307</v>
+      </c>
+      <c r="T65">
+        <v>45674</v>
+      </c>
+      <c r="U65">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66">
+        <v>45666.524444606</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>244</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <v>45667</v>
+      </c>
+      <c r="K66">
+        <v>45667</v>
+      </c>
+      <c r="L66">
+        <v>45667</v>
+      </c>
+      <c r="M66">
+        <v>45667</v>
+      </c>
+      <c r="N66">
+        <v>45667</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67">
+        <v>45666.54023147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" t="s">
+        <v>247</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>45667</v>
+      </c>
+      <c r="K67">
+        <v>45667</v>
+      </c>
+      <c r="L67">
+        <v>45667</v>
+      </c>
+      <c r="M67">
+        <v>45670</v>
+      </c>
+      <c r="N67">
+        <v>45670</v>
+      </c>
+      <c r="O67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67">
+        <v>45306</v>
+      </c>
+      <c r="Q67">
+        <v>45306</v>
+      </c>
+      <c r="R67">
+        <v>45307</v>
+      </c>
+      <c r="S67">
+        <v>45307</v>
+      </c>
+      <c r="T67">
+        <v>45674</v>
+      </c>
+      <c r="U67">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68">
+        <v>45667.341590382</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>45667</v>
+      </c>
+      <c r="K68">
+        <v>45667</v>
+      </c>
+      <c r="L68">
+        <v>45304</v>
+      </c>
+      <c r="M68">
+        <v>45304</v>
+      </c>
+      <c r="N68">
+        <v>45671</v>
+      </c>
+      <c r="O68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69">
+        <v>45667.415633889</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" t="s">
+        <v>255</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>256</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>45670</v>
+      </c>
+      <c r="K69">
+        <v>45670</v>
+      </c>
+      <c r="L69">
+        <v>45670</v>
+      </c>
+      <c r="M69">
+        <v>45670</v>
+      </c>
+      <c r="N69">
+        <v>45671</v>
+      </c>
+      <c r="O69" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69">
+        <v>45677</v>
+      </c>
+      <c r="Q69">
+        <v>45678</v>
+      </c>
+      <c r="R69">
+        <v>45678</v>
+      </c>
+      <c r="S69">
+        <v>45678</v>
+      </c>
+      <c r="T69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70">
+        <v>45667.415633889</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" t="s">
+        <v>254</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>45670</v>
+      </c>
+      <c r="K70">
+        <v>45670</v>
+      </c>
+      <c r="L70">
+        <v>45670</v>
+      </c>
+      <c r="M70">
+        <v>45670</v>
+      </c>
+      <c r="N70">
+        <v>45671</v>
+      </c>
+      <c r="O70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70">
+        <v>45677</v>
+      </c>
+      <c r="Q70">
+        <v>45678</v>
+      </c>
+      <c r="R70">
+        <v>45678</v>
+      </c>
+      <c r="S70">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71">
+        <v>45667.415633889</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>258</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>45670</v>
+      </c>
+      <c r="K71">
+        <v>45670</v>
+      </c>
+      <c r="L71">
+        <v>45670</v>
+      </c>
+      <c r="M71">
+        <v>45670</v>
+      </c>
+      <c r="N71">
+        <v>45671</v>
+      </c>
+      <c r="O71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71">
+        <v>45677</v>
+      </c>
+      <c r="Q71">
+        <v>45678</v>
+      </c>
+      <c r="R71">
+        <v>45678</v>
+      </c>
+      <c r="S71">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72">
+        <v>45667.42156169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>262</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>45670</v>
+      </c>
+      <c r="K72">
+        <v>45670</v>
+      </c>
+      <c r="L72">
+        <v>45670</v>
+      </c>
+      <c r="M72">
+        <v>45670</v>
+      </c>
+      <c r="N72">
+        <v>45671</v>
+      </c>
+      <c r="O72" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72">
+        <v>45677</v>
+      </c>
+      <c r="Q72">
+        <v>45678</v>
+      </c>
+      <c r="R72">
+        <v>45678</v>
+      </c>
+      <c r="S72">
+        <v>45678</v>
+      </c>
+      <c r="T72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73">
+        <v>45667.424504653</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>268</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>45670</v>
+      </c>
+      <c r="K73">
+        <v>45670</v>
+      </c>
+      <c r="L73">
+        <v>45670</v>
+      </c>
+      <c r="M73">
+        <v>45670</v>
+      </c>
+      <c r="N73">
+        <v>45671</v>
+      </c>
+      <c r="O73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74">
+        <v>45667.426635174</v>
+      </c>
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>268</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>45670</v>
+      </c>
+      <c r="K74">
+        <v>45670</v>
+      </c>
+      <c r="L74">
+        <v>45670</v>
+      </c>
+      <c r="M74">
+        <v>45670</v>
+      </c>
+      <c r="N74">
+        <v>45671</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75">
+        <v>45667.42890478</v>
+      </c>
+      <c r="B75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>45670</v>
+      </c>
+      <c r="K75">
+        <v>45670</v>
+      </c>
+      <c r="L75">
+        <v>45670</v>
+      </c>
+      <c r="M75">
+        <v>45670</v>
+      </c>
+      <c r="N75">
+        <v>45671</v>
+      </c>
+      <c r="O75" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75">
+        <v>45677</v>
+      </c>
+      <c r="Q75">
+        <v>45677</v>
+      </c>
+      <c r="R75">
+        <v>45677</v>
+      </c>
+      <c r="S75">
+        <v>45677</v>
+      </c>
+      <c r="T75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76">
+        <v>45667.469776157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" t="s">
+        <v>241</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>275</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>45670</v>
+      </c>
+      <c r="K76">
+        <v>45670</v>
+      </c>
+      <c r="L76">
+        <v>45670</v>
+      </c>
+      <c r="M76">
+        <v>45670</v>
+      </c>
+      <c r="N76">
+        <v>45671</v>
+      </c>
+      <c r="O76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76">
+        <v>45677</v>
+      </c>
+      <c r="Q76">
+        <v>45677</v>
+      </c>
+      <c r="R76">
+        <v>45678</v>
+      </c>
+      <c r="S76">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77">
+        <v>45667.471624873</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>45670</v>
+      </c>
+      <c r="K77">
+        <v>45670</v>
+      </c>
+      <c r="L77">
+        <v>45670</v>
+      </c>
+      <c r="M77">
+        <v>45670</v>
+      </c>
+      <c r="N77">
+        <v>45671</v>
+      </c>
+      <c r="O77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78">
+        <v>45667.621492523</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s">
+        <v>280</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>45670</v>
+      </c>
+      <c r="K78">
+        <v>45670</v>
+      </c>
+      <c r="L78">
+        <v>45670</v>
+      </c>
+      <c r="M78">
+        <v>45673</v>
+      </c>
+      <c r="N78">
+        <v>45673</v>
+      </c>
+      <c r="O78" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78">
+        <v>45677</v>
+      </c>
+      <c r="Q78">
+        <v>45677</v>
+      </c>
+      <c r="R78">
+        <v>45678</v>
+      </c>
+      <c r="S78">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79">
+        <v>45667.627264977</v>
+      </c>
+      <c r="B79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" t="s">
+        <v>283</v>
+      </c>
+      <c r="E79" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" t="s">
+        <v>285</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>45670</v>
+      </c>
+      <c r="K79">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80">
+        <v>45670.54058044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" t="s">
+        <v>288</v>
+      </c>
+      <c r="E80" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
+        <v>290</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>45670</v>
+      </c>
+      <c r="K80">
+        <v>45304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81">
+        <v>45670.551881817</v>
+      </c>
+      <c r="B81" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>45670</v>
+      </c>
+      <c r="K81">
+        <v>45670</v>
+      </c>
+      <c r="L81">
+        <v>45670</v>
+      </c>
+      <c r="M81">
+        <v>45670</v>
+      </c>
+      <c r="N81">
+        <v>45670</v>
+      </c>
+      <c r="O81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P81">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82">
+        <v>45670.554969213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>45670</v>
+      </c>
+      <c r="K82">
+        <v>45670</v>
+      </c>
+      <c r="L82">
+        <v>45670</v>
+      </c>
+      <c r="M82">
+        <v>45670</v>
+      </c>
+      <c r="N82">
+        <v>45670</v>
+      </c>
+      <c r="O82" t="s">
+        <v>28</v>
+      </c>
+      <c r="P82">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83">
+        <v>45670.575569815</v>
+      </c>
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" t="s">
+        <v>296</v>
+      </c>
+      <c r="E83" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" t="s">
+        <v>298</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>45671</v>
+      </c>
+      <c r="K83">
+        <v>45671</v>
+      </c>
+      <c r="L83">
+        <v>45671</v>
+      </c>
+      <c r="M83">
+        <v>45671</v>
+      </c>
+      <c r="N83">
+        <v>45672</v>
+      </c>
+      <c r="O83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84">
+        <v>45670.578741319</v>
+      </c>
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" t="s">
+        <v>302</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" t="s">
+        <v>303</v>
+      </c>
+      <c r="I84">
+        <v>8</v>
+      </c>
+      <c r="J84">
+        <v>45671</v>
+      </c>
+      <c r="K84">
+        <v>45671</v>
+      </c>
+      <c r="L84">
+        <v>45671</v>
+      </c>
+      <c r="M84">
+        <v>45671</v>
+      </c>
+      <c r="N84">
+        <v>45672</v>
+      </c>
+      <c r="O84" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85">
+        <v>45670.580737743</v>
+      </c>
+      <c r="B85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>45671</v>
+      </c>
+      <c r="K85">
+        <v>45671</v>
+      </c>
+      <c r="L85">
+        <v>45671</v>
+      </c>
+      <c r="M85">
+        <v>45671</v>
+      </c>
+      <c r="N85">
+        <v>45672</v>
+      </c>
+      <c r="O85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86">
+        <v>45670.584669155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" t="s">
+        <v>311</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>312</v>
+      </c>
+      <c r="I86">
+        <v>26</v>
+      </c>
+      <c r="J86">
+        <v>45671</v>
+      </c>
+      <c r="K86">
+        <v>45671</v>
+      </c>
+      <c r="L86">
+        <v>45671</v>
+      </c>
+      <c r="M86">
+        <v>45671</v>
+      </c>
+      <c r="N86">
+        <v>45672</v>
+      </c>
+      <c r="O86" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86">
+        <v>45677</v>
+      </c>
+      <c r="Q86">
+        <v>45677</v>
+      </c>
+      <c r="R86">
+        <v>45678</v>
+      </c>
+      <c r="S86">
+        <v>45678</v>
+      </c>
+      <c r="T86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87">
+        <v>45670.584669155</v>
+      </c>
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>313</v>
+      </c>
+      <c r="I87">
+        <v>14</v>
+      </c>
+      <c r="J87">
+        <v>45671</v>
+      </c>
+      <c r="K87">
+        <v>45671</v>
+      </c>
+      <c r="L87">
+        <v>45671</v>
+      </c>
+      <c r="M87">
+        <v>45671</v>
+      </c>
+      <c r="N87">
+        <v>45672</v>
+      </c>
+      <c r="O87" t="s">
+        <v>28</v>
+      </c>
+      <c r="P87">
+        <v>45677</v>
+      </c>
+      <c r="Q87">
+        <v>45677</v>
+      </c>
+      <c r="R87">
+        <v>45678</v>
+      </c>
+      <c r="S87">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88">
+        <v>45670.590321493</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" t="s">
+        <v>314</v>
+      </c>
+      <c r="D88" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>317</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>45672</v>
+      </c>
+      <c r="K88">
+        <v>45672</v>
+      </c>
+      <c r="L88">
+        <v>45672</v>
+      </c>
+      <c r="M88">
+        <v>45672</v>
+      </c>
+      <c r="N88">
+        <v>45672</v>
+      </c>
+      <c r="O88" t="s">
+        <v>28</v>
+      </c>
+      <c r="P88">
+        <v>45677</v>
+      </c>
+      <c r="Q88">
+        <v>45677</v>
+      </c>
+      <c r="R88">
+        <v>45678</v>
+      </c>
+      <c r="S88">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89">
+        <v>45670.590321493</v>
+      </c>
+      <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" t="s">
+        <v>316</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" t="s">
+        <v>318</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>45672</v>
+      </c>
+      <c r="K89">
+        <v>45672</v>
+      </c>
+      <c r="L89">
+        <v>45672</v>
+      </c>
+      <c r="M89">
+        <v>45672</v>
+      </c>
+      <c r="N89">
+        <v>45672</v>
+      </c>
+      <c r="O89" t="s">
+        <v>28</v>
+      </c>
+      <c r="P89">
+        <v>45677</v>
+      </c>
+      <c r="Q89">
+        <v>45677</v>
+      </c>
+      <c r="R89">
+        <v>45678</v>
+      </c>
+      <c r="S89">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90">
+        <v>45670.590321493</v>
+      </c>
+      <c r="B90" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" t="s">
+        <v>315</v>
+      </c>
+      <c r="E90" t="s">
+        <v>316</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" t="s">
+        <v>319</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>45672</v>
+      </c>
+      <c r="K90">
+        <v>45672</v>
+      </c>
+      <c r="L90">
+        <v>45672</v>
+      </c>
+      <c r="M90">
+        <v>45672</v>
+      </c>
+      <c r="N90">
+        <v>45672</v>
+      </c>
+      <c r="O90" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90">
+        <v>45677</v>
+      </c>
+      <c r="Q90">
+        <v>45677</v>
+      </c>
+      <c r="R90">
+        <v>45678</v>
+      </c>
+      <c r="S90">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91">
+        <v>45670.590321493</v>
+      </c>
+      <c r="B91" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>315</v>
+      </c>
+      <c r="E91" t="s">
+        <v>316</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s">
+        <v>320</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>45672</v>
+      </c>
+      <c r="K91">
+        <v>45672</v>
+      </c>
+      <c r="L91">
+        <v>45672</v>
+      </c>
+      <c r="M91">
+        <v>45672</v>
+      </c>
+      <c r="N91">
+        <v>45672</v>
+      </c>
+      <c r="O91" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91">
+        <v>45677</v>
+      </c>
+      <c r="Q91">
+        <v>45677</v>
+      </c>
+      <c r="R91">
+        <v>45678</v>
+      </c>
+      <c r="S91">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92">
+        <v>45670.597692442</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" t="s">
+        <v>321</v>
+      </c>
+      <c r="D92" t="s">
+        <v>315</v>
+      </c>
+      <c r="E92" t="s">
+        <v>316</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s">
+        <v>322</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>45672</v>
+      </c>
+      <c r="K92">
+        <v>45672</v>
+      </c>
+      <c r="L92">
+        <v>45672</v>
+      </c>
+      <c r="M92">
+        <v>45672</v>
+      </c>
+      <c r="N92">
+        <v>45672</v>
+      </c>
+      <c r="O92" t="s">
+        <v>28</v>
+      </c>
+      <c r="P92">
+        <v>45677</v>
+      </c>
+      <c r="Q92">
+        <v>45677</v>
+      </c>
+      <c r="R92">
+        <v>45678</v>
+      </c>
+      <c r="S92">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93">
+        <v>45670.597692442</v>
+      </c>
+      <c r="B93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" t="s">
+        <v>316</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" t="s">
+        <v>323</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>45672</v>
+      </c>
+      <c r="K93">
+        <v>45672</v>
+      </c>
+      <c r="L93">
+        <v>45672</v>
+      </c>
+      <c r="M93">
+        <v>45672</v>
+      </c>
+      <c r="N93">
+        <v>45672</v>
+      </c>
+      <c r="O93" t="s">
+        <v>28</v>
+      </c>
+      <c r="P93">
+        <v>45677</v>
+      </c>
+      <c r="Q93">
+        <v>45677</v>
+      </c>
+      <c r="R93">
+        <v>45678</v>
+      </c>
+      <c r="S93">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94">
+        <v>45670.623569005</v>
+      </c>
+      <c r="B94" t="s">
+        <v>324</v>
+      </c>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" t="s">
+        <v>284</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" t="s">
+        <v>326</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>45672</v>
+      </c>
+      <c r="K94">
+        <v>45672</v>
+      </c>
+      <c r="L94">
+        <v>45672</v>
+      </c>
+      <c r="M94">
+        <v>45672</v>
+      </c>
+      <c r="N94">
+        <v>45672</v>
+      </c>
+      <c r="O94" t="s">
+        <v>28</v>
+      </c>
+      <c r="P94">
+        <v>45677</v>
+      </c>
+      <c r="Q94">
+        <v>45677</v>
+      </c>
+      <c r="R94">
+        <v>45678</v>
+      </c>
+      <c r="S94">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95">
+        <v>45670.949430648</v>
+      </c>
+      <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>327</v>
+      </c>
+      <c r="D95" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" t="s">
+        <v>329</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" t="s">
+        <v>330</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>45672</v>
+      </c>
+      <c r="K95">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96">
+        <v>45670.951589988</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" t="s">
+        <v>332</v>
+      </c>
+      <c r="E96" t="s">
+        <v>329</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" t="s">
+        <v>333</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>45672</v>
+      </c>
+      <c r="K96">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97">
+        <v>45671.479952488</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>334</v>
+      </c>
+      <c r="D97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" t="s">
+        <v>336</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" t="s">
+        <v>337</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>45672</v>
+      </c>
+      <c r="K97">
+        <v>45672</v>
+      </c>
+      <c r="L97">
+        <v>45672</v>
+      </c>
+      <c r="M97">
+        <v>45672</v>
+      </c>
+      <c r="N97">
+        <v>45672</v>
+      </c>
+      <c r="O97" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97">
+        <v>45677</v>
+      </c>
+      <c r="Q97">
+        <v>45677</v>
+      </c>
+      <c r="R97">
+        <v>45678</v>
+      </c>
+      <c r="S97">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98">
+        <v>45671.500486817</v>
+      </c>
+      <c r="B98" t="s">
+        <v>338</v>
+      </c>
+      <c r="C98" t="s">
+        <v>339</v>
+      </c>
+      <c r="D98" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F98" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" t="s">
+        <v>182</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>45672</v>
+      </c>
+      <c r="K98">
+        <v>45672</v>
+      </c>
+      <c r="L98">
+        <v>45672</v>
+      </c>
+      <c r="M98">
+        <v>45672</v>
+      </c>
+      <c r="N98">
+        <v>45672</v>
+      </c>
+      <c r="O98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98">
+        <v>45677</v>
+      </c>
+      <c r="Q98">
+        <v>45677</v>
+      </c>
+      <c r="R98">
+        <v>45678</v>
+      </c>
+      <c r="S98">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99">
+        <v>45671.560309572</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>45672</v>
+      </c>
+      <c r="K99">
+        <v>45672</v>
+      </c>
+      <c r="L99">
+        <v>45672</v>
+      </c>
+      <c r="M99">
+        <v>45673</v>
+      </c>
+      <c r="N99">
+        <v>45674</v>
+      </c>
+      <c r="O99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100">
+        <v>45671.599241331</v>
+      </c>
+      <c r="B100" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" t="s">
+        <v>344</v>
+      </c>
+      <c r="D100" t="s">
+        <v>345</v>
+      </c>
+      <c r="E100" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s">
+        <v>347</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>45677</v>
+      </c>
+      <c r="K100">
+        <v>45677</v>
+      </c>
+      <c r="L100">
+        <v>45678</v>
+      </c>
+      <c r="M100">
+        <v>45678</v>
+      </c>
+      <c r="N100">
+        <v>45678</v>
+      </c>
+      <c r="O100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101">
+        <v>45671.604883403</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" t="s">
+        <v>349</v>
+      </c>
+      <c r="E101" t="s">
+        <v>350</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" t="s">
+        <v>351</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>45672</v>
+      </c>
+      <c r="K101">
+        <v>45672</v>
+      </c>
+      <c r="L101">
+        <v>45672</v>
+      </c>
+      <c r="M101">
+        <v>45673</v>
+      </c>
+      <c r="N101">
+        <v>45674</v>
+      </c>
+      <c r="O101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102">
+        <v>45671.604883403</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+      <c r="D102" t="s">
+        <v>349</v>
+      </c>
+      <c r="E102" t="s">
+        <v>350</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s">
+        <v>352</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>45672</v>
+      </c>
+      <c r="K102">
+        <v>45672</v>
+      </c>
+      <c r="L102">
+        <v>45672</v>
+      </c>
+      <c r="M102">
+        <v>45673</v>
+      </c>
+      <c r="N102">
+        <v>45674</v>
+      </c>
+      <c r="O102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103">
+        <v>45671.607873958</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" t="s">
+        <v>353</v>
+      </c>
+      <c r="D103" t="s">
+        <v>354</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s">
+        <v>355</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>45672</v>
+      </c>
+      <c r="K103">
+        <v>45672</v>
+      </c>
+      <c r="L103">
+        <v>45672</v>
+      </c>
+      <c r="M103">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104">
+        <v>45671.610390428</v>
+      </c>
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" t="s">
+        <v>356</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
+        <v>357</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>355</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>45672</v>
+      </c>
+      <c r="K104">
+        <v>45672</v>
+      </c>
+      <c r="L104">
+        <v>45672</v>
+      </c>
+      <c r="M104">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105">
+        <v>45671.626801771</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" t="s">
+        <v>359</v>
+      </c>
+      <c r="E105" t="s">
+        <v>360</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s">
+        <v>361</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>45672</v>
+      </c>
+      <c r="K105">
+        <v>45672</v>
+      </c>
+      <c r="L105">
+        <v>45674</v>
+      </c>
+      <c r="M105">
+        <v>45674</v>
+      </c>
+      <c r="N105">
+        <v>45677</v>
+      </c>
+      <c r="O105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106">
+        <v>45671.63728206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>324</v>
+      </c>
+      <c r="C106" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" t="s">
+        <v>363</v>
+      </c>
+      <c r="E106" t="s">
+        <v>284</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>364</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>45672</v>
+      </c>
+      <c r="K106">
+        <v>45672</v>
+      </c>
+      <c r="L106">
+        <v>45672</v>
+      </c>
+      <c r="M106">
+        <v>45672</v>
+      </c>
+      <c r="N106">
+        <v>45673</v>
+      </c>
+      <c r="O106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107">
+        <v>45671.693252951</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" t="s">
+        <v>366</v>
+      </c>
+      <c r="E107" t="s">
+        <v>289</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" t="s">
+        <v>367</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>45672</v>
+      </c>
+      <c r="K107">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108">
+        <v>45672.29333456</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>369</v>
+      </c>
+      <c r="E108" t="s">
+        <v>135</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s">
+        <v>370</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>45672</v>
+      </c>
+      <c r="K108">
+        <v>45672</v>
+      </c>
+      <c r="L108">
+        <v>45674</v>
+      </c>
+      <c r="M108">
+        <v>45674</v>
+      </c>
+      <c r="N108">
+        <v>45677</v>
+      </c>
+      <c r="O108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109">
+        <v>45672.29560515</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>371</v>
+      </c>
+      <c r="D109" t="s">
+        <v>372</v>
+      </c>
+      <c r="E109" t="s">
+        <v>135</v>
+      </c>
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" t="s">
+        <v>373</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>45673</v>
+      </c>
+      <c r="K109">
+        <v>45673</v>
+      </c>
+      <c r="L109">
+        <v>45674</v>
+      </c>
+      <c r="M109">
+        <v>45674</v>
+      </c>
+      <c r="N109">
+        <v>45677</v>
+      </c>
+      <c r="O109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110">
+        <v>45673.431112998</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="s">
+        <v>374</v>
+      </c>
+      <c r="D110" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" t="s">
+        <v>376</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s">
+        <v>377</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>45677</v>
+      </c>
+      <c r="K110">
+        <v>45677</v>
+      </c>
+      <c r="L110">
+        <v>45677</v>
+      </c>
+      <c r="M110">
+        <v>45677</v>
+      </c>
+      <c r="N110">
+        <v>45677</v>
+      </c>
+      <c r="O110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111">
+        <v>45673.547375822</v>
+      </c>
+      <c r="B111" t="s">
+        <v>378</v>
+      </c>
+      <c r="C111" t="s">
+        <v>379</v>
+      </c>
+      <c r="D111" t="s">
+        <v>380</v>
+      </c>
+      <c r="E111" t="s">
+        <v>381</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>382</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>45677</v>
+      </c>
+      <c r="K111">
+        <v>45677</v>
+      </c>
+      <c r="L111">
+        <v>45677</v>
+      </c>
+      <c r="M111">
+        <v>45677</v>
+      </c>
+      <c r="N111">
+        <v>45677</v>
+      </c>
+      <c r="O111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112">
+        <v>45673.560086539</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" t="s">
+        <v>384</v>
+      </c>
+      <c r="E112" t="s">
+        <v>376</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s">
+        <v>385</v>
+      </c>
+      <c r="I112">
+        <v>15</v>
+      </c>
+      <c r="J112">
+        <v>45677</v>
+      </c>
+      <c r="K112">
+        <v>45677</v>
+      </c>
+      <c r="L112">
+        <v>45677</v>
+      </c>
+      <c r="M112">
+        <v>45677</v>
+      </c>
+      <c r="N112">
+        <v>45677</v>
+      </c>
+      <c r="O112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113">
+        <v>45673.591128623</v>
+      </c>
+      <c r="B113" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" t="s">
+        <v>388</v>
+      </c>
+      <c r="E113" t="s">
+        <v>389</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" t="s">
+        <v>272</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>45677</v>
+      </c>
+      <c r="K113">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114">
+        <v>45673.593893449</v>
+      </c>
+      <c r="B114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" t="s">
+        <v>390</v>
+      </c>
+      <c r="D114" t="s">
+        <v>391</v>
+      </c>
+      <c r="E114" t="s">
+        <v>392</v>
+      </c>
+      <c r="F114" t="s">
+        <v>66</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s">
+        <v>393</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>45677</v>
+      </c>
+      <c r="K114">
+        <v>45677</v>
+      </c>
+      <c r="L114">
+        <v>45678</v>
+      </c>
+      <c r="M114">
+        <v>45678</v>
+      </c>
+      <c r="N114">
+        <v>45678</v>
+      </c>
+      <c r="O114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115">
+        <v>45673.59589956</v>
+      </c>
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+      <c r="C115" t="s">
+        <v>394</v>
+      </c>
+      <c r="D115" t="s">
+        <v>391</v>
+      </c>
+      <c r="E115" t="s">
+        <v>392</v>
+      </c>
+      <c r="F115" t="s">
+        <v>66</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" t="s">
+        <v>395</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>45677</v>
+      </c>
+      <c r="K115">
+        <v>45677</v>
+      </c>
+      <c r="L115">
+        <v>45678</v>
+      </c>
+      <c r="M115">
+        <v>45678</v>
+      </c>
+      <c r="N115">
+        <v>45678</v>
+      </c>
+      <c r="O115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116">
+        <v>45673.634863333</v>
+      </c>
+      <c r="B116" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" t="s">
+        <v>397</v>
+      </c>
+      <c r="D116" t="s">
+        <v>398</v>
+      </c>
+      <c r="E116" t="s">
+        <v>399</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s">
+        <v>400</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>45677</v>
+      </c>
+      <c r="K116">
+        <v>45677</v>
+      </c>
+      <c r="L116">
+        <v>45677</v>
+      </c>
+      <c r="M116">
+        <v>45677</v>
+      </c>
+      <c r="N116">
+        <v>45677</v>
+      </c>
+      <c r="O116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117">
+        <v>45674.46296338</v>
+      </c>
+      <c r="B117" t="s">
+        <v>401</v>
+      </c>
+      <c r="C117" t="s">
+        <v>402</v>
+      </c>
+      <c r="D117" t="s">
+        <v>403</v>
+      </c>
+      <c r="E117" t="s">
+        <v>45</v>
+      </c>
+      <c r="F117" t="s">
+        <v>66</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" t="s">
+        <v>404</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>45677</v>
+      </c>
+      <c r="K117">
+        <v>45677</v>
+      </c>
+      <c r="L117">
+        <v>45677</v>
+      </c>
+      <c r="M117">
+        <v>45677</v>
+      </c>
+      <c r="N117">
+        <v>45677</v>
+      </c>
+      <c r="O117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118">
+        <v>45674.543377234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" t="s">
+        <v>405</v>
+      </c>
+      <c r="D118" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" t="s">
+        <v>407</v>
+      </c>
+      <c r="F118" t="s">
+        <v>66</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s">
+        <v>408</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>45678</v>
+      </c>
+      <c r="K118">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119">
+        <v>45674.838265463</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>409</v>
+      </c>
+      <c r="D119" t="s">
+        <v>410</v>
+      </c>
+      <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" t="s">
+        <v>90</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>45678</v>
+      </c>
+      <c r="K119">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120">
+        <v>45675.96266331</v>
+      </c>
+      <c r="B120" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" t="s">
+        <v>411</v>
+      </c>
+      <c r="D120" t="s">
+        <v>328</v>
+      </c>
+      <c r="E120" t="s">
+        <v>329</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" t="s">
+        <v>412</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>45678</v>
+      </c>
+      <c r="K120">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121">
+        <v>45675.96266331</v>
+      </c>
+      <c r="B121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>411</v>
+      </c>
+      <c r="D121" t="s">
+        <v>328</v>
+      </c>
+      <c r="E121" t="s">
+        <v>329</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" t="s">
+        <v>413</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>45678</v>
+      </c>
+      <c r="K121">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122">
+        <v>45675.964769375</v>
+      </c>
+      <c r="B122" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>414</v>
+      </c>
+      <c r="D122" t="s">
+        <v>366</v>
+      </c>
+      <c r="E122" t="s">
+        <v>289</v>
+      </c>
+      <c r="F122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s">
+        <v>415</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>45678</v>
+      </c>
+      <c r="K122">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123">
+        <v>45675.966630197</v>
+      </c>
+      <c r="B123" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" t="s">
+        <v>416</v>
+      </c>
+      <c r="D123" t="s">
+        <v>366</v>
+      </c>
+      <c r="E123" t="s">
+        <v>289</v>
+      </c>
+      <c r="F123" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" t="s">
+        <v>417</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>45678</v>
+      </c>
+      <c r="K123">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124">
+        <v>45675.967970856</v>
+      </c>
+      <c r="B124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" t="s">
+        <v>418</v>
+      </c>
+      <c r="D124" t="s">
+        <v>419</v>
+      </c>
+      <c r="E124" t="s">
+        <v>289</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" t="s">
+        <v>420</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>45678</v>
+      </c>
+      <c r="K124">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125">
+        <v>45675.969423738</v>
+      </c>
+      <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" t="s">
+        <v>421</v>
+      </c>
+      <c r="D125" t="s">
+        <v>419</v>
+      </c>
+      <c r="E125" t="s">
+        <v>289</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" t="s">
+        <v>422</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>45678</v>
+      </c>
+      <c r="K125">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126">
+        <v>45676.414602037</v>
+      </c>
+      <c r="B126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" t="s">
+        <v>423</v>
+      </c>
+      <c r="D126" t="s">
+        <v>424</v>
+      </c>
+      <c r="E126" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" t="s">
+        <v>425</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127">
+        <v>45676.746967882</v>
+      </c>
+      <c r="B127" t="s">
+        <v>426</v>
+      </c>
+      <c r="C127" t="s">
+        <v>427</v>
+      </c>
+      <c r="D127" t="s">
+        <v>428</v>
+      </c>
+      <c r="E127" t="s">
+        <v>429</v>
+      </c>
+      <c r="F127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G127" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" t="s">
+        <v>430</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128">
+        <v>45676.748178391</v>
+      </c>
+      <c r="B128" t="s">
+        <v>426</v>
+      </c>
+      <c r="C128" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" t="s">
+        <v>428</v>
+      </c>
+      <c r="E128" t="s">
+        <v>429</v>
+      </c>
+      <c r="F128" t="s">
+        <v>66</v>
+      </c>
+      <c r="G128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" t="s">
+        <v>432</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129">
+        <v>45677.449567326</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" t="s">
+        <v>434</v>
+      </c>
+      <c r="E129" t="s">
+        <v>435</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" t="s">
+        <v>436</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130">
+        <v>45677.449567326</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>433</v>
+      </c>
+      <c r="D130" t="s">
+        <v>434</v>
+      </c>
+      <c r="E130" t="s">
+        <v>435</v>
+      </c>
+      <c r="F130" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" t="s">
+        <v>437</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131">
+        <v>45678.397806956</v>
+      </c>
+      <c r="B131" t="s">
+        <v>426</v>
+      </c>
+      <c r="C131" t="s">
+        <v>438</v>
+      </c>
+      <c r="D131" t="s">
+        <v>439</v>
+      </c>
+      <c r="E131" t="s">
+        <v>440</v>
+      </c>
+      <c r="F131" t="s">
+        <v>66</v>
+      </c>
+      <c r="G131" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" t="s">
+        <v>441</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132">
+        <v>45678.399251319</v>
+      </c>
+      <c r="B132" t="s">
+        <v>426</v>
+      </c>
+      <c r="C132" t="s">
+        <v>442</v>
+      </c>
+      <c r="D132" t="s">
+        <v>443</v>
+      </c>
+      <c r="E132" t="s">
+        <v>440</v>
+      </c>
+      <c r="F132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s">
+        <v>444</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
     </row>

--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,19 +80,19 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
-    <t>1/20/2025 9:43:52</t>
-  </si>
-  <si>
-    <t>JB PN</t>
-  </si>
-  <si>
-    <t>RB520</t>
-  </si>
-  <si>
-    <t>Demetria ( JB PN )</t>
-  </si>
-  <si>
-    <t>Cirebon</t>
+    <t>10/12/2024 10:27:31</t>
+  </si>
+  <si>
+    <t>JR-RW</t>
+  </si>
+  <si>
+    <t>RB55</t>
+  </si>
+  <si>
+    <t>PT.MEGA KRIAN PERMAI(PALAPA KRIAN- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>SIDOARJO</t>
   </si>
   <si>
     <t>BARU</t>
@@ -101,16 +101,208 @@
     <t>GFORM</t>
   </si>
   <si>
-    <t>SPANDUK CHINA 390*40cm</t>
-  </si>
-  <si>
-    <t>22/01/2025</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
+    <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>PENDING DR SALES</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:08:24</t>
+  </si>
+  <si>
+    <t>RB550</t>
+  </si>
+  <si>
+    <t>TOSERBA SUNAN DRAJAT</t>
+  </si>
+  <si>
+    <t>LAMONGAN - JATIM</t>
+  </si>
+  <si>
+    <t>STIKER DOFF  14*166CM</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>STIKER DOFF  17*166CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIKER DOFF 422*17CM </t>
+  </si>
+  <si>
+    <t>1/24/2025 14:15:03</t>
+  </si>
+  <si>
+    <t>RB551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVIA COLLECTION </t>
+  </si>
+  <si>
+    <t>TUBAN - JATIM</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 285*42CM</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:22:49</t>
+  </si>
+  <si>
+    <t>RB552</t>
+  </si>
+  <si>
+    <t>RAHASIA WANITA</t>
+  </si>
+  <si>
+    <t>LAMONGAN -JATIM</t>
+  </si>
+  <si>
+    <t>PEREMAJAAN</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*25CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 250*25CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 280*42CM</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:30:12</t>
+  </si>
+  <si>
+    <t>RB553</t>
+  </si>
+  <si>
+    <t>FEMINIM UNDERWEAR</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 115*150CM</t>
+  </si>
+  <si>
+    <t>30/1/2025</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>4/2/2025</t>
+  </si>
+  <si>
+    <t>5/2/2025</t>
+  </si>
+  <si>
+    <t>6/2/2025</t>
+  </si>
+  <si>
+    <t>7/2/2025</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:14:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB </t>
+  </si>
+  <si>
+    <t>RB554</t>
+  </si>
+  <si>
+    <t>Yogya Bogor Junction</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 64*305cm</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:19:31</t>
+  </si>
+  <si>
+    <t>RB555</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 184*41cm</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:25:13</t>
+  </si>
+  <si>
+    <t>JB YN</t>
+  </si>
+  <si>
+    <t>RB556</t>
+  </si>
+  <si>
+    <t>Chi A Quih ( JB YN )</t>
+  </si>
+  <si>
+    <t>CIanjur</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 286*87cm</t>
   </si>
   <si>
     <t>ELNI</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:26:44</t>
+  </si>
+  <si>
+    <t>JB IW</t>
+  </si>
+  <si>
+    <t>RB557</t>
+  </si>
+  <si>
+    <t>X-Sha SP ( JB IW )</t>
+  </si>
+  <si>
+    <t>Tasikmalaya</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 250*150cm</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:45:23</t>
+  </si>
+  <si>
+    <t>JR-YOS</t>
+  </si>
+  <si>
+    <t>RB558</t>
+  </si>
+  <si>
+    <t>DALEMAN KITA</t>
+  </si>
+  <si>
+    <t>BANYUWANGI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 880*165CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 500*95CM</t>
+  </si>
+  <si>
+    <t>1/25/2025 11:55:16</t>
+  </si>
+  <si>
+    <t>RB559</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 155*68CM</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 115*68CM</t>
   </si>
 </sst>
 </file>
@@ -450,7 +642,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,25 +744,815 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
         <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
+      </c>
+      <c r="U18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,6 +80,162 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
+    <t>10/2/2024 11:02:48</t>
+  </si>
+  <si>
+    <t>JR.STO</t>
+  </si>
+  <si>
+    <t>RB5</t>
+  </si>
+  <si>
+    <t>NUNO BABY SHOP</t>
+  </si>
+  <si>
+    <t>MADIUN</t>
+  </si>
+  <si>
+    <t>BARU</t>
+  </si>
+  <si>
+    <t>GFORM</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 22*15cm</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:10:11</t>
+  </si>
+  <si>
+    <t>JR.DO</t>
+  </si>
+  <si>
+    <t>RB50</t>
+  </si>
+  <si>
+    <t>LAUTAN DALEMAN</t>
+  </si>
+  <si>
+    <t>BANYUWANGI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 750*50cm</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>3/11/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:26:55</t>
+  </si>
+  <si>
+    <t>JR.WT</t>
+  </si>
+  <si>
+    <t>RB51</t>
+  </si>
+  <si>
+    <t>Toserba amanah loris</t>
+  </si>
+  <si>
+    <t>Blitar</t>
+  </si>
+  <si>
+    <t>PEREMAJAAN</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 60cm*40cm</t>
+  </si>
+  <si>
+    <t>smj</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:35:09</t>
+  </si>
+  <si>
+    <t>RB52</t>
+  </si>
+  <si>
+    <t>Toserba amanah JKT</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 66cm*154cm</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 192cm*21cm</t>
+  </si>
+  <si>
+    <t>10/11/2024 11:19:07</t>
+  </si>
+  <si>
+    <t>JB IL</t>
+  </si>
+  <si>
+    <t>RB53</t>
+  </si>
+  <si>
+    <t>Tabina ( JB IL )</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>NEONBOX 200*60CM</t>
+  </si>
+  <si>
+    <t>email ke pak dadang</t>
+  </si>
+  <si>
+    <t>10/11/2024 21:19:41</t>
+  </si>
+  <si>
+    <t>JR.SUL</t>
+  </si>
+  <si>
+    <t>RB54</t>
+  </si>
+  <si>
+    <t>ATLAS SPORT CENTER</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>X BANNER 60*160cm</t>
+  </si>
+  <si>
+    <t>PENDING DR SALES</t>
+  </si>
+  <si>
     <t>10/12/2024 10:27:31</t>
   </si>
   <si>
@@ -95,19 +251,832 @@
     <t>SIDOARJO</t>
   </si>
   <si>
-    <t>BARU</t>
-  </si>
-  <si>
-    <t>GFORM</t>
-  </si>
-  <si>
     <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
   </si>
   <si>
     <t>15/10/2024</t>
   </si>
   <si>
-    <t>PENDING DR SALES</t>
+    <t>10/12/2024 10:41:21</t>
+  </si>
+  <si>
+    <t>JR-RMI</t>
+  </si>
+  <si>
+    <t>RB56</t>
+  </si>
+  <si>
+    <t>PT.MEGA SEPANJANG PERMAI (PALAPA SEPANJANG- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 42*39CM</t>
+  </si>
+  <si>
+    <t>12/10/2024 12:27:33</t>
+  </si>
+  <si>
+    <t>RB57</t>
+  </si>
+  <si>
+    <t>SPORT CENTER SITUBONDO</t>
+  </si>
+  <si>
+    <t>SITUBONDO</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*100cm</t>
+  </si>
+  <si>
+    <t>kirim email pak santo</t>
+  </si>
+  <si>
+    <t>10/12/2024 12:31:24</t>
+  </si>
+  <si>
+    <t>RB58</t>
+  </si>
+  <si>
+    <t>POSTER DOFF  330*120cm</t>
+  </si>
+  <si>
+    <t>14/10/2024 8:18:51</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>RB59</t>
+  </si>
+  <si>
+    <t>DAF FUTSAL</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*100CM</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>ramziewahyu@gmail.com</t>
+  </si>
+  <si>
+    <t>1/14/2025 15:06:37</t>
+  </si>
+  <si>
+    <t>JR. ACD</t>
+  </si>
+  <si>
+    <t>RB500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpk Robet sahri </t>
+  </si>
+  <si>
+    <t>Pamekasan</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 80*30cm</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>30/1/2025</t>
+  </si>
+  <si>
+    <t>31/1/2025</t>
+  </si>
+  <si>
+    <t>3/2/2025</t>
+  </si>
+  <si>
+    <t>4/2/2025</t>
+  </si>
+  <si>
+    <t>1/16/2025 14:00:50</t>
+  </si>
+  <si>
+    <t>RB501</t>
+  </si>
+  <si>
+    <t>ARCY COLLECTION</t>
+  </si>
+  <si>
+    <t>BANGKALAN</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>5/2/2025</t>
+  </si>
+  <si>
+    <t>1/16/2025 16:04:44</t>
+  </si>
+  <si>
+    <t>Jr. Do</t>
+  </si>
+  <si>
+    <t>RB502</t>
+  </si>
+  <si>
+    <t>Assyifa collection</t>
+  </si>
+  <si>
+    <t>Probolinggo</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 32*102cm</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:33:36</t>
+  </si>
+  <si>
+    <t>JB DD</t>
+  </si>
+  <si>
+    <t>RB503</t>
+  </si>
+  <si>
+    <t>Bungsu Jaya Group ( JB DD )</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 60*30cm</t>
+  </si>
+  <si>
+    <t>30/01/2025</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>31/1/1015</t>
+  </si>
+  <si>
+    <t>6/2/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:42:14</t>
+  </si>
+  <si>
+    <t>JB BD</t>
+  </si>
+  <si>
+    <t>RB504</t>
+  </si>
+  <si>
+    <t>Ratu Obral Kabasiran ( JB BD )</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 265*45cm</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>ELNI</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:44:51</t>
+  </si>
+  <si>
+    <t>JB MI</t>
+  </si>
+  <si>
+    <t>RB505</t>
+  </si>
+  <si>
+    <t>Mika Shop ( JB MI )</t>
+  </si>
+  <si>
+    <t>Karawang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 500*65cm</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 212*77cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 130*67cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 140*67cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:46:42</t>
+  </si>
+  <si>
+    <t>RB506</t>
+  </si>
+  <si>
+    <t>Tiget ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 295*125cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:48:15</t>
+  </si>
+  <si>
+    <t>RB507</t>
+  </si>
+  <si>
+    <t>Mario Pabuaran ( JB MI )</t>
+  </si>
+  <si>
+    <t>Subang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 153*65cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:49:33</t>
+  </si>
+  <si>
+    <t>RB508</t>
+  </si>
+  <si>
+    <t>Fidelia Baby Shop ( JB BD )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogor </t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*120cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:52:12</t>
+  </si>
+  <si>
+    <t>RB509</t>
+  </si>
+  <si>
+    <t>Arumi Underwear ( JB MI )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 25*35cm</t>
+  </si>
+  <si>
+    <t>7/2/2025</t>
+  </si>
+  <si>
+    <t>8/2/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:53:51</t>
+  </si>
+  <si>
+    <t>RB510</t>
+  </si>
+  <si>
+    <t>Amira Busana ( JB MI )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 46*42cm</t>
+  </si>
+  <si>
+    <t>(hold)</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:55:17</t>
+  </si>
+  <si>
+    <t>RB511</t>
+  </si>
+  <si>
+    <t>Mario Kosambi ( JB MI )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 134*208cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:57:10</t>
+  </si>
+  <si>
+    <t>RB512</t>
+  </si>
+  <si>
+    <t>Expo Baby Sshop &amp; Child</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 480*130cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:59:11</t>
+  </si>
+  <si>
+    <t>JB RS</t>
+  </si>
+  <si>
+    <t>RB513</t>
+  </si>
+  <si>
+    <t>Sandang Murah Sindang Laut ( JB RS )</t>
+  </si>
+  <si>
+    <t>Kuningan</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 100*40cm</t>
+  </si>
+  <si>
+    <t>BARANG DI BAWA PA EDDY</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 100*100cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:00:58</t>
+  </si>
+  <si>
+    <t>RB514</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 77*187cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:02:34</t>
+  </si>
+  <si>
+    <t>RB515</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 491*225cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:05:04</t>
+  </si>
+  <si>
+    <t>RB516</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 90*40cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:06:51</t>
+  </si>
+  <si>
+    <t>RB517</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1170*100cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:12:06</t>
+  </si>
+  <si>
+    <t>JB AD</t>
+  </si>
+  <si>
+    <t>RB518</t>
+  </si>
+  <si>
+    <t>Ar Dewi ( JB AD )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandung </t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*25cm</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 25*14cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:14:37</t>
+  </si>
+  <si>
+    <t>JB RV</t>
+  </si>
+  <si>
+    <t>RB519</t>
+  </si>
+  <si>
+    <t>Rahma ( JB RV )</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1420*80cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:43:52</t>
+  </si>
+  <si>
+    <t>JB PN</t>
+  </si>
+  <si>
+    <t>RB520</t>
+  </si>
+  <si>
+    <t>Demetria ( JB PN )</t>
+  </si>
+  <si>
+    <t>Cirebon</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 390*40cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:46:58</t>
+  </si>
+  <si>
+    <t>RB521</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 70*200cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:49:09</t>
+  </si>
+  <si>
+    <t>RB522</t>
+  </si>
+  <si>
+    <t>Bintang Kids ( JB PN )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 309*30cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:50:17</t>
+  </si>
+  <si>
+    <t>RB523</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 285*30cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:51:27</t>
+  </si>
+  <si>
+    <t>RB524</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 90*30cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 8:52:10</t>
+  </si>
+  <si>
+    <t>JB AS</t>
+  </si>
+  <si>
+    <t>RB525</t>
+  </si>
+  <si>
+    <t>Ibu Sari ( JB AS )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 226*306cm</t>
+  </si>
+  <si>
+    <t>BARANG DI BAWA PAK EDDY</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 262*325cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 262*118cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 228*325cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 9:12:22</t>
+  </si>
+  <si>
+    <t>RB526</t>
+  </si>
+  <si>
+    <t>Tabina MIM ( JB IL )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 197*56cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 9:32:31</t>
+  </si>
+  <si>
+    <t>JB OG</t>
+  </si>
+  <si>
+    <t>RB527</t>
+  </si>
+  <si>
+    <t>Al-Fawwaz ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 320*60cm</t>
+  </si>
+  <si>
+    <t>1/22/2025 8:34:16</t>
+  </si>
+  <si>
+    <t>RB528</t>
+  </si>
+  <si>
+    <t>X BANNER</t>
+  </si>
+  <si>
+    <t>SMJ</t>
+  </si>
+  <si>
+    <t>1/23/2025 8:10:03</t>
+  </si>
+  <si>
+    <t>Jr. Sul</t>
+  </si>
+  <si>
+    <t>RB529</t>
+  </si>
+  <si>
+    <t>Feminim Underwear Tuban</t>
+  </si>
+  <si>
+    <t>Tuban</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 115*150cm</t>
+  </si>
+  <si>
+    <t>1/23/2025 8:12:47</t>
+  </si>
+  <si>
+    <t>RB530</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 70*230cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:28:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JB OG</t>
+  </si>
+  <si>
+    <t>RB531</t>
+  </si>
+  <si>
+    <t>Sdr Jimmy ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 553*140cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:30:15</t>
+  </si>
+  <si>
+    <t>RB532</t>
+  </si>
+  <si>
+    <t>Alfiza BRa ( JB AD )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 60*50cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:31:44</t>
+  </si>
+  <si>
+    <t>RB533</t>
+  </si>
+  <si>
+    <t>Alfiza Bra ( JB AD  )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 290*49cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 222*49cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:33:03</t>
+  </si>
+  <si>
+    <t>RB534</t>
+  </si>
+  <si>
+    <t>Ud Ts Utama ( JB PN )</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 102*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:34:10</t>
+  </si>
+  <si>
+    <t>RB535</t>
+  </si>
+  <si>
+    <t>Laluna ( JB RS )</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 175*31cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:51:46</t>
+  </si>
+  <si>
+    <t>RB536</t>
+  </si>
+  <si>
+    <t>Borma Kopo ( JB OG )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 208*78cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 480*78cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:58:24</t>
+  </si>
+  <si>
+    <t>RB537</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*20cm</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*15cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:24:55</t>
+  </si>
+  <si>
+    <t>RB538</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 178*206cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:25:59</t>
+  </si>
+  <si>
+    <t>RB539</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 246*61cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:27:58</t>
+  </si>
+  <si>
+    <t>RB540</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 55*122cm</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 64*122cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:29:26</t>
+  </si>
+  <si>
+    <t>RB541</t>
+  </si>
+  <si>
+    <t>Sans ( JB AS )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 50*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:30:32</t>
+  </si>
+  <si>
+    <t>RB542</t>
+  </si>
+  <si>
+    <t>Adinda Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 300*60cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:31:33</t>
+  </si>
+  <si>
+    <t>RB543</t>
+  </si>
+  <si>
+    <t>Jasmine Baby Shop ( JB MI )</t>
+  </si>
+  <si>
+    <t>CIkarang</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:39:16</t>
+  </si>
+  <si>
+    <t>RB544</t>
+  </si>
+  <si>
+    <t>Pujaan ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 182*90cm</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 52*90cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:46:33</t>
+  </si>
+  <si>
+    <t>JB YN</t>
+  </si>
+  <si>
+    <t>RB545</t>
+  </si>
+  <si>
+    <t>Toserba Sukabumi ( JB YN )</t>
+  </si>
+  <si>
+    <t>Sukabumi</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1300*100cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:47:43</t>
+  </si>
+  <si>
+    <t>RB546</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 185*55cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:56:34</t>
+  </si>
+  <si>
+    <t>RB547</t>
+  </si>
+  <si>
+    <t>NR Collection ( JB OG )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*25cm</t>
+  </si>
+  <si>
+    <t>11/2/2025</t>
+  </si>
+  <si>
+    <t>12/2/2025</t>
+  </si>
+  <si>
+    <t>13/2/2025</t>
+  </si>
+  <si>
+    <t>1/24/2025 10:56:10</t>
+  </si>
+  <si>
+    <t>RB548</t>
+  </si>
+  <si>
+    <t>Sumber Busana ( JB RS )</t>
+  </si>
+  <si>
+    <t>1/24/2025 13:38:45</t>
+  </si>
+  <si>
+    <t>RB549</t>
+  </si>
+  <si>
+    <t>Prima swalayan</t>
+  </si>
+  <si>
+    <t>Nganjuk</t>
+  </si>
+  <si>
+    <t>TRIPOD BANNER 45*65cm</t>
   </si>
   <si>
     <t>1/24/2025 14:08:24</t>
@@ -125,9 +1094,6 @@
     <t>STIKER DOFF  14*166CM</t>
   </si>
   <si>
-    <t>03/02/2025</t>
-  </si>
-  <si>
     <t>STIKER DOFF  17*166CM</t>
   </si>
   <si>
@@ -161,9 +1127,6 @@
     <t>LAMONGAN -JATIM</t>
   </si>
   <si>
-    <t>PEREMAJAAN</t>
-  </si>
-  <si>
     <t>SPANDUK KOREA 300*25CM</t>
   </si>
   <si>
@@ -185,27 +1148,6 @@
     <t>STIKER ONEWAY 115*150CM</t>
   </si>
   <si>
-    <t>30/1/2025</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>4/2/2025</t>
-  </si>
-  <si>
-    <t>5/2/2025</t>
-  </si>
-  <si>
-    <t>6/2/2025</t>
-  </si>
-  <si>
-    <t>7/2/2025</t>
-  </si>
-  <si>
     <t>1/25/2025 9:14:39</t>
   </si>
   <si>
@@ -227,18 +1169,12 @@
     <t>RB555</t>
   </si>
   <si>
-    <t>Bogor</t>
-  </si>
-  <si>
     <t>IMPRABOARD 184*41cm</t>
   </si>
   <si>
     <t>1/25/2025 9:25:13</t>
   </si>
   <si>
-    <t>JB YN</t>
-  </si>
-  <si>
     <t>RB556</t>
   </si>
   <si>
@@ -251,9 +1187,6 @@
     <t>SPANDUK KOREA 286*87cm</t>
   </si>
   <si>
-    <t>ELNI</t>
-  </si>
-  <si>
     <t>1/25/2025 9:26:44</t>
   </si>
   <si>
@@ -284,9 +1217,6 @@
     <t>DALEMAN KITA</t>
   </si>
   <si>
-    <t>BANYUWANGI</t>
-  </si>
-  <si>
     <t>SPANDUK KOREA 880*165CM</t>
   </si>
   <si>
@@ -303,6 +1233,555 @@
   </si>
   <si>
     <t>STIKER DOFF 115*68CM</t>
+  </si>
+  <si>
+    <t>1/28/2025 8:58:11</t>
+  </si>
+  <si>
+    <t>RB560</t>
+  </si>
+  <si>
+    <t>Almanita Tary ( Baltos )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 120*80cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA  60*81cm</t>
+  </si>
+  <si>
+    <t>1/28/2025 10:25:41</t>
+  </si>
+  <si>
+    <t>JR. WT</t>
+  </si>
+  <si>
+    <t>RB561</t>
+  </si>
+  <si>
+    <t>Pak andi rejeki baru</t>
+  </si>
+  <si>
+    <t>Trenggalek</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 524*98cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 115*37cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 23*190cm</t>
+  </si>
+  <si>
+    <t>1/28/2025 10:27:03</t>
+  </si>
+  <si>
+    <t>RB562</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 655*55CM</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 78*230CM</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:45:49</t>
+  </si>
+  <si>
+    <t>RB563</t>
+  </si>
+  <si>
+    <t>Alexandria ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 120*20cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 60*20cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 115*55cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 56*55cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:46:48</t>
+  </si>
+  <si>
+    <t>RB564</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 470*125cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:47:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB BD </t>
+  </si>
+  <si>
+    <t>RB565</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 495*50cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:51:23</t>
+  </si>
+  <si>
+    <t>RB566</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 120*65cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:52:54</t>
+  </si>
+  <si>
+    <t>RB567</t>
+  </si>
+  <si>
+    <t>Nuri Bang Daus ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 280*66cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 9:37:34</t>
+  </si>
+  <si>
+    <t>RB568</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 400*36cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 9:39:05</t>
+  </si>
+  <si>
+    <t>RB569</t>
+  </si>
+  <si>
+    <t>Chamay Collection ( JB MI )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 280*90cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:11:26</t>
+  </si>
+  <si>
+    <t>JB ES</t>
+  </si>
+  <si>
+    <t>RB570</t>
+  </si>
+  <si>
+    <t>Alexandria ( JB ES )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 470*75cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:12:33</t>
+  </si>
+  <si>
+    <t>RB571</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 32*360cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:13:38</t>
+  </si>
+  <si>
+    <t>RB572</t>
+  </si>
+  <si>
+    <t>Ceu Mart ( JB ES )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 250*60cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:40:21</t>
+  </si>
+  <si>
+    <t>RB573</t>
+  </si>
+  <si>
+    <t>Almanita Tary Baltos ( JB AD )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 144*80cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:42:03</t>
+  </si>
+  <si>
+    <t>RB574</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 60*80cm</t>
+  </si>
+  <si>
+    <t>1/31/2025 8:57:32</t>
+  </si>
+  <si>
+    <t>RB575</t>
+  </si>
+  <si>
+    <t>Borma Dago ( JB IL )</t>
+  </si>
+  <si>
+    <t>ROLL UP BANNER</t>
+  </si>
+  <si>
+    <t>2/1/2025 8:29:30</t>
+  </si>
+  <si>
+    <t>RB576</t>
+  </si>
+  <si>
+    <t>NMG ( JB AD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 480*105cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:34:15</t>
+  </si>
+  <si>
+    <t>RB577</t>
+  </si>
+  <si>
+    <t>Fashionable Baby ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 700*70cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:36:02</t>
+  </si>
+  <si>
+    <t>RB578</t>
+  </si>
+  <si>
+    <t>Syahida Underwear ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 500*80cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:37:12</t>
+  </si>
+  <si>
+    <t>RB579</t>
+  </si>
+  <si>
+    <t>Guci Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*80cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:39:20</t>
+  </si>
+  <si>
+    <t>RB580</t>
+  </si>
+  <si>
+    <t>Bari Qaisar ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 630*100cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:41:09</t>
+  </si>
+  <si>
+    <t>RB581</t>
+  </si>
+  <si>
+    <t>2/4/2025 15:22:01</t>
+  </si>
+  <si>
+    <t>RB582</t>
+  </si>
+  <si>
+    <t>Winda ( JB BD )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*30cm</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>2/4/2025 15:22:55</t>
+  </si>
+  <si>
+    <t>RB583</t>
+  </si>
+  <si>
+    <t>Fajar Underwear ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 370*60cm</t>
+  </si>
+  <si>
+    <t>2/5/2025 15:12:23</t>
+  </si>
+  <si>
+    <t>RB584</t>
+  </si>
+  <si>
+    <t>Toko Ali Tuban</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 180*100cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 10:18:54</t>
+  </si>
+  <si>
+    <t>RB585</t>
+  </si>
+  <si>
+    <t>SERBA 35(MODIST GALLERY)</t>
+  </si>
+  <si>
+    <t>TUREN - MALANG</t>
+  </si>
+  <si>
+    <t>IMPRABOARD KASIH PANAH  2 MUKA + MATA AYAM + TALI SENAR U/ GANTUNG 30*30CM</t>
+  </si>
+  <si>
+    <t>2/6/2025 10:29:03</t>
+  </si>
+  <si>
+    <t>Jr. Dn</t>
+  </si>
+  <si>
+    <t>RB586</t>
+  </si>
+  <si>
+    <t>Bravo Swalayan Tulungagung</t>
+  </si>
+  <si>
+    <t>Tulungagung</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 50*122cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 11:27:36</t>
+  </si>
+  <si>
+    <t>JR. STO</t>
+  </si>
+  <si>
+    <t>RB587</t>
+  </si>
+  <si>
+    <t>ALZA UNDERWEAR</t>
+  </si>
+  <si>
+    <t>Madiun</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 65*210cm</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>POSTER DOFF  80*110</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 80*140cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 245*60cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 50*195cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 390*75cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 85*65cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 95*87cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 13:52:26</t>
+  </si>
+  <si>
+    <t>RB588</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 90*140cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 8:40:21</t>
+  </si>
+  <si>
+    <t>RB589</t>
+  </si>
+  <si>
+    <t>Toko Baru</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 200*200cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:18:53</t>
+  </si>
+  <si>
+    <t>RB590</t>
+  </si>
+  <si>
+    <t>Umi Zie Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 200*20cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:20:39</t>
+  </si>
+  <si>
+    <t>JB SH</t>
+  </si>
+  <si>
+    <t>RB591</t>
+  </si>
+  <si>
+    <t>Bintang Kids Kalijati ( JB SH )</t>
+  </si>
+  <si>
+    <t>SUbang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 100*30cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:24:40</t>
+  </si>
+  <si>
+    <t>RB592</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*15cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:26:43</t>
+  </si>
+  <si>
+    <t>JB FR</t>
+  </si>
+  <si>
+    <t>RB593</t>
+  </si>
+  <si>
+    <t>Sahrul ( JB FR )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 90*91cm</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 61*90cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:28:09</t>
+  </si>
+  <si>
+    <t>RB594</t>
+  </si>
+  <si>
+    <t>Almanita Tris Baltos ( JB FR )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 120*80cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:30:10</t>
+  </si>
+  <si>
+    <t>RB595</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*40cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:32:50</t>
+  </si>
+  <si>
+    <t>RB596</t>
+  </si>
+  <si>
+    <t>Riyan Collection ( JB ES )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 60*40cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:56:51</t>
+  </si>
+  <si>
+    <t>RB597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borma Group </t>
+  </si>
+  <si>
+    <t>Cutting Sticker  59*19cm</t>
+  </si>
+  <si>
+    <t>Cutting Sticker 35*13cm</t>
+  </si>
+  <si>
+    <t>2/12/2025 14:42:25</t>
+  </si>
+  <si>
+    <t>RB598</t>
+  </si>
+  <si>
+    <t>DNR 2 ( KOLOR SUMENEP )_x000D_</t>
+  </si>
+  <si>
+    <t>Sumenep</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 87*332cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 225*100cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 292*100cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 57*39cm</t>
+  </si>
+  <si>
+    <t>2/14/2025 9:52:50</t>
+  </si>
+  <si>
+    <t>RB599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUMAH BUSANA </t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 350*100CM</t>
   </si>
 </sst>
 </file>
@@ -642,7 +2121,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,33 +2223,54 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
-        <v>30</v>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -779,308 +2279,404 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="P6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="Q6" t="s">
         <v>43</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" t="s">
-        <v>59</v>
-      </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -1089,33 +2685,45 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -1124,33 +2732,45 @@
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -1159,45 +2779,45 @@
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -1206,353 +2826,6597 @@
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>90</v>
-      </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="R15" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="R16" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="P17" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
-      </c>
-      <c r="U17" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="N18" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" t="s">
-        <v>61</v>
-      </c>
-      <c r="S18" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
       </c>
       <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" t="s">
+        <v>172</v>
+      </c>
+      <c r="U26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>118</v>
+      </c>
+      <c r="R30" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" t="s">
+        <v>118</v>
+      </c>
+      <c r="T30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>118</v>
+      </c>
+      <c r="R31" t="s">
+        <v>118</v>
+      </c>
+      <c r="S31" t="s">
+        <v>118</v>
+      </c>
+      <c r="T31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S32" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" t="s">
+        <v>110</v>
+      </c>
+      <c r="S33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
+        <v>112</v>
+      </c>
+      <c r="U33" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M35" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>171</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>172</v>
+      </c>
+      <c r="U36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N37" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>171</v>
+      </c>
+      <c r="R37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>172</v>
+      </c>
+      <c r="U37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" t="s">
+        <v>171</v>
+      </c>
+      <c r="S43" t="s">
+        <v>171</v>
+      </c>
+      <c r="T43" t="s">
+        <v>172</v>
+      </c>
+      <c r="U43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>118</v>
+      </c>
+      <c r="R44" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" t="s">
+        <v>118</v>
+      </c>
+      <c r="T44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>118</v>
+      </c>
+      <c r="R45" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" t="s">
+        <v>117</v>
+      </c>
+      <c r="O46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>118</v>
+      </c>
+      <c r="R46" t="s">
+        <v>118</v>
+      </c>
+      <c r="S46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>118</v>
+      </c>
+      <c r="R47" t="s">
+        <v>118</v>
+      </c>
+      <c r="S47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" t="s">
+        <v>125</v>
+      </c>
+      <c r="N48" t="s">
+        <v>125</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>118</v>
+      </c>
+      <c r="R48" t="s">
+        <v>118</v>
+      </c>
+      <c r="S48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" t="s">
+        <v>125</v>
+      </c>
+      <c r="N49" t="s">
+        <v>125</v>
+      </c>
+      <c r="O49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" t="s">
+        <v>125</v>
+      </c>
+      <c r="O50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" t="s">
+        <v>132</v>
+      </c>
+      <c r="N51" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>118</v>
+      </c>
+      <c r="R51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S51" t="s">
+        <v>134</v>
+      </c>
+      <c r="T51" t="s">
+        <v>171</v>
+      </c>
+      <c r="U51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>268</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N52" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>118</v>
+      </c>
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" t="s">
+        <v>134</v>
+      </c>
+      <c r="T52" t="s">
+        <v>171</v>
+      </c>
+      <c r="U52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s">
+        <v>132</v>
+      </c>
+      <c r="M53" t="s">
+        <v>132</v>
+      </c>
+      <c r="N53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M54" t="s">
+        <v>132</v>
+      </c>
+      <c r="N54" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>171</v>
+      </c>
+      <c r="R54" t="s">
+        <v>171</v>
+      </c>
+      <c r="S54" t="s">
+        <v>171</v>
+      </c>
+      <c r="T54" t="s">
+        <v>172</v>
+      </c>
+      <c r="U54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
+        <v>132</v>
+      </c>
+      <c r="M55" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>282</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" t="s">
+        <v>132</v>
+      </c>
+      <c r="N56" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N57" t="s">
+        <v>132</v>
+      </c>
+      <c r="O57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>290</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s">
+        <v>132</v>
+      </c>
+      <c r="M58" t="s">
+        <v>132</v>
+      </c>
+      <c r="N58" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>294</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s">
+        <v>132</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59" t="s">
+        <v>132</v>
+      </c>
+      <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>118</v>
+      </c>
+      <c r="R59" t="s">
+        <v>118</v>
+      </c>
+      <c r="S59" t="s">
+        <v>118</v>
+      </c>
+      <c r="T59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>295</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>118</v>
+      </c>
+      <c r="R60" t="s">
+        <v>118</v>
+      </c>
+      <c r="S60" t="s">
+        <v>118</v>
+      </c>
+      <c r="T60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>298</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" t="s">
+        <v>132</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>171</v>
+      </c>
+      <c r="R61" t="s">
+        <v>171</v>
+      </c>
+      <c r="S61" t="s">
+        <v>171</v>
+      </c>
+      <c r="T61" t="s">
+        <v>172</v>
+      </c>
+      <c r="U61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N62" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>171</v>
+      </c>
+      <c r="R62" t="s">
+        <v>171</v>
+      </c>
+      <c r="S62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T62" t="s">
+        <v>172</v>
+      </c>
+      <c r="U62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" t="s">
+        <v>132</v>
+      </c>
+      <c r="N63" t="s">
+        <v>132</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" t="s">
+        <v>132</v>
+      </c>
+      <c r="N64" t="s">
+        <v>132</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>118</v>
+      </c>
+      <c r="R64" t="s">
+        <v>118</v>
+      </c>
+      <c r="S64" t="s">
+        <v>118</v>
+      </c>
+      <c r="T64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65" t="s">
+        <v>132</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>118</v>
+      </c>
+      <c r="R65" t="s">
+        <v>118</v>
+      </c>
+      <c r="S65" t="s">
+        <v>118</v>
+      </c>
+      <c r="T65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>309</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" t="s">
+        <v>132</v>
+      </c>
+      <c r="N66" t="s">
+        <v>132</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>118</v>
+      </c>
+      <c r="R66" t="s">
+        <v>118</v>
+      </c>
+      <c r="S66" t="s">
+        <v>118</v>
+      </c>
+      <c r="T66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>311</v>
+      </c>
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>313</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>315</v>
+      </c>
+      <c r="D68" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>132</v>
+      </c>
+      <c r="L69" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" t="s">
+        <v>132</v>
+      </c>
+      <c r="N69" t="s">
+        <v>132</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>171</v>
+      </c>
+      <c r="R69" t="s">
+        <v>171</v>
+      </c>
+      <c r="S69" t="s">
+        <v>171</v>
+      </c>
+      <c r="T69" t="s">
+        <v>172</v>
+      </c>
+      <c r="U69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L70" t="s">
+        <v>327</v>
+      </c>
+      <c r="M70" t="s">
+        <v>327</v>
+      </c>
+      <c r="N70" t="s">
+        <v>328</v>
+      </c>
+      <c r="O70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>323</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>329</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71" t="s">
+        <v>327</v>
+      </c>
+      <c r="M71" t="s">
+        <v>327</v>
+      </c>
+      <c r="N71" t="s">
+        <v>328</v>
+      </c>
+      <c r="O71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C72" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>335</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>338</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73" t="s">
+        <v>327</v>
+      </c>
+      <c r="M73" t="s">
+        <v>327</v>
+      </c>
+      <c r="N73" t="s">
+        <v>328</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>342</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74" t="s">
+        <v>327</v>
+      </c>
+      <c r="M74" t="s">
+        <v>327</v>
+      </c>
+      <c r="N74" t="s">
+        <v>328</v>
+      </c>
+      <c r="O74" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>344</v>
+      </c>
+      <c r="R74" t="s">
+        <v>345</v>
+      </c>
+      <c r="S74" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" t="s">
+        <v>348</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>313</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>352</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s">
+        <v>132</v>
+      </c>
+      <c r="M76" t="s">
+        <v>132</v>
+      </c>
+      <c r="N76" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" t="s">
+        <v>30</v>
+      </c>
+      <c r="P76" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>118</v>
+      </c>
+      <c r="R76" t="s">
+        <v>134</v>
+      </c>
+      <c r="S76" t="s">
+        <v>134</v>
+      </c>
+      <c r="T76" t="s">
+        <v>171</v>
+      </c>
+      <c r="U76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" t="s">
+        <v>357</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>358</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>327</v>
+      </c>
+      <c r="K77" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>357</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>359</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>327</v>
+      </c>
+      <c r="K78" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>354</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>355</v>
+      </c>
+      <c r="D79" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" t="s">
+        <v>357</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>360</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>327</v>
+      </c>
+      <c r="K79" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>361</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" t="s">
+        <v>364</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>365</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>327</v>
+      </c>
+      <c r="K80" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>367</v>
+      </c>
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>370</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>327</v>
+      </c>
+      <c r="K81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>367</v>
+      </c>
+      <c r="D82" t="s">
+        <v>368</v>
+      </c>
+      <c r="E82" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>371</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>327</v>
+      </c>
+      <c r="K82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>372</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>327</v>
+      </c>
+      <c r="K83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" t="s">
+        <v>364</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>376</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+      <c r="K84" t="s">
+        <v>109</v>
+      </c>
+      <c r="L84" t="s">
+        <v>109</v>
+      </c>
+      <c r="M84" t="s">
+        <v>109</v>
+      </c>
+      <c r="N84" t="s">
+        <v>132</v>
+      </c>
+      <c r="O84" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>118</v>
+      </c>
+      <c r="R84" t="s">
+        <v>134</v>
+      </c>
+      <c r="S84" t="s">
+        <v>134</v>
+      </c>
+      <c r="T84" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>377</v>
+      </c>
+      <c r="B85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C85" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>381</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+      <c r="K85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>382</v>
+      </c>
+      <c r="B86" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" t="s">
+        <v>380</v>
+      </c>
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>384</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>109</v>
+      </c>
+      <c r="K86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" t="s">
+        <v>388</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>389</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+      <c r="K87" t="s">
+        <v>109</v>
+      </c>
+      <c r="L87" t="s">
+        <v>109</v>
+      </c>
+      <c r="M87" t="s">
+        <v>109</v>
+      </c>
+      <c r="N87" t="s">
+        <v>132</v>
+      </c>
+      <c r="O87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>390</v>
+      </c>
+      <c r="B88" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" t="s">
+        <v>393</v>
+      </c>
+      <c r="E88" t="s">
+        <v>394</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>395</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>109</v>
+      </c>
+      <c r="K88" t="s">
+        <v>109</v>
+      </c>
+      <c r="L88" t="s">
+        <v>109</v>
+      </c>
+      <c r="M88" t="s">
+        <v>109</v>
+      </c>
+      <c r="N88" t="s">
+        <v>132</v>
+      </c>
+      <c r="O88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" t="s">
+        <v>399</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>400</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L89" t="s">
+        <v>109</v>
+      </c>
+      <c r="M89" t="s">
+        <v>109</v>
+      </c>
+      <c r="N89" t="s">
+        <v>132</v>
+      </c>
+      <c r="O89" t="s">
+        <v>30</v>
+      </c>
+      <c r="P89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>118</v>
+      </c>
+      <c r="R89" t="s">
+        <v>134</v>
+      </c>
+      <c r="S89" t="s">
+        <v>134</v>
+      </c>
+      <c r="T89" t="s">
+        <v>171</v>
+      </c>
+      <c r="U89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>396</v>
+      </c>
+      <c r="B90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" t="s">
+        <v>399</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>400</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>109</v>
+      </c>
+      <c r="K90" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" t="s">
+        <v>109</v>
+      </c>
+      <c r="M90" t="s">
+        <v>109</v>
+      </c>
+      <c r="N90" t="s">
+        <v>132</v>
+      </c>
+      <c r="O90" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>118</v>
+      </c>
+      <c r="R90" t="s">
+        <v>134</v>
+      </c>
+      <c r="S90" t="s">
+        <v>134</v>
+      </c>
+      <c r="T90" t="s">
+        <v>171</v>
+      </c>
+      <c r="U90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" t="s">
+        <v>397</v>
+      </c>
+      <c r="C91" t="s">
+        <v>398</v>
+      </c>
+      <c r="D91" t="s">
+        <v>399</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>401</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" t="s">
+        <v>109</v>
+      </c>
+      <c r="L91" t="s">
+        <v>109</v>
+      </c>
+      <c r="M91" t="s">
+        <v>109</v>
+      </c>
+      <c r="N91" t="s">
+        <v>132</v>
+      </c>
+      <c r="O91" t="s">
+        <v>30</v>
+      </c>
+      <c r="P91" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>118</v>
+      </c>
+      <c r="R91" t="s">
+        <v>134</v>
+      </c>
+      <c r="S91" t="s">
+        <v>134</v>
+      </c>
+      <c r="T91" t="s">
+        <v>171</v>
+      </c>
+      <c r="U91" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
+        <v>402</v>
+      </c>
+      <c r="B92" t="s">
+        <v>397</v>
+      </c>
+      <c r="C92" t="s">
+        <v>403</v>
+      </c>
+      <c r="D92" t="s">
+        <v>399</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>404</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" t="s">
+        <v>109</v>
+      </c>
+      <c r="L92" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" t="s">
+        <v>109</v>
+      </c>
+      <c r="N92" t="s">
+        <v>132</v>
+      </c>
+      <c r="O92" t="s">
+        <v>30</v>
+      </c>
+      <c r="P92" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>118</v>
+      </c>
+      <c r="R92" t="s">
+        <v>134</v>
+      </c>
+      <c r="S92" t="s">
+        <v>134</v>
+      </c>
+      <c r="T92" t="s">
+        <v>171</v>
+      </c>
+      <c r="U92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" t="s">
+        <v>397</v>
+      </c>
+      <c r="C93" t="s">
+        <v>403</v>
+      </c>
+      <c r="D93" t="s">
+        <v>399</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>405</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" t="s">
+        <v>109</v>
+      </c>
+      <c r="L93" t="s">
+        <v>109</v>
+      </c>
+      <c r="M93" t="s">
+        <v>109</v>
+      </c>
+      <c r="N93" t="s">
+        <v>132</v>
+      </c>
+      <c r="O93" t="s">
+        <v>30</v>
+      </c>
+      <c r="P93" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>118</v>
+      </c>
+      <c r="R93" t="s">
+        <v>134</v>
+      </c>
+      <c r="S93" t="s">
+        <v>134</v>
+      </c>
+      <c r="T93" t="s">
+        <v>171</v>
+      </c>
+      <c r="U93" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" t="s">
+        <v>406</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>407</v>
+      </c>
+      <c r="D94" t="s">
+        <v>408</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>109</v>
+      </c>
+      <c r="K94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
+        <v>406</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>407</v>
+      </c>
+      <c r="D95" t="s">
+        <v>408</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>410</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
+        <v>413</v>
+      </c>
+      <c r="D96" t="s">
+        <v>414</v>
+      </c>
+      <c r="E96" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>416</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" t="s">
+        <v>109</v>
+      </c>
+      <c r="L96" t="s">
+        <v>109</v>
+      </c>
+      <c r="M96" t="s">
+        <v>109</v>
+      </c>
+      <c r="N96" t="s">
+        <v>132</v>
+      </c>
+      <c r="O96" t="s">
+        <v>30</v>
+      </c>
+      <c r="P96" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>118</v>
+      </c>
+      <c r="R96" t="s">
+        <v>134</v>
+      </c>
+      <c r="S96" t="s">
+        <v>134</v>
+      </c>
+      <c r="T96" t="s">
+        <v>171</v>
+      </c>
+      <c r="U96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" t="s">
+        <v>411</v>
+      </c>
+      <c r="B97" t="s">
+        <v>412</v>
+      </c>
+      <c r="C97" t="s">
+        <v>413</v>
+      </c>
+      <c r="D97" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" t="s">
+        <v>415</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>417</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" t="s">
+        <v>109</v>
+      </c>
+      <c r="L97" t="s">
+        <v>109</v>
+      </c>
+      <c r="M97" t="s">
+        <v>109</v>
+      </c>
+      <c r="N97" t="s">
+        <v>132</v>
+      </c>
+      <c r="O97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P97" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>118</v>
+      </c>
+      <c r="R97" t="s">
+        <v>134</v>
+      </c>
+      <c r="S97" t="s">
+        <v>134</v>
+      </c>
+      <c r="T97" t="s">
+        <v>171</v>
+      </c>
+      <c r="U97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" t="s">
+        <v>411</v>
+      </c>
+      <c r="B98" t="s">
+        <v>412</v>
+      </c>
+      <c r="C98" t="s">
+        <v>413</v>
+      </c>
+      <c r="D98" t="s">
+        <v>414</v>
+      </c>
+      <c r="E98" t="s">
+        <v>415</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>418</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" t="s">
+        <v>132</v>
+      </c>
+      <c r="O98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P98" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>118</v>
+      </c>
+      <c r="R98" t="s">
+        <v>134</v>
+      </c>
+      <c r="S98" t="s">
+        <v>134</v>
+      </c>
+      <c r="T98" t="s">
+        <v>171</v>
+      </c>
+      <c r="U98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" t="s">
+        <v>375</v>
+      </c>
+      <c r="E99" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>421</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>109</v>
+      </c>
+      <c r="K99" t="s">
+        <v>109</v>
+      </c>
+      <c r="L99" t="s">
+        <v>422</v>
+      </c>
+      <c r="M99" t="s">
+        <v>422</v>
+      </c>
+      <c r="N99" t="s">
+        <v>422</v>
+      </c>
+      <c r="O99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>344</v>
+      </c>
+      <c r="R99" t="s">
+        <v>345</v>
+      </c>
+      <c r="S99" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s">
+        <v>420</v>
+      </c>
+      <c r="D100" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" t="s">
+        <v>364</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>423</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" t="s">
+        <v>422</v>
+      </c>
+      <c r="M100" t="s">
+        <v>422</v>
+      </c>
+      <c r="N100" t="s">
+        <v>422</v>
+      </c>
+      <c r="O100" t="s">
+        <v>30</v>
+      </c>
+      <c r="P100" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>344</v>
+      </c>
+      <c r="R100" t="s">
+        <v>345</v>
+      </c>
+      <c r="S100" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" t="s">
+        <v>424</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>425</v>
+      </c>
+      <c r="D101" t="s">
+        <v>426</v>
+      </c>
+      <c r="E101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>427</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>327</v>
+      </c>
+      <c r="K101" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102" t="s">
+        <v>426</v>
+      </c>
+      <c r="E102" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>428</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>327</v>
+      </c>
+      <c r="K102" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" t="s">
+        <v>424</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>425</v>
+      </c>
+      <c r="D103" t="s">
+        <v>426</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>429</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>327</v>
+      </c>
+      <c r="K103" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" t="s">
+        <v>424</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" t="s">
+        <v>426</v>
+      </c>
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>430</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>327</v>
+      </c>
+      <c r="K104" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" t="s">
+        <v>431</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>432</v>
+      </c>
+      <c r="D105" t="s">
+        <v>426</v>
+      </c>
+      <c r="E105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>433</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>327</v>
+      </c>
+      <c r="K105" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" t="s">
+        <v>435</v>
+      </c>
+      <c r="C106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D106" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>437</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>327</v>
+      </c>
+      <c r="K106" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" t="s">
+        <v>438</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>439</v>
+      </c>
+      <c r="D107" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>440</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>327</v>
+      </c>
+      <c r="K107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>442</v>
+      </c>
+      <c r="D108" t="s">
+        <v>443</v>
+      </c>
+      <c r="E108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>444</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>327</v>
+      </c>
+      <c r="K108" t="s">
+        <v>327</v>
+      </c>
+      <c r="L108" t="s">
+        <v>327</v>
+      </c>
+      <c r="M108" t="s">
+        <v>327</v>
+      </c>
+      <c r="N108" t="s">
+        <v>328</v>
+      </c>
+      <c r="O108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" t="s">
+        <v>445</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
+        <v>446</v>
+      </c>
+      <c r="D109" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>447</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>327</v>
+      </c>
+      <c r="K109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" t="s">
+        <v>448</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>449</v>
+      </c>
+      <c r="D110" t="s">
+        <v>450</v>
+      </c>
+      <c r="E110" t="s">
+        <v>147</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>451</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>327</v>
+      </c>
+      <c r="K110" t="s">
+        <v>327</v>
+      </c>
+      <c r="L110" t="s">
+        <v>327</v>
+      </c>
+      <c r="M110" t="s">
+        <v>327</v>
+      </c>
+      <c r="N110" t="s">
+        <v>328</v>
+      </c>
+      <c r="O110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" t="s">
+        <v>452</v>
+      </c>
+      <c r="B111" t="s">
+        <v>453</v>
+      </c>
+      <c r="C111" t="s">
+        <v>454</v>
+      </c>
+      <c r="D111" t="s">
+        <v>455</v>
+      </c>
+      <c r="E111" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>456</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>327</v>
+      </c>
+      <c r="K111" t="s">
+        <v>328</v>
+      </c>
+      <c r="L111" t="s">
+        <v>328</v>
+      </c>
+      <c r="M111" t="s">
+        <v>328</v>
+      </c>
+      <c r="N111" t="s">
+        <v>328</v>
+      </c>
+      <c r="O111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" t="s">
+        <v>453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>458</v>
+      </c>
+      <c r="D112" t="s">
+        <v>455</v>
+      </c>
+      <c r="E112" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>459</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>327</v>
+      </c>
+      <c r="K112" t="s">
+        <v>328</v>
+      </c>
+      <c r="L112" t="s">
+        <v>328</v>
+      </c>
+      <c r="M112" t="s">
+        <v>328</v>
+      </c>
+      <c r="N112" t="s">
+        <v>328</v>
+      </c>
+      <c r="O112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" t="s">
+        <v>460</v>
+      </c>
+      <c r="B113" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" t="s">
+        <v>462</v>
+      </c>
+      <c r="E113" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>463</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>328</v>
+      </c>
+      <c r="K113" t="s">
+        <v>328</v>
+      </c>
+      <c r="L113" t="s">
+        <v>328</v>
+      </c>
+      <c r="M113" t="s">
+        <v>328</v>
+      </c>
+      <c r="N113" t="s">
+        <v>422</v>
+      </c>
+      <c r="O113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" t="s">
+        <v>464</v>
+      </c>
+      <c r="B114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" t="s">
+        <v>465</v>
+      </c>
+      <c r="D114" t="s">
+        <v>466</v>
+      </c>
+      <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>467</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>328</v>
+      </c>
+      <c r="K114" t="s">
+        <v>328</v>
+      </c>
+      <c r="L114" t="s">
+        <v>328</v>
+      </c>
+      <c r="M114" t="s">
+        <v>328</v>
+      </c>
+      <c r="N114" t="s">
+        <v>328</v>
+      </c>
+      <c r="O114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" t="s">
+        <v>468</v>
+      </c>
+      <c r="B115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D115" t="s">
+        <v>466</v>
+      </c>
+      <c r="E115" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>470</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>328</v>
+      </c>
+      <c r="K115" t="s">
+        <v>328</v>
+      </c>
+      <c r="L115" t="s">
+        <v>328</v>
+      </c>
+      <c r="M115" t="s">
+        <v>328</v>
+      </c>
+      <c r="N115" t="s">
+        <v>328</v>
+      </c>
+      <c r="O115" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>171</v>
+      </c>
+      <c r="R115" t="s">
+        <v>171</v>
+      </c>
+      <c r="S115" t="s">
+        <v>171</v>
+      </c>
+      <c r="T115" t="s">
+        <v>172</v>
+      </c>
+      <c r="U115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" t="s">
+        <v>471</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>472</v>
+      </c>
+      <c r="D116" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" t="s">
+        <v>474</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>328</v>
+      </c>
+      <c r="K116" t="s">
+        <v>328</v>
+      </c>
+      <c r="L116" t="s">
+        <v>328</v>
+      </c>
+      <c r="M116" t="s">
+        <v>328</v>
+      </c>
+      <c r="N116" t="s">
+        <v>328</v>
+      </c>
+      <c r="O116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s">
+        <v>478</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>328</v>
+      </c>
+      <c r="K117" t="s">
+        <v>328</v>
+      </c>
+      <c r="L117" t="s">
+        <v>328</v>
+      </c>
+      <c r="M117" t="s">
+        <v>328</v>
+      </c>
+      <c r="N117" t="s">
+        <v>328</v>
+      </c>
+      <c r="O117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>480</v>
+      </c>
+      <c r="D118" t="s">
+        <v>481</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s">
+        <v>482</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>328</v>
+      </c>
+      <c r="K118" t="s">
+        <v>328</v>
+      </c>
+      <c r="L118" t="s">
+        <v>328</v>
+      </c>
+      <c r="M118" t="s">
+        <v>422</v>
+      </c>
+      <c r="N118" t="s">
+        <v>422</v>
+      </c>
+      <c r="O118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" t="s">
+        <v>483</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>484</v>
+      </c>
+      <c r="D119" t="s">
+        <v>485</v>
+      </c>
+      <c r="E119" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s">
+        <v>486</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>328</v>
+      </c>
+      <c r="K119" t="s">
+        <v>328</v>
+      </c>
+      <c r="L119" t="s">
+        <v>328</v>
+      </c>
+      <c r="M119" t="s">
+        <v>422</v>
+      </c>
+      <c r="N119" t="s">
+        <v>422</v>
+      </c>
+      <c r="O119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>488</v>
+      </c>
+      <c r="D120" t="s">
+        <v>489</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s">
+        <v>490</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>422</v>
+      </c>
+      <c r="K120" t="s">
+        <v>422</v>
+      </c>
+      <c r="L120" t="s">
+        <v>422</v>
+      </c>
+      <c r="M120" t="s">
+        <v>422</v>
+      </c>
+      <c r="N120" t="s">
+        <v>422</v>
+      </c>
+      <c r="O120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" t="s">
+        <v>491</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>492</v>
+      </c>
+      <c r="D121" t="s">
+        <v>493</v>
+      </c>
+      <c r="E121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s">
+        <v>494</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>422</v>
+      </c>
+      <c r="K121" t="s">
+        <v>422</v>
+      </c>
+      <c r="L121" t="s">
+        <v>422</v>
+      </c>
+      <c r="M121" t="s">
+        <v>422</v>
+      </c>
+      <c r="N121" t="s">
+        <v>422</v>
+      </c>
+      <c r="O121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" t="s">
+        <v>495</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>496</v>
+      </c>
+      <c r="D122" t="s">
+        <v>426</v>
+      </c>
+      <c r="E122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s">
+        <v>342</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
+        <v>422</v>
+      </c>
+      <c r="K122" t="s">
+        <v>422</v>
+      </c>
+      <c r="L122" t="s">
+        <v>422</v>
+      </c>
+      <c r="M122" t="s">
+        <v>422</v>
+      </c>
+      <c r="N122" t="s">
+        <v>422</v>
+      </c>
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>344</v>
+      </c>
+      <c r="R122" t="s">
+        <v>345</v>
+      </c>
+      <c r="S122" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" t="s">
+        <v>497</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>498</v>
+      </c>
+      <c r="D123" t="s">
+        <v>499</v>
+      </c>
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s">
+        <v>500</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>501</v>
+      </c>
+      <c r="K123" t="s">
+        <v>501</v>
+      </c>
+      <c r="L123" t="s">
+        <v>501</v>
+      </c>
+      <c r="M123" t="s">
+        <v>501</v>
+      </c>
+      <c r="N123" t="s">
+        <v>501</v>
+      </c>
+      <c r="O123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" t="s">
+        <v>502</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
+        <v>503</v>
+      </c>
+      <c r="D124" t="s">
+        <v>504</v>
+      </c>
+      <c r="E124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s">
+        <v>505</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>501</v>
+      </c>
+      <c r="K124" t="s">
+        <v>501</v>
+      </c>
+      <c r="L124" t="s">
+        <v>501</v>
+      </c>
+      <c r="M124" t="s">
+        <v>501</v>
+      </c>
+      <c r="N124" t="s">
+        <v>501</v>
+      </c>
+      <c r="O124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>507</v>
+      </c>
+      <c r="D125" t="s">
+        <v>508</v>
+      </c>
+      <c r="E125" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s">
+        <v>509</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>501</v>
+      </c>
+      <c r="K125" t="s">
+        <v>501</v>
+      </c>
+      <c r="L125" t="s">
+        <v>501</v>
+      </c>
+      <c r="M125" t="s">
+        <v>501</v>
+      </c>
+      <c r="N125" t="s">
+        <v>501</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>344</v>
+      </c>
+      <c r="R125" t="s">
+        <v>345</v>
+      </c>
+      <c r="S125" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" t="s">
+        <v>510</v>
+      </c>
+      <c r="B126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" t="s">
+        <v>511</v>
+      </c>
+      <c r="D126" t="s">
+        <v>512</v>
+      </c>
+      <c r="E126" t="s">
+        <v>513</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s">
+        <v>514</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>501</v>
+      </c>
+      <c r="K126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" t="s">
+        <v>515</v>
+      </c>
+      <c r="B127" t="s">
+        <v>516</v>
+      </c>
+      <c r="C127" t="s">
+        <v>517</v>
+      </c>
+      <c r="D127" t="s">
+        <v>518</v>
+      </c>
+      <c r="E127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F127" t="s">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s">
+        <v>520</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>501</v>
+      </c>
+      <c r="K127" t="s">
+        <v>501</v>
+      </c>
+      <c r="L127" t="s">
+        <v>501</v>
+      </c>
+      <c r="M127" t="s">
+        <v>501</v>
+      </c>
+      <c r="N127" t="s">
+        <v>501</v>
+      </c>
+      <c r="O127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>344</v>
+      </c>
+      <c r="R127" t="s">
+        <v>345</v>
+      </c>
+      <c r="S127" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" t="s">
+        <v>521</v>
+      </c>
+      <c r="B128" t="s">
+        <v>522</v>
+      </c>
+      <c r="C128" t="s">
+        <v>523</v>
+      </c>
+      <c r="D128" t="s">
+        <v>524</v>
+      </c>
+      <c r="E128" t="s">
+        <v>525</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>526</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>527</v>
+      </c>
+      <c r="K128" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" t="s">
+        <v>521</v>
+      </c>
+      <c r="B129" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" t="s">
+        <v>523</v>
+      </c>
+      <c r="D129" t="s">
+        <v>524</v>
+      </c>
+      <c r="E129" t="s">
+        <v>525</v>
+      </c>
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" t="s">
+        <v>528</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>527</v>
+      </c>
+      <c r="K129" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" t="s">
+        <v>521</v>
+      </c>
+      <c r="B130" t="s">
+        <v>522</v>
+      </c>
+      <c r="C130" t="s">
+        <v>523</v>
+      </c>
+      <c r="D130" t="s">
+        <v>524</v>
+      </c>
+      <c r="E130" t="s">
+        <v>525</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s">
+        <v>529</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>527</v>
+      </c>
+      <c r="K130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" t="s">
+        <v>521</v>
+      </c>
+      <c r="B131" t="s">
+        <v>522</v>
+      </c>
+      <c r="C131" t="s">
+        <v>523</v>
+      </c>
+      <c r="D131" t="s">
+        <v>524</v>
+      </c>
+      <c r="E131" t="s">
+        <v>525</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" t="s">
+        <v>530</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>527</v>
+      </c>
+      <c r="K131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" t="s">
+        <v>521</v>
+      </c>
+      <c r="B132" t="s">
+        <v>522</v>
+      </c>
+      <c r="C132" t="s">
+        <v>523</v>
+      </c>
+      <c r="D132" t="s">
+        <v>524</v>
+      </c>
+      <c r="E132" t="s">
+        <v>525</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s">
+        <v>531</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>527</v>
+      </c>
+      <c r="K132" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="A133" t="s">
+        <v>521</v>
+      </c>
+      <c r="B133" t="s">
+        <v>522</v>
+      </c>
+      <c r="C133" t="s">
+        <v>523</v>
+      </c>
+      <c r="D133" t="s">
+        <v>524</v>
+      </c>
+      <c r="E133" t="s">
+        <v>525</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" t="s">
+        <v>532</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>527</v>
+      </c>
+      <c r="K133" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="A134" t="s">
+        <v>521</v>
+      </c>
+      <c r="B134" t="s">
+        <v>522</v>
+      </c>
+      <c r="C134" t="s">
+        <v>523</v>
+      </c>
+      <c r="D134" t="s">
+        <v>524</v>
+      </c>
+      <c r="E134" t="s">
+        <v>525</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s">
+        <v>530</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>527</v>
+      </c>
+      <c r="K134" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="A135" t="s">
+        <v>521</v>
+      </c>
+      <c r="B135" t="s">
+        <v>522</v>
+      </c>
+      <c r="C135" t="s">
+        <v>523</v>
+      </c>
+      <c r="D135" t="s">
+        <v>524</v>
+      </c>
+      <c r="E135" t="s">
+        <v>525</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" t="s">
+        <v>533</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>527</v>
+      </c>
+      <c r="K135" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="A136" t="s">
+        <v>521</v>
+      </c>
+      <c r="B136" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136" t="s">
+        <v>523</v>
+      </c>
+      <c r="D136" t="s">
+        <v>524</v>
+      </c>
+      <c r="E136" t="s">
+        <v>525</v>
+      </c>
+      <c r="F136" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s">
+        <v>534</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>527</v>
+      </c>
+      <c r="K136" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="A137" t="s">
+        <v>535</v>
+      </c>
+      <c r="B137" t="s">
+        <v>522</v>
+      </c>
+      <c r="C137" t="s">
+        <v>536</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>525</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" t="s">
+        <v>537</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>527</v>
+      </c>
+      <c r="K137" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" t="s">
+        <v>538</v>
+      </c>
+      <c r="B138" t="s">
+        <v>391</v>
+      </c>
+      <c r="C138" t="s">
+        <v>539</v>
+      </c>
+      <c r="D138" t="s">
+        <v>540</v>
+      </c>
+      <c r="E138" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s">
+        <v>541</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="A139" t="s">
+        <v>542</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>543</v>
+      </c>
+      <c r="D139" t="s">
+        <v>544</v>
+      </c>
+      <c r="E139" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" t="s">
+        <v>545</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" t="s">
+        <v>546</v>
+      </c>
+      <c r="B140" t="s">
+        <v>547</v>
+      </c>
+      <c r="C140" t="s">
+        <v>548</v>
+      </c>
+      <c r="D140" t="s">
+        <v>549</v>
+      </c>
+      <c r="E140" t="s">
+        <v>550</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s">
+        <v>551</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" t="s">
+        <v>552</v>
+      </c>
+      <c r="B141" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" t="s">
+        <v>553</v>
+      </c>
+      <c r="D141" t="s">
+        <v>549</v>
+      </c>
+      <c r="E141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s">
+        <v>554</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="A142" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" t="s">
+        <v>556</v>
+      </c>
+      <c r="C142" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" t="s">
+        <v>559</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="A143" t="s">
+        <v>555</v>
+      </c>
+      <c r="B143" t="s">
+        <v>556</v>
+      </c>
+      <c r="C143" t="s">
+        <v>557</v>
+      </c>
+      <c r="D143" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" t="s">
+        <v>560</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="A144" t="s">
+        <v>561</v>
+      </c>
+      <c r="B144" t="s">
+        <v>556</v>
+      </c>
+      <c r="C144" t="s">
+        <v>562</v>
+      </c>
+      <c r="D144" t="s">
+        <v>563</v>
+      </c>
+      <c r="E144" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s">
+        <v>564</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="A145" t="s">
+        <v>565</v>
+      </c>
+      <c r="B145" t="s">
+        <v>453</v>
+      </c>
+      <c r="C145" t="s">
+        <v>566</v>
+      </c>
+      <c r="D145" t="s">
+        <v>455</v>
+      </c>
+      <c r="E145" t="s">
+        <v>139</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s">
+        <v>567</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
+      <c r="A146" t="s">
+        <v>568</v>
+      </c>
+      <c r="B146" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146" t="s">
+        <v>569</v>
+      </c>
+      <c r="D146" t="s">
+        <v>570</v>
+      </c>
+      <c r="E146" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s">
+        <v>571</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
+      <c r="A147" t="s">
+        <v>572</v>
+      </c>
+      <c r="B147" t="s">
         <v>95</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>60</v>
-      </c>
-      <c r="R19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" t="s">
-        <v>62</v>
-      </c>
-      <c r="U19" t="s">
-        <v>62</v>
+      <c r="C147" t="s">
+        <v>573</v>
+      </c>
+      <c r="D147" t="s">
+        <v>574</v>
+      </c>
+      <c r="E147" t="s">
+        <v>63</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" t="s">
+        <v>575</v>
+      </c>
+      <c r="I147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" t="s">
+        <v>572</v>
+      </c>
+      <c r="B148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>573</v>
+      </c>
+      <c r="D148" t="s">
+        <v>574</v>
+      </c>
+      <c r="E148" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s">
+        <v>576</v>
+      </c>
+      <c r="I148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" t="s">
+        <v>577</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>578</v>
+      </c>
+      <c r="D149" t="s">
+        <v>579</v>
+      </c>
+      <c r="E149" t="s">
+        <v>580</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>581</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="A150" t="s">
+        <v>577</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>578</v>
+      </c>
+      <c r="D150" t="s">
+        <v>579</v>
+      </c>
+      <c r="E150" t="s">
+        <v>580</v>
+      </c>
+      <c r="F150" t="s">
+        <v>50</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s">
+        <v>582</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" t="s">
+        <v>577</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" t="s">
+        <v>578</v>
+      </c>
+      <c r="D151" t="s">
+        <v>579</v>
+      </c>
+      <c r="E151" t="s">
+        <v>580</v>
+      </c>
+      <c r="F151" t="s">
+        <v>50</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s">
+        <v>583</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" t="s">
+        <v>577</v>
+      </c>
+      <c r="B152" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" t="s">
+        <v>578</v>
+      </c>
+      <c r="D152" t="s">
+        <v>579</v>
+      </c>
+      <c r="E152" t="s">
+        <v>580</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" t="s">
+        <v>584</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" t="s">
+        <v>585</v>
+      </c>
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" t="s">
+        <v>586</v>
+      </c>
+      <c r="D153" t="s">
+        <v>587</v>
+      </c>
+      <c r="E153" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" t="s">
+        <v>588</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/hasil_pencarian.xlsx
+++ b/hasil_pencarian.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -80,31 +80,1724 @@
     <t>KONFIRMASI PENERIMAAN PIC:TEAM SALES</t>
   </si>
   <si>
+    <t>10/2/2024 11:02:48</t>
+  </si>
+  <si>
+    <t>JR.STO</t>
+  </si>
+  <si>
+    <t>RB5</t>
+  </si>
+  <si>
+    <t>NUNO BABY SHOP</t>
+  </si>
+  <si>
+    <t>MADIUN</t>
+  </si>
+  <si>
+    <t>BARU</t>
+  </si>
+  <si>
+    <t>GFORM</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 22*15cm</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:10:11</t>
+  </si>
+  <si>
+    <t>JR.DO</t>
+  </si>
+  <si>
+    <t>RB50</t>
+  </si>
+  <si>
+    <t>LAUTAN DALEMAN</t>
+  </si>
+  <si>
+    <t>BANYUWANGI</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 750*50cm</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>31/10/2024</t>
+  </si>
+  <si>
+    <t>3/11/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:26:55</t>
+  </si>
+  <si>
+    <t>JR.WT</t>
+  </si>
+  <si>
+    <t>RB51</t>
+  </si>
+  <si>
+    <t>Toserba amanah loris</t>
+  </si>
+  <si>
+    <t>Blitar</t>
+  </si>
+  <si>
+    <t>PEREMAJAAN</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 60cm*40cm</t>
+  </si>
+  <si>
+    <t>smj</t>
+  </si>
+  <si>
+    <t>10/10/2024 19:35:09</t>
+  </si>
+  <si>
+    <t>RB52</t>
+  </si>
+  <si>
+    <t>Toserba amanah JKT</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 66cm*154cm</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 192cm*21cm</t>
+  </si>
+  <si>
+    <t>10/11/2024 11:19:07</t>
+  </si>
+  <si>
+    <t>JB IL</t>
+  </si>
+  <si>
+    <t>RB53</t>
+  </si>
+  <si>
+    <t>Tabina ( JB IL )</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>NEONBOX 200*60CM</t>
+  </si>
+  <si>
+    <t>email ke pak dadang</t>
+  </si>
+  <si>
+    <t>10/11/2024 21:19:41</t>
+  </si>
+  <si>
+    <t>JR.SUL</t>
+  </si>
+  <si>
+    <t>RB54</t>
+  </si>
+  <si>
+    <t>ATLAS SPORT CENTER</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>X BANNER 60*160cm</t>
+  </si>
+  <si>
+    <t>PENDING DR SALES</t>
+  </si>
+  <si>
+    <t>10/12/2024 10:27:31</t>
+  </si>
+  <si>
+    <t>JR-RW</t>
+  </si>
+  <si>
+    <t>RB55</t>
+  </si>
+  <si>
+    <t>PT.MEGA KRIAN PERMAI(PALAPA KRIAN- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>SIDOARJO</t>
+  </si>
+  <si>
+    <t>ACRILIC + STIKER 2 SISI 120*25CM</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>10/12/2024 10:41:21</t>
+  </si>
+  <si>
+    <t>JR-RMI</t>
+  </si>
+  <si>
+    <t>RB56</t>
+  </si>
+  <si>
+    <t>PT.MEGA SEPANJANG PERMAI (PALAPA SEPANJANG- SIDOARJO)</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 42*39CM</t>
+  </si>
+  <si>
+    <t>12/10/2024 12:27:33</t>
+  </si>
+  <si>
+    <t>RB57</t>
+  </si>
+  <si>
+    <t>SPORT CENTER SITUBONDO</t>
+  </si>
+  <si>
+    <t>SITUBONDO</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 600*100cm</t>
+  </si>
+  <si>
+    <t>kirim email pak santo</t>
+  </si>
+  <si>
+    <t>10/12/2024 12:31:24</t>
+  </si>
+  <si>
+    <t>RB58</t>
+  </si>
+  <si>
+    <t>POSTER DOFF  330*120cm</t>
+  </si>
+  <si>
+    <t>14/10/2024 8:18:51</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>RB59</t>
+  </si>
+  <si>
+    <t>DAF FUTSAL</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*100CM</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>ramziewahyu@gmail.com</t>
+  </si>
+  <si>
+    <t>1/14/2025 15:06:37</t>
+  </si>
+  <si>
+    <t>JR. ACD</t>
+  </si>
+  <si>
+    <t>RB500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpk Robet sahri </t>
+  </si>
+  <si>
+    <t>Pamekasan</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 80*30cm</t>
+  </si>
+  <si>
+    <t>1/20/25</t>
+  </si>
+  <si>
+    <t>30/1/2025</t>
+  </si>
+  <si>
+    <t>31/1/2025</t>
+  </si>
+  <si>
+    <t>3/2/2025</t>
+  </si>
+  <si>
+    <t>4/2/2025</t>
+  </si>
+  <si>
+    <t>1/16/2025 14:00:50</t>
+  </si>
+  <si>
+    <t>RB501</t>
+  </si>
+  <si>
+    <t>ARCY COLLECTION</t>
+  </si>
+  <si>
+    <t>BANGKALAN</t>
+  </si>
+  <si>
+    <t>1/24/25</t>
+  </si>
+  <si>
+    <t>5/2/2025</t>
+  </si>
+  <si>
+    <t>1/16/2025 16:04:44</t>
+  </si>
+  <si>
+    <t>Jr. Do</t>
+  </si>
+  <si>
+    <t>RB502</t>
+  </si>
+  <si>
+    <t>Assyifa collection</t>
+  </si>
+  <si>
+    <t>Probolinggo</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 32*102cm</t>
+  </si>
+  <si>
+    <t>1/23/25</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:33:36</t>
+  </si>
+  <si>
+    <t>JB DD</t>
+  </si>
+  <si>
+    <t>RB503</t>
+  </si>
+  <si>
+    <t>Bungsu Jaya Group ( JB DD )</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 60*30cm</t>
+  </si>
+  <si>
+    <t>1/30/25</t>
+  </si>
+  <si>
+    <t>1/31/25</t>
+  </si>
+  <si>
+    <t>31/1/1015</t>
+  </si>
+  <si>
+    <t>6/2/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:42:14</t>
+  </si>
+  <si>
+    <t>JB BD</t>
+  </si>
+  <si>
+    <t>RB504</t>
+  </si>
+  <si>
+    <t>Ratu Obral Kabasiran ( JB BD )</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 265*45cm</t>
+  </si>
+  <si>
+    <t>1/21/25</t>
+  </si>
+  <si>
+    <t>ELNI</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:44:51</t>
+  </si>
+  <si>
+    <t>JB MI</t>
+  </si>
+  <si>
+    <t>RB505</t>
+  </si>
+  <si>
+    <t>Mika Shop ( JB MI )</t>
+  </si>
+  <si>
+    <t>Karawang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 500*65cm</t>
+  </si>
+  <si>
+    <t>1/22/25</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 212*77cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 130*67cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 140*67cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:46:42</t>
+  </si>
+  <si>
+    <t>RB506</t>
+  </si>
+  <si>
+    <t>Tiget ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 295*125cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:48:15</t>
+  </si>
+  <si>
+    <t>RB507</t>
+  </si>
+  <si>
+    <t>Mario Pabuaran ( JB MI )</t>
+  </si>
+  <si>
+    <t>Subang</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 153*65cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:49:33</t>
+  </si>
+  <si>
+    <t>RB508</t>
+  </si>
+  <si>
+    <t>Fidelia Baby Shop ( JB BD )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogor </t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*120cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:52:12</t>
+  </si>
+  <si>
+    <t>RB509</t>
+  </si>
+  <si>
+    <t>Arumi Underwear ( JB MI )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 25*35cm</t>
+  </si>
+  <si>
+    <t>7/2/2025</t>
+  </si>
+  <si>
+    <t>8/2/2025</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:53:51</t>
+  </si>
+  <si>
+    <t>RB510</t>
+  </si>
+  <si>
+    <t>Amira Busana ( JB MI )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 46*42cm</t>
+  </si>
+  <si>
+    <t>(hold)</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:55:17</t>
+  </si>
+  <si>
+    <t>RB511</t>
+  </si>
+  <si>
+    <t>Mario Kosambi ( JB MI )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 134*208cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:57:10</t>
+  </si>
+  <si>
+    <t>RB512</t>
+  </si>
+  <si>
+    <t>Expo Baby Sshop &amp; Child</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 480*130cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 8:59:11</t>
+  </si>
+  <si>
+    <t>JB RS</t>
+  </si>
+  <si>
+    <t>RB513</t>
+  </si>
+  <si>
+    <t>Sandang Murah Sindang Laut ( JB RS )</t>
+  </si>
+  <si>
+    <t>Kuningan</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 100*40cm</t>
+  </si>
+  <si>
+    <t>BARANG DI BAWA PA EDDY</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 100*100cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:00:58</t>
+  </si>
+  <si>
+    <t>RB514</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 77*187cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:02:34</t>
+  </si>
+  <si>
+    <t>RB515</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 491*225cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:05:04</t>
+  </si>
+  <si>
+    <t>RB516</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 90*40cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:06:51</t>
+  </si>
+  <si>
+    <t>RB517</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1170*100cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:12:06</t>
+  </si>
+  <si>
+    <t>JB AD</t>
+  </si>
+  <si>
+    <t>RB518</t>
+  </si>
+  <si>
+    <t>Ar Dewi ( JB AD )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandung </t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*25cm</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 25*14cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:14:37</t>
+  </si>
+  <si>
+    <t>JB RV</t>
+  </si>
+  <si>
+    <t>RB519</t>
+  </si>
+  <si>
+    <t>Rahma ( JB RV )</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1420*80cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:43:52</t>
+  </si>
+  <si>
+    <t>JB PN</t>
+  </si>
+  <si>
+    <t>RB520</t>
+  </si>
+  <si>
+    <t>Demetria ( JB PN )</t>
+  </si>
+  <si>
+    <t>Cirebon</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 390*40cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:46:58</t>
+  </si>
+  <si>
+    <t>RB521</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 70*200cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:49:09</t>
+  </si>
+  <si>
+    <t>RB522</t>
+  </si>
+  <si>
+    <t>Bintang Kids ( JB PN )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 309*30cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:50:17</t>
+  </si>
+  <si>
+    <t>RB523</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 285*30cm</t>
+  </si>
+  <si>
+    <t>1/20/2025 9:51:27</t>
+  </si>
+  <si>
+    <t>RB524</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 90*30cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 8:52:10</t>
+  </si>
+  <si>
+    <t>JB AS</t>
+  </si>
+  <si>
+    <t>RB525</t>
+  </si>
+  <si>
+    <t>Ibu Sari ( JB AS )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 226*306cm</t>
+  </si>
+  <si>
+    <t>BARANG DI BAWA PAK EDDY</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 262*325cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 262*118cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 228*325cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 9:12:22</t>
+  </si>
+  <si>
+    <t>RB526</t>
+  </si>
+  <si>
+    <t>Tabina MIM ( JB IL )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 197*56cm</t>
+  </si>
+  <si>
+    <t>1/21/2025 9:32:31</t>
+  </si>
+  <si>
+    <t>JB OG</t>
+  </si>
+  <si>
+    <t>RB527</t>
+  </si>
+  <si>
+    <t>Al-Fawwaz ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 320*60cm</t>
+  </si>
+  <si>
+    <t>1/22/2025 8:34:16</t>
+  </si>
+  <si>
+    <t>RB528</t>
+  </si>
+  <si>
+    <t>X BANNER</t>
+  </si>
+  <si>
+    <t>SMJ</t>
+  </si>
+  <si>
+    <t>1/23/2025 8:10:03</t>
+  </si>
+  <si>
+    <t>Jr. Sul</t>
+  </si>
+  <si>
+    <t>RB529</t>
+  </si>
+  <si>
+    <t>Feminim Underwear Tuban</t>
+  </si>
+  <si>
+    <t>Tuban</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 115*150cm</t>
+  </si>
+  <si>
+    <t>12/2/2025</t>
+  </si>
+  <si>
+    <t>1/23/2025 8:12:47</t>
+  </si>
+  <si>
+    <t>RB530</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 70*230cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:28:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JB OG</t>
+  </si>
+  <si>
+    <t>RB531</t>
+  </si>
+  <si>
+    <t>Sdr Jimmy ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 553*140cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:30:15</t>
+  </si>
+  <si>
+    <t>RB532</t>
+  </si>
+  <si>
+    <t>Alfiza BRa ( JB AD )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 60*50cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:31:44</t>
+  </si>
+  <si>
+    <t>RB533</t>
+  </si>
+  <si>
+    <t>Alfiza Bra ( JB AD  )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 290*49cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 222*49cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:33:03</t>
+  </si>
+  <si>
+    <t>RB534</t>
+  </si>
+  <si>
+    <t>Ud Ts Utama ( JB PN )</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 102*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:34:10</t>
+  </si>
+  <si>
+    <t>RB535</t>
+  </si>
+  <si>
+    <t>Laluna ( JB RS )</t>
+  </si>
+  <si>
+    <t>IMPRABOARD 175*31cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:51:46</t>
+  </si>
+  <si>
+    <t>RB536</t>
+  </si>
+  <si>
+    <t>Borma Kopo ( JB OG )</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 208*78cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 480*78cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 8:58:24</t>
+  </si>
+  <si>
+    <t>RB537</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*20cm</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*15cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:24:55</t>
+  </si>
+  <si>
+    <t>RB538</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 178*206cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:25:59</t>
+  </si>
+  <si>
+    <t>RB539</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 246*61cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:27:58</t>
+  </si>
+  <si>
+    <t>RB540</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 55*122cm</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 64*122cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:29:26</t>
+  </si>
+  <si>
+    <t>RB541</t>
+  </si>
+  <si>
+    <t>Sans ( JB AS )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 50*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:30:32</t>
+  </si>
+  <si>
+    <t>RB542</t>
+  </si>
+  <si>
+    <t>Adinda Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 300*60cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:31:33</t>
+  </si>
+  <si>
+    <t>RB543</t>
+  </si>
+  <si>
+    <t>Jasmine Baby Shop ( JB MI )</t>
+  </si>
+  <si>
+    <t>CIkarang</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*40cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:39:16</t>
+  </si>
+  <si>
+    <t>RB544</t>
+  </si>
+  <si>
+    <t>Pujaan ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 182*90cm</t>
+  </si>
+  <si>
+    <t>2/3/25</t>
+  </si>
+  <si>
+    <t>2/4/25</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 52*90cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:46:33</t>
+  </si>
+  <si>
+    <t>JB YN</t>
+  </si>
+  <si>
+    <t>RB545</t>
+  </si>
+  <si>
+    <t>Toserba Sukabumi ( JB YN )</t>
+  </si>
+  <si>
+    <t>Sukabumi</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 1300*100cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:47:43</t>
+  </si>
+  <si>
+    <t>RB546</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 185*55cm</t>
+  </si>
+  <si>
+    <t>1/24/2025 9:56:34</t>
+  </si>
+  <si>
+    <t>RB547</t>
+  </si>
+  <si>
+    <t>NR Collection ( JB OG )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*25cm</t>
+  </si>
+  <si>
+    <t>11/2/2025</t>
+  </si>
+  <si>
+    <t>13/2/2025</t>
+  </si>
+  <si>
+    <t>1/24/2025 10:56:10</t>
+  </si>
+  <si>
+    <t>RB548</t>
+  </si>
+  <si>
+    <t>Sumber Busana ( JB RS )</t>
+  </si>
+  <si>
+    <t>1/24/2025 13:38:45</t>
+  </si>
+  <si>
+    <t>RB549</t>
+  </si>
+  <si>
+    <t>Prima swalayan</t>
+  </si>
+  <si>
+    <t>Nganjuk</t>
+  </si>
+  <si>
+    <t>TRIPOD BANNER 45*65cm</t>
+  </si>
+  <si>
+    <t>12/22025</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:08:24</t>
+  </si>
+  <si>
+    <t>RB550</t>
+  </si>
+  <si>
+    <t>TOSERBA SUNAN DRAJAT</t>
+  </si>
+  <si>
+    <t>LAMONGAN - JATIM</t>
+  </si>
+  <si>
+    <t>STIKER DOFF  14*166CM</t>
+  </si>
+  <si>
+    <t>STIKER DOFF  17*166CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIKER DOFF 422*17CM </t>
+  </si>
+  <si>
+    <t>1/24/2025 14:15:03</t>
+  </si>
+  <si>
+    <t>RB551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALVIA COLLECTION </t>
+  </si>
+  <si>
+    <t>TUBAN - JATIM</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 285*42CM</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:22:49</t>
+  </si>
+  <si>
+    <t>RB552</t>
+  </si>
+  <si>
+    <t>RAHASIA WANITA</t>
+  </si>
+  <si>
+    <t>LAMONGAN -JATIM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 300*25CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 250*25CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 280*42CM</t>
+  </si>
+  <si>
+    <t>1/24/2025 14:30:12</t>
+  </si>
+  <si>
+    <t>RB553</t>
+  </si>
+  <si>
+    <t>FEMINIM UNDERWEAR</t>
+  </si>
+  <si>
+    <t>STIKER ONEWAY 115*150CM</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:14:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB </t>
+  </si>
+  <si>
+    <t>RB554</t>
+  </si>
+  <si>
+    <t>Yogya Bogor Junction</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 64*305cm</t>
+  </si>
+  <si>
     <t>1/25/2025 9:19:31</t>
   </si>
   <si>
-    <t xml:space="preserve">JB </t>
-  </si>
-  <si>
     <t>RB555</t>
   </si>
   <si>
-    <t>Yogya Bogor Junction</t>
-  </si>
-  <si>
-    <t>Bogor</t>
-  </si>
-  <si>
-    <t>BARU</t>
-  </si>
-  <si>
-    <t>GFORM</t>
-  </si>
-  <si>
     <t>IMPRABOARD 184*41cm</t>
   </si>
   <si>
-    <t>30/1/2025</t>
+    <t>1/25/2025 9:25:13</t>
+  </si>
+  <si>
+    <t>RB556</t>
+  </si>
+  <si>
+    <t>Chi A Quih ( JB YN )</t>
+  </si>
+  <si>
+    <t>CIanjur</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 286*87cm</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:26:44</t>
+  </si>
+  <si>
+    <t>JB IW</t>
+  </si>
+  <si>
+    <t>RB557</t>
+  </si>
+  <si>
+    <t>X-Sha SP ( JB IW )</t>
+  </si>
+  <si>
+    <t>Tasikmalaya</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 250*150cm</t>
+  </si>
+  <si>
+    <t>1/25/2025 9:45:23</t>
+  </si>
+  <si>
+    <t>JR-YOS</t>
+  </si>
+  <si>
+    <t>RB558</t>
+  </si>
+  <si>
+    <t>DALEMAN KITA</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 880*165CM</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 500*95CM</t>
+  </si>
+  <si>
+    <t>1/25/2025 11:55:16</t>
+  </si>
+  <si>
+    <t>RB559</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 155*68CM</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 115*68CM</t>
+  </si>
+  <si>
+    <t>1/28/2025 8:58:11</t>
+  </si>
+  <si>
+    <t>RB560</t>
+  </si>
+  <si>
+    <t>Almanita Tary ( Baltos )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 120*80cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA  60*81cm</t>
+  </si>
+  <si>
+    <t>1/28/2025 10:25:41</t>
+  </si>
+  <si>
+    <t>JR. WT</t>
+  </si>
+  <si>
+    <t>RB561</t>
+  </si>
+  <si>
+    <t>Pak andi rejeki baru</t>
+  </si>
+  <si>
+    <t>Trenggalek</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 524*98cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 115*37cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 23*190cm</t>
+  </si>
+  <si>
+    <t>1/28/2025 10:27:03</t>
+  </si>
+  <si>
+    <t>RB562</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 655*55CM</t>
+  </si>
+  <si>
+    <t>2/5/25</t>
+  </si>
+  <si>
+    <t>14/2/2025</t>
+  </si>
+  <si>
+    <t>17/2/2025</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 78*230CM</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:45:49</t>
+  </si>
+  <si>
+    <t>RB563</t>
+  </si>
+  <si>
+    <t>Alexandria ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 120*20cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 60*20cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 115*55cm</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 56*55cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:46:48</t>
+  </si>
+  <si>
+    <t>RB564</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 470*125cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:47:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB BD </t>
+  </si>
+  <si>
+    <t>RB565</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 495*50cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:51:23</t>
+  </si>
+  <si>
+    <t>RB566</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 120*65cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 8:52:54</t>
+  </si>
+  <si>
+    <t>RB567</t>
+  </si>
+  <si>
+    <t>Nuri Bang Daus ( JB OG )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 280*66cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 9:37:34</t>
+  </si>
+  <si>
+    <t>RB568</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 400*36cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 9:39:05</t>
+  </si>
+  <si>
+    <t>RB569</t>
+  </si>
+  <si>
+    <t>Chamay Collection ( JB MI )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 280*90cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:11:26</t>
+  </si>
+  <si>
+    <t>JB ES</t>
+  </si>
+  <si>
+    <t>RB570</t>
+  </si>
+  <si>
+    <t>Alexandria ( JB ES )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 470*75cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:12:33</t>
+  </si>
+  <si>
+    <t>RB571</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 32*360cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:13:38</t>
+  </si>
+  <si>
+    <t>RB572</t>
+  </si>
+  <si>
+    <t>Ceu Mart ( JB ES )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 250*60cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:40:21</t>
+  </si>
+  <si>
+    <t>RB573</t>
+  </si>
+  <si>
+    <t>Almanita Tary Baltos ( JB AD )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 144*80cm</t>
+  </si>
+  <si>
+    <t>1/30/2025 16:42:03</t>
+  </si>
+  <si>
+    <t>RB574</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 60*80cm</t>
+  </si>
+  <si>
+    <t>1/31/2025 8:57:32</t>
+  </si>
+  <si>
+    <t>RB575</t>
+  </si>
+  <si>
+    <t>Borma Dago ( JB IL )</t>
+  </si>
+  <si>
+    <t>ROLL UP BANNER</t>
+  </si>
+  <si>
+    <t>2/1/2025 8:29:30</t>
+  </si>
+  <si>
+    <t>RB576</t>
+  </si>
+  <si>
+    <t>NMG ( JB AD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 480*105cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:34:15</t>
+  </si>
+  <si>
+    <t>RB577</t>
+  </si>
+  <si>
+    <t>Fashionable Baby ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 700*70cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:36:02</t>
+  </si>
+  <si>
+    <t>RB578</t>
+  </si>
+  <si>
+    <t>Syahida Underwear ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 500*80cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:37:12</t>
+  </si>
+  <si>
+    <t>RB579</t>
+  </si>
+  <si>
+    <t>Guci Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 400*80cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:39:20</t>
+  </si>
+  <si>
+    <t>RB580</t>
+  </si>
+  <si>
+    <t>Bari Qaisar ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 630*100cm</t>
+  </si>
+  <si>
+    <t>2/3/2025 8:41:09</t>
+  </si>
+  <si>
+    <t>RB581</t>
+  </si>
+  <si>
+    <t>2/4/2025 15:22:01</t>
+  </si>
+  <si>
+    <t>RB582</t>
+  </si>
+  <si>
+    <t>Winda ( JB BD )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 40*30cm</t>
+  </si>
+  <si>
+    <t>2/6/25</t>
+  </si>
+  <si>
+    <t>2/4/2025 15:22:55</t>
+  </si>
+  <si>
+    <t>RB583</t>
+  </si>
+  <si>
+    <t>Fajar Underwear ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 370*60cm</t>
+  </si>
+  <si>
+    <t>2/5/2025 15:12:23</t>
+  </si>
+  <si>
+    <t>RB584</t>
+  </si>
+  <si>
+    <t>Toko Ali Tuban</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 180*100cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 10:18:54</t>
+  </si>
+  <si>
+    <t>RB585</t>
+  </si>
+  <si>
+    <t>SERBA 35(MODIST GALLERY)</t>
+  </si>
+  <si>
+    <t>TUREN - MALANG</t>
+  </si>
+  <si>
+    <t>IMPRABOARD KASIH PANAH  2 MUKA + MATA AYAM + TALI SENAR U/ GANTUNG 30*30CM</t>
+  </si>
+  <si>
+    <t>2/6/2025 10:29:03</t>
+  </si>
+  <si>
+    <t>Jr. Dn</t>
+  </si>
+  <si>
+    <t>RB586</t>
+  </si>
+  <si>
+    <t>Bravo Swalayan Tulungagung</t>
+  </si>
+  <si>
+    <t>Tulungagung</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 50*122cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 11:27:36</t>
+  </si>
+  <si>
+    <t>JR. STO</t>
+  </si>
+  <si>
+    <t>RB587</t>
+  </si>
+  <si>
+    <t>ALZA UNDERWEAR</t>
+  </si>
+  <si>
+    <t>Madiun</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 65*210cm</t>
+  </si>
+  <si>
+    <t>2/7/25</t>
+  </si>
+  <si>
+    <t>POSTER DOFF  80*110</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 80*140cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 245*60cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 50*195cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 390*75cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 85*65cm</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 95*87cm</t>
+  </si>
+  <si>
+    <t>2/6/2025 13:52:26</t>
+  </si>
+  <si>
+    <t>RB588</t>
+  </si>
+  <si>
+    <t>POSTER DOFF 90*140cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 8:40:21</t>
+  </si>
+  <si>
+    <t>RB589</t>
+  </si>
+  <si>
+    <t>Toko Baru</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 200*200cm</t>
+  </si>
+  <si>
+    <t>2/11/25</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:18:53</t>
+  </si>
+  <si>
+    <t>RB590</t>
+  </si>
+  <si>
+    <t>Umi Zie Collection ( JB BD )</t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA ( PAKAI MATA AYAM ) 200*20cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:20:39</t>
+  </si>
+  <si>
+    <t>JB SH</t>
+  </si>
+  <si>
+    <t>RB591</t>
+  </si>
+  <si>
+    <t>Bintang Kids Kalijati ( JB SH )</t>
+  </si>
+  <si>
+    <t>SUbang</t>
+  </si>
+  <si>
+    <t>AKRILIK BENING 100*30cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:24:40</t>
+  </si>
+  <si>
+    <t>RB592</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*15cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:26:43</t>
+  </si>
+  <si>
+    <t>JB FR</t>
+  </si>
+  <si>
+    <t>RB593</t>
+  </si>
+  <si>
+    <t>Sahrul ( JB FR )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 90*91cm</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 61*90cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:28:09</t>
+  </si>
+  <si>
+    <t>RB594</t>
+  </si>
+  <si>
+    <t>Almanita Tris Baltos ( JB FR )</t>
+  </si>
+  <si>
+    <t>SPANDUK CHINA 120*80cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:30:10</t>
+  </si>
+  <si>
+    <t>RB595</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 30*40cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:32:50</t>
+  </si>
+  <si>
+    <t>RB596</t>
+  </si>
+  <si>
+    <t>Riyan Collection ( JB ES )</t>
+  </si>
+  <si>
+    <t>AKRILIK KAPUR / PVC 60*40cm</t>
+  </si>
+  <si>
+    <t>2/11/2025 14:56:51</t>
+  </si>
+  <si>
+    <t>RB597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borma Group </t>
+  </si>
+  <si>
+    <t>Cutting Sticker  59*19cm</t>
+  </si>
+  <si>
+    <t>Cutting Sticker 35*13cm</t>
+  </si>
+  <si>
+    <t>2/12/2025 14:42:25</t>
+  </si>
+  <si>
+    <t>RB598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNR 2 ( KOLOR SUMENEP )_x000D__x000D_
+</t>
+  </si>
+  <si>
+    <t>Sumenep</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 87*332cm</t>
+  </si>
+  <si>
+    <t>2/17/25</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 225*100cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 292*100cm</t>
+  </si>
+  <si>
+    <t>STIKER DOFF 57*39cm</t>
+  </si>
+  <si>
+    <t>2/14/2025 9:52:50</t>
+  </si>
+  <si>
+    <t>RB599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUMAH BUSANA </t>
+  </si>
+  <si>
+    <t>SPANDUK KOREA 350*100CM</t>
   </si>
 </sst>
 </file>
@@ -444,7 +2137,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,13 +2239,7458 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>112</v>
+      </c>
+      <c r="U14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" t="s">
+        <v>118</v>
+      </c>
+      <c r="U15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" t="s">
+        <v>112</v>
+      </c>
+      <c r="S16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" t="s">
+        <v>118</v>
+      </c>
+      <c r="U16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" t="s">
+        <v>117</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" t="s">
+        <v>171</v>
+      </c>
+      <c r="S26" t="s">
+        <v>171</v>
+      </c>
+      <c r="T26" t="s">
+        <v>172</v>
+      </c>
+      <c r="U26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M28" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" t="s">
+        <v>149</v>
+      </c>
+      <c r="O28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" t="s">
+        <v>149</v>
+      </c>
+      <c r="M29" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" t="s">
+        <v>149</v>
+      </c>
+      <c r="O29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>118</v>
+      </c>
+      <c r="R30" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" t="s">
+        <v>118</v>
+      </c>
+      <c r="T30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" t="s">
+        <v>117</v>
+      </c>
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>118</v>
+      </c>
+      <c r="R31" t="s">
+        <v>118</v>
+      </c>
+      <c r="S31" t="s">
+        <v>118</v>
+      </c>
+      <c r="T31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" t="s">
+        <v>149</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>109</v>
+      </c>
+      <c r="R32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S32" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" t="s">
+        <v>149</v>
+      </c>
+      <c r="M33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>109</v>
+      </c>
+      <c r="R33" t="s">
+        <v>110</v>
+      </c>
+      <c r="S33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
+        <v>112</v>
+      </c>
+      <c r="U33" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" t="s">
+        <v>112</v>
+      </c>
+      <c r="S34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M35" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" t="s">
+        <v>149</v>
+      </c>
+      <c r="M36" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>171</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
+        <v>172</v>
+      </c>
+      <c r="U36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K37" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N37" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>171</v>
+      </c>
+      <c r="R37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S37" t="s">
+        <v>171</v>
+      </c>
+      <c r="T37" t="s">
+        <v>172</v>
+      </c>
+      <c r="U37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" t="s">
+        <v>149</v>
+      </c>
+      <c r="L38" t="s">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" t="s">
+        <v>149</v>
+      </c>
+      <c r="M39" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40" t="s">
+        <v>149</v>
+      </c>
+      <c r="M40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L42" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>125</v>
+      </c>
+      <c r="N42" t="s">
+        <v>117</v>
+      </c>
+      <c r="O42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>171</v>
+      </c>
+      <c r="R43" t="s">
+        <v>171</v>
+      </c>
+      <c r="S43" t="s">
+        <v>171</v>
+      </c>
+      <c r="T43" t="s">
+        <v>172</v>
+      </c>
+      <c r="U43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>118</v>
+      </c>
+      <c r="R44" t="s">
+        <v>118</v>
+      </c>
+      <c r="S44" t="s">
+        <v>118</v>
+      </c>
+      <c r="T44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>118</v>
+      </c>
+      <c r="R45" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>245</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" t="s">
+        <v>117</v>
+      </c>
+      <c r="O46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>118</v>
+      </c>
+      <c r="R46" t="s">
+        <v>118</v>
+      </c>
+      <c r="S46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>125</v>
+      </c>
+      <c r="K47" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>118</v>
+      </c>
+      <c r="R47" t="s">
+        <v>118</v>
+      </c>
+      <c r="S47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" t="s">
+        <v>125</v>
+      </c>
+      <c r="N48" t="s">
+        <v>125</v>
+      </c>
+      <c r="O48" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>118</v>
+      </c>
+      <c r="R48" t="s">
+        <v>118</v>
+      </c>
+      <c r="S48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" t="s">
+        <v>125</v>
+      </c>
+      <c r="N49" t="s">
+        <v>125</v>
+      </c>
+      <c r="O49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>258</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" t="s">
+        <v>125</v>
+      </c>
+      <c r="M50" t="s">
+        <v>125</v>
+      </c>
+      <c r="N50" t="s">
+        <v>125</v>
+      </c>
+      <c r="O50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>132</v>
+      </c>
+      <c r="M51" t="s">
+        <v>132</v>
+      </c>
+      <c r="N51" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>118</v>
+      </c>
+      <c r="R51" t="s">
+        <v>134</v>
+      </c>
+      <c r="S51" t="s">
+        <v>134</v>
+      </c>
+      <c r="T51" t="s">
+        <v>171</v>
+      </c>
+      <c r="U51" t="s">
+        <v>171</v>
+      </c>
+      <c r="V51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s">
+        <v>132</v>
+      </c>
+      <c r="M52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N52" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" t="s">
+        <v>30</v>
+      </c>
+      <c r="P52" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>118</v>
+      </c>
+      <c r="R52" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" t="s">
+        <v>134</v>
+      </c>
+      <c r="T52" t="s">
+        <v>171</v>
+      </c>
+      <c r="U52" t="s">
+        <v>171</v>
+      </c>
+      <c r="V52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>274</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s">
+        <v>132</v>
+      </c>
+      <c r="M53" t="s">
+        <v>132</v>
+      </c>
+      <c r="N53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>278</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M54" t="s">
+        <v>132</v>
+      </c>
+      <c r="N54" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>171</v>
+      </c>
+      <c r="R54" t="s">
+        <v>171</v>
+      </c>
+      <c r="S54" t="s">
+        <v>171</v>
+      </c>
+      <c r="T54" t="s">
+        <v>172</v>
+      </c>
+      <c r="U54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" t="s">
+        <v>281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
+        <v>132</v>
+      </c>
+      <c r="M55" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" t="s">
+        <v>132</v>
+      </c>
+      <c r="N56" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" t="s">
+        <v>132</v>
+      </c>
+      <c r="M57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N57" t="s">
+        <v>132</v>
+      </c>
+      <c r="O57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>291</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s">
+        <v>132</v>
+      </c>
+      <c r="M58" t="s">
+        <v>132</v>
+      </c>
+      <c r="N58" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>295</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s">
+        <v>132</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59" t="s">
+        <v>132</v>
+      </c>
+      <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>118</v>
+      </c>
+      <c r="R59" t="s">
+        <v>118</v>
+      </c>
+      <c r="S59" t="s">
+        <v>118</v>
+      </c>
+      <c r="T59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>296</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s">
+        <v>132</v>
+      </c>
+      <c r="M60" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" t="s">
+        <v>132</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>118</v>
+      </c>
+      <c r="R60" t="s">
+        <v>118</v>
+      </c>
+      <c r="S60" t="s">
+        <v>118</v>
+      </c>
+      <c r="T60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>299</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" t="s">
+        <v>132</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" t="s">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>171</v>
+      </c>
+      <c r="R61" t="s">
+        <v>171</v>
+      </c>
+      <c r="S61" t="s">
+        <v>171</v>
+      </c>
+      <c r="T61" t="s">
+        <v>172</v>
+      </c>
+      <c r="U61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>300</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" t="s">
+        <v>132</v>
+      </c>
+      <c r="M62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N62" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>171</v>
+      </c>
+      <c r="R62" t="s">
+        <v>171</v>
+      </c>
+      <c r="S62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T62" t="s">
+        <v>172</v>
+      </c>
+      <c r="U62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>303</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" t="s">
+        <v>132</v>
+      </c>
+      <c r="N63" t="s">
+        <v>132</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" t="s">
+        <v>132</v>
+      </c>
+      <c r="N64" t="s">
+        <v>132</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>118</v>
+      </c>
+      <c r="R64" t="s">
+        <v>118</v>
+      </c>
+      <c r="S64" t="s">
+        <v>118</v>
+      </c>
+      <c r="T64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>309</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" t="s">
+        <v>132</v>
+      </c>
+      <c r="L65" t="s">
+        <v>132</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65" t="s">
+        <v>132</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>118</v>
+      </c>
+      <c r="R65" t="s">
+        <v>118</v>
+      </c>
+      <c r="S65" t="s">
+        <v>118</v>
+      </c>
+      <c r="T65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>310</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" t="s">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s">
+        <v>132</v>
+      </c>
+      <c r="M66" t="s">
+        <v>132</v>
+      </c>
+      <c r="N66" t="s">
+        <v>132</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+      <c r="P66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>118</v>
+      </c>
+      <c r="R66" t="s">
+        <v>118</v>
+      </c>
+      <c r="S66" t="s">
+        <v>118</v>
+      </c>
+      <c r="T66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" t="s">
+        <v>313</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>314</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>318</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" t="s">
+        <v>321</v>
+      </c>
+      <c r="E69" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>323</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>132</v>
+      </c>
+      <c r="L69" t="s">
+        <v>132</v>
+      </c>
+      <c r="M69" t="s">
+        <v>132</v>
+      </c>
+      <c r="N69" t="s">
+        <v>132</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>171</v>
+      </c>
+      <c r="R69" t="s">
+        <v>171</v>
+      </c>
+      <c r="S69" t="s">
+        <v>171</v>
+      </c>
+      <c r="T69" t="s">
+        <v>172</v>
+      </c>
+      <c r="U69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L70" t="s">
+        <v>328</v>
+      </c>
+      <c r="M70" t="s">
+        <v>328</v>
+      </c>
+      <c r="N70" t="s">
+        <v>329</v>
+      </c>
+      <c r="O70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>330</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71" t="s">
+        <v>328</v>
+      </c>
+      <c r="M71" t="s">
+        <v>328</v>
+      </c>
+      <c r="N71" t="s">
+        <v>329</v>
+      </c>
+      <c r="O71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" t="s">
+        <v>334</v>
+      </c>
+      <c r="E72" t="s">
+        <v>335</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>336</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>339</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73" t="s">
+        <v>328</v>
+      </c>
+      <c r="M73" t="s">
+        <v>328</v>
+      </c>
+      <c r="N73" t="s">
+        <v>329</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" t="s">
+        <v>342</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>343</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" t="s">
+        <v>132</v>
+      </c>
+      <c r="L74" t="s">
+        <v>328</v>
+      </c>
+      <c r="M74" t="s">
+        <v>328</v>
+      </c>
+      <c r="N74" t="s">
+        <v>329</v>
+      </c>
+      <c r="O74" t="s">
+        <v>30</v>
+      </c>
+      <c r="P74" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>266</v>
+      </c>
+      <c r="R74" t="s">
+        <v>345</v>
+      </c>
+      <c r="S74" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D75" t="s">
+        <v>348</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>314</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>350</v>
+      </c>
+      <c r="D76" t="s">
+        <v>351</v>
+      </c>
+      <c r="E76" t="s">
+        <v>352</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>353</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" t="s">
+        <v>132</v>
+      </c>
+      <c r="L76" t="s">
+        <v>132</v>
+      </c>
+      <c r="M76" t="s">
+        <v>132</v>
+      </c>
+      <c r="N76" t="s">
+        <v>132</v>
+      </c>
+      <c r="O76" t="s">
+        <v>30</v>
+      </c>
+      <c r="P76" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>118</v>
+      </c>
+      <c r="R76" t="s">
+        <v>134</v>
+      </c>
+      <c r="S76" t="s">
+        <v>134</v>
+      </c>
+      <c r="T76" t="s">
+        <v>171</v>
+      </c>
+      <c r="U76" t="s">
+        <v>171</v>
+      </c>
+      <c r="V76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>356</v>
+      </c>
+      <c r="D77" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" t="s">
+        <v>358</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>359</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>328</v>
+      </c>
+      <c r="K77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" t="s">
+        <v>358</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>360</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>328</v>
+      </c>
+      <c r="K78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>356</v>
+      </c>
+      <c r="D79" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" t="s">
+        <v>358</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>361</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>328</v>
+      </c>
+      <c r="K79" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" t="s">
+        <v>362</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>363</v>
+      </c>
+      <c r="D80" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>366</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>328</v>
+      </c>
+      <c r="K80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" t="s">
+        <v>367</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>368</v>
+      </c>
+      <c r="D81" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" t="s">
+        <v>370</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>371</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>328</v>
+      </c>
+      <c r="K81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" t="s">
+        <v>369</v>
+      </c>
+      <c r="E82" t="s">
+        <v>370</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>372</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>328</v>
+      </c>
+      <c r="K82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>368</v>
+      </c>
+      <c r="D83" t="s">
+        <v>369</v>
+      </c>
+      <c r="E83" t="s">
+        <v>370</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>373</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>328</v>
+      </c>
+      <c r="K83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" t="s">
+        <v>376</v>
+      </c>
+      <c r="E84" t="s">
+        <v>365</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>377</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+      <c r="K84" t="s">
+        <v>109</v>
+      </c>
+      <c r="L84" t="s">
+        <v>109</v>
+      </c>
+      <c r="M84" t="s">
+        <v>109</v>
+      </c>
+      <c r="N84" t="s">
+        <v>132</v>
+      </c>
+      <c r="O84" t="s">
+        <v>30</v>
+      </c>
+      <c r="P84" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>118</v>
+      </c>
+      <c r="R84" t="s">
+        <v>134</v>
+      </c>
+      <c r="S84" t="s">
+        <v>134</v>
+      </c>
+      <c r="T84" t="s">
+        <v>171</v>
+      </c>
+      <c r="U84" t="s">
+        <v>171</v>
+      </c>
+      <c r="V84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E85" t="s">
+        <v>365</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>382</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+      <c r="K85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" t="s">
+        <v>379</v>
+      </c>
+      <c r="C86" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>385</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>109</v>
+      </c>
+      <c r="K86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" t="s">
+        <v>388</v>
+      </c>
+      <c r="E87" t="s">
+        <v>389</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>390</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>109</v>
+      </c>
+      <c r="K87" t="s">
+        <v>109</v>
+      </c>
+      <c r="L87" t="s">
+        <v>109</v>
+      </c>
+      <c r="M87" t="s">
+        <v>109</v>
+      </c>
+      <c r="N87" t="s">
+        <v>132</v>
+      </c>
+      <c r="O87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" t="s">
+        <v>395</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>396</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>109</v>
+      </c>
+      <c r="K88" t="s">
+        <v>109</v>
+      </c>
+      <c r="L88" t="s">
+        <v>109</v>
+      </c>
+      <c r="M88" t="s">
+        <v>109</v>
+      </c>
+      <c r="N88" t="s">
+        <v>132</v>
+      </c>
+      <c r="O88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" t="s">
+        <v>400</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>401</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L89" t="s">
+        <v>109</v>
+      </c>
+      <c r="M89" t="s">
+        <v>109</v>
+      </c>
+      <c r="N89" t="s">
+        <v>132</v>
+      </c>
+      <c r="O89" t="s">
+        <v>30</v>
+      </c>
+      <c r="P89" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>118</v>
+      </c>
+      <c r="R89" t="s">
+        <v>134</v>
+      </c>
+      <c r="S89" t="s">
+        <v>134</v>
+      </c>
+      <c r="T89" t="s">
+        <v>171</v>
+      </c>
+      <c r="U89" t="s">
+        <v>171</v>
+      </c>
+      <c r="V89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" t="s">
+        <v>400</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>401</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>109</v>
+      </c>
+      <c r="K90" t="s">
+        <v>109</v>
+      </c>
+      <c r="L90" t="s">
+        <v>109</v>
+      </c>
+      <c r="M90" t="s">
+        <v>109</v>
+      </c>
+      <c r="N90" t="s">
+        <v>132</v>
+      </c>
+      <c r="O90" t="s">
+        <v>30</v>
+      </c>
+      <c r="P90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>118</v>
+      </c>
+      <c r="R90" t="s">
+        <v>134</v>
+      </c>
+      <c r="S90" t="s">
+        <v>134</v>
+      </c>
+      <c r="T90" t="s">
+        <v>171</v>
+      </c>
+      <c r="U90" t="s">
+        <v>171</v>
+      </c>
+      <c r="V90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
+        <v>397</v>
+      </c>
+      <c r="B91" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" t="s">
+        <v>399</v>
+      </c>
+      <c r="D91" t="s">
+        <v>400</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>402</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" t="s">
+        <v>109</v>
+      </c>
+      <c r="L91" t="s">
+        <v>109</v>
+      </c>
+      <c r="M91" t="s">
+        <v>109</v>
+      </c>
+      <c r="N91" t="s">
+        <v>132</v>
+      </c>
+      <c r="O91" t="s">
+        <v>30</v>
+      </c>
+      <c r="P91" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>118</v>
+      </c>
+      <c r="R91" t="s">
+        <v>134</v>
+      </c>
+      <c r="S91" t="s">
+        <v>134</v>
+      </c>
+      <c r="T91" t="s">
+        <v>171</v>
+      </c>
+      <c r="U91" t="s">
+        <v>171</v>
+      </c>
+      <c r="V91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92" t="s">
+        <v>398</v>
+      </c>
+      <c r="C92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D92" t="s">
+        <v>400</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>405</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" t="s">
+        <v>109</v>
+      </c>
+      <c r="L92" t="s">
+        <v>109</v>
+      </c>
+      <c r="M92" t="s">
+        <v>109</v>
+      </c>
+      <c r="N92" t="s">
+        <v>132</v>
+      </c>
+      <c r="O92" t="s">
+        <v>30</v>
+      </c>
+      <c r="P92" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>118</v>
+      </c>
+      <c r="R92" t="s">
+        <v>134</v>
+      </c>
+      <c r="S92" t="s">
+        <v>134</v>
+      </c>
+      <c r="T92" t="s">
+        <v>171</v>
+      </c>
+      <c r="U92" t="s">
+        <v>171</v>
+      </c>
+      <c r="V92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
+        <v>403</v>
+      </c>
+      <c r="B93" t="s">
+        <v>398</v>
+      </c>
+      <c r="C93" t="s">
+        <v>404</v>
+      </c>
+      <c r="D93" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>406</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>109</v>
+      </c>
+      <c r="K93" t="s">
+        <v>109</v>
+      </c>
+      <c r="L93" t="s">
+        <v>109</v>
+      </c>
+      <c r="M93" t="s">
+        <v>109</v>
+      </c>
+      <c r="N93" t="s">
+        <v>132</v>
+      </c>
+      <c r="O93" t="s">
+        <v>30</v>
+      </c>
+      <c r="P93" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>118</v>
+      </c>
+      <c r="R93" t="s">
+        <v>134</v>
+      </c>
+      <c r="S93" t="s">
+        <v>134</v>
+      </c>
+      <c r="T93" t="s">
+        <v>171</v>
+      </c>
+      <c r="U93" t="s">
+        <v>171</v>
+      </c>
+      <c r="V93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" t="s">
+        <v>407</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>408</v>
+      </c>
+      <c r="D94" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>410</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>109</v>
+      </c>
+      <c r="K94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
+        <v>407</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>408</v>
+      </c>
+      <c r="D95" t="s">
+        <v>409</v>
+      </c>
+      <c r="E95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>411</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>412</v>
+      </c>
+      <c r="B96" t="s">
+        <v>413</v>
+      </c>
+      <c r="C96" t="s">
+        <v>414</v>
+      </c>
+      <c r="D96" t="s">
+        <v>415</v>
+      </c>
+      <c r="E96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>417</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" t="s">
+        <v>109</v>
+      </c>
+      <c r="L96" t="s">
+        <v>109</v>
+      </c>
+      <c r="M96" t="s">
+        <v>109</v>
+      </c>
+      <c r="N96" t="s">
+        <v>132</v>
+      </c>
+      <c r="O96" t="s">
+        <v>30</v>
+      </c>
+      <c r="P96" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>118</v>
+      </c>
+      <c r="R96" t="s">
+        <v>134</v>
+      </c>
+      <c r="S96" t="s">
+        <v>134</v>
+      </c>
+      <c r="T96" t="s">
+        <v>171</v>
+      </c>
+      <c r="U96" t="s">
+        <v>171</v>
+      </c>
+      <c r="V96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="A97" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" t="s">
+        <v>413</v>
+      </c>
+      <c r="C97" t="s">
+        <v>414</v>
+      </c>
+      <c r="D97" t="s">
+        <v>415</v>
+      </c>
+      <c r="E97" t="s">
+        <v>416</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>418</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" t="s">
+        <v>109</v>
+      </c>
+      <c r="L97" t="s">
+        <v>109</v>
+      </c>
+      <c r="M97" t="s">
+        <v>109</v>
+      </c>
+      <c r="N97" t="s">
+        <v>132</v>
+      </c>
+      <c r="O97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P97" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>118</v>
+      </c>
+      <c r="R97" t="s">
+        <v>134</v>
+      </c>
+      <c r="S97" t="s">
+        <v>134</v>
+      </c>
+      <c r="T97" t="s">
+        <v>171</v>
+      </c>
+      <c r="U97" t="s">
+        <v>171</v>
+      </c>
+      <c r="V97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="A98" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" t="s">
+        <v>413</v>
+      </c>
+      <c r="C98" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" t="s">
+        <v>415</v>
+      </c>
+      <c r="E98" t="s">
+        <v>416</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>419</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" t="s">
+        <v>109</v>
+      </c>
+      <c r="L98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M98" t="s">
+        <v>109</v>
+      </c>
+      <c r="N98" t="s">
+        <v>132</v>
+      </c>
+      <c r="O98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P98" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>118</v>
+      </c>
+      <c r="R98" t="s">
+        <v>134</v>
+      </c>
+      <c r="S98" t="s">
+        <v>134</v>
+      </c>
+      <c r="T98" t="s">
+        <v>171</v>
+      </c>
+      <c r="U98" t="s">
+        <v>171</v>
+      </c>
+      <c r="V98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="A99" t="s">
+        <v>420</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" t="s">
+        <v>421</v>
+      </c>
+      <c r="D99" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" t="s">
+        <v>365</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>422</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>109</v>
+      </c>
+      <c r="K99" t="s">
+        <v>109</v>
+      </c>
+      <c r="L99" t="s">
+        <v>423</v>
+      </c>
+      <c r="M99" t="s">
+        <v>423</v>
+      </c>
+      <c r="N99" t="s">
+        <v>423</v>
+      </c>
+      <c r="O99" t="s">
+        <v>30</v>
+      </c>
+      <c r="P99" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>266</v>
+      </c>
+      <c r="R99" t="s">
+        <v>345</v>
+      </c>
+      <c r="S99" t="s">
+        <v>345</v>
+      </c>
+      <c r="T99" t="s">
+        <v>424</v>
+      </c>
+      <c r="U99" t="s">
+        <v>424</v>
+      </c>
+      <c r="V99" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="A100" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" t="s">
+        <v>421</v>
+      </c>
+      <c r="D100" t="s">
+        <v>376</v>
+      </c>
+      <c r="E100" t="s">
+        <v>365</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>426</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>109</v>
+      </c>
+      <c r="K100" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" t="s">
+        <v>423</v>
+      </c>
+      <c r="M100" t="s">
+        <v>423</v>
+      </c>
+      <c r="N100" t="s">
+        <v>423</v>
+      </c>
+      <c r="O100" t="s">
+        <v>30</v>
+      </c>
+      <c r="P100" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>266</v>
+      </c>
+      <c r="R100" t="s">
+        <v>345</v>
+      </c>
+      <c r="S100" t="s">
+        <v>345</v>
+      </c>
+      <c r="T100" t="s">
+        <v>424</v>
+      </c>
+      <c r="U100" t="s">
+        <v>424</v>
+      </c>
+      <c r="V100" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="A101" t="s">
+        <v>427</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>428</v>
+      </c>
+      <c r="D101" t="s">
+        <v>429</v>
+      </c>
+      <c r="E101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>430</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>328</v>
+      </c>
+      <c r="K101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="A102" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>428</v>
+      </c>
+      <c r="D102" t="s">
+        <v>429</v>
+      </c>
+      <c r="E102" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>431</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>328</v>
+      </c>
+      <c r="K102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>428</v>
+      </c>
+      <c r="D103" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>432</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>328</v>
+      </c>
+      <c r="K103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="A104" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>428</v>
+      </c>
+      <c r="D104" t="s">
+        <v>429</v>
+      </c>
+      <c r="E104" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>433</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>328</v>
+      </c>
+      <c r="K104" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" t="s">
+        <v>434</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>435</v>
+      </c>
+      <c r="D105" t="s">
+        <v>429</v>
+      </c>
+      <c r="E105" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>436</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>328</v>
+      </c>
+      <c r="K105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22">
+      <c r="A106" t="s">
+        <v>437</v>
+      </c>
+      <c r="B106" t="s">
+        <v>438</v>
+      </c>
+      <c r="C106" t="s">
+        <v>439</v>
+      </c>
+      <c r="D106" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>440</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" t="s">
+        <v>328</v>
+      </c>
+      <c r="K106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" t="s">
+        <v>441</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>442</v>
+      </c>
+      <c r="D107" t="s">
+        <v>429</v>
+      </c>
+      <c r="E107" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>443</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>328</v>
+      </c>
+      <c r="K107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" t="s">
+        <v>444</v>
+      </c>
+      <c r="B108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>445</v>
+      </c>
+      <c r="D108" t="s">
+        <v>446</v>
+      </c>
+      <c r="E108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>447</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>328</v>
+      </c>
+      <c r="K108" t="s">
+        <v>328</v>
+      </c>
+      <c r="L108" t="s">
+        <v>328</v>
+      </c>
+      <c r="M108" t="s">
+        <v>328</v>
+      </c>
+      <c r="N108" t="s">
+        <v>329</v>
+      </c>
+      <c r="O108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" t="s">
+        <v>448</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
+        <v>449</v>
+      </c>
+      <c r="D109" t="s">
+        <v>429</v>
+      </c>
+      <c r="E109" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>450</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>328</v>
+      </c>
+      <c r="K109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" t="s">
+        <v>451</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" t="s">
+        <v>453</v>
+      </c>
+      <c r="E110" t="s">
+        <v>147</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>454</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>328</v>
+      </c>
+      <c r="K110" t="s">
+        <v>328</v>
+      </c>
+      <c r="L110" t="s">
+        <v>328</v>
+      </c>
+      <c r="M110" t="s">
+        <v>328</v>
+      </c>
+      <c r="N110" t="s">
+        <v>329</v>
+      </c>
+      <c r="O110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" t="s">
+        <v>455</v>
+      </c>
+      <c r="B111" t="s">
+        <v>456</v>
+      </c>
+      <c r="C111" t="s">
+        <v>457</v>
+      </c>
+      <c r="D111" t="s">
+        <v>458</v>
+      </c>
+      <c r="E111" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>459</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>328</v>
+      </c>
+      <c r="K111" t="s">
+        <v>329</v>
+      </c>
+      <c r="L111" t="s">
+        <v>329</v>
+      </c>
+      <c r="M111" t="s">
+        <v>329</v>
+      </c>
+      <c r="N111" t="s">
+        <v>329</v>
+      </c>
+      <c r="O111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="A112" t="s">
+        <v>460</v>
+      </c>
+      <c r="B112" t="s">
+        <v>456</v>
+      </c>
+      <c r="C112" t="s">
+        <v>461</v>
+      </c>
+      <c r="D112" t="s">
+        <v>458</v>
+      </c>
+      <c r="E112" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>462</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>328</v>
+      </c>
+      <c r="K112" t="s">
+        <v>329</v>
+      </c>
+      <c r="L112" t="s">
+        <v>329</v>
+      </c>
+      <c r="M112" t="s">
+        <v>329</v>
+      </c>
+      <c r="N112" t="s">
+        <v>329</v>
+      </c>
+      <c r="O112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" t="s">
+        <v>456</v>
+      </c>
+      <c r="C113" t="s">
+        <v>464</v>
+      </c>
+      <c r="D113" t="s">
+        <v>465</v>
+      </c>
+      <c r="E113" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>466</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>329</v>
+      </c>
+      <c r="K113" t="s">
+        <v>329</v>
+      </c>
+      <c r="L113" t="s">
+        <v>329</v>
+      </c>
+      <c r="M113" t="s">
+        <v>329</v>
+      </c>
+      <c r="N113" t="s">
+        <v>423</v>
+      </c>
+      <c r="O113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" t="s">
+        <v>467</v>
+      </c>
+      <c r="B114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114" t="s">
+        <v>469</v>
+      </c>
+      <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>470</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>329</v>
+      </c>
+      <c r="K114" t="s">
+        <v>329</v>
+      </c>
+      <c r="L114" t="s">
+        <v>329</v>
+      </c>
+      <c r="M114" t="s">
+        <v>329</v>
+      </c>
+      <c r="N114" t="s">
+        <v>329</v>
+      </c>
+      <c r="O114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="A115" t="s">
+        <v>471</v>
+      </c>
+      <c r="B115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" t="s">
+        <v>472</v>
+      </c>
+      <c r="D115" t="s">
+        <v>469</v>
+      </c>
+      <c r="E115" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s">
+        <v>473</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>329</v>
+      </c>
+      <c r="K115" t="s">
+        <v>329</v>
+      </c>
+      <c r="L115" t="s">
+        <v>329</v>
+      </c>
+      <c r="M115" t="s">
+        <v>329</v>
+      </c>
+      <c r="N115" t="s">
+        <v>329</v>
+      </c>
+      <c r="O115" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>171</v>
+      </c>
+      <c r="R115" t="s">
+        <v>171</v>
+      </c>
+      <c r="S115" t="s">
+        <v>171</v>
+      </c>
+      <c r="T115" t="s">
+        <v>172</v>
+      </c>
+      <c r="U115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" t="s">
+        <v>474</v>
+      </c>
+      <c r="B116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" t="s">
+        <v>475</v>
+      </c>
+      <c r="D116" t="s">
+        <v>476</v>
+      </c>
+      <c r="E116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" t="s">
+        <v>477</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>329</v>
+      </c>
+      <c r="K116" t="s">
+        <v>329</v>
+      </c>
+      <c r="L116" t="s">
+        <v>329</v>
+      </c>
+      <c r="M116" t="s">
+        <v>329</v>
+      </c>
+      <c r="N116" t="s">
+        <v>329</v>
+      </c>
+      <c r="O116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
+      <c r="A117" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" t="s">
+        <v>479</v>
+      </c>
+      <c r="D117" t="s">
+        <v>480</v>
+      </c>
+      <c r="E117" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s">
+        <v>481</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>329</v>
+      </c>
+      <c r="K117" t="s">
+        <v>329</v>
+      </c>
+      <c r="L117" t="s">
+        <v>329</v>
+      </c>
+      <c r="M117" t="s">
+        <v>329</v>
+      </c>
+      <c r="N117" t="s">
+        <v>329</v>
+      </c>
+      <c r="O117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="A118" t="s">
+        <v>482</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>483</v>
+      </c>
+      <c r="D118" t="s">
+        <v>484</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s">
+        <v>485</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>329</v>
+      </c>
+      <c r="K118" t="s">
+        <v>329</v>
+      </c>
+      <c r="L118" t="s">
+        <v>329</v>
+      </c>
+      <c r="M118" t="s">
+        <v>423</v>
+      </c>
+      <c r="N118" t="s">
+        <v>423</v>
+      </c>
+      <c r="O118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="A119" t="s">
+        <v>486</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>487</v>
+      </c>
+      <c r="D119" t="s">
+        <v>488</v>
+      </c>
+      <c r="E119" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s">
+        <v>489</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>329</v>
+      </c>
+      <c r="K119" t="s">
+        <v>329</v>
+      </c>
+      <c r="L119" t="s">
+        <v>329</v>
+      </c>
+      <c r="M119" t="s">
+        <v>423</v>
+      </c>
+      <c r="N119" t="s">
+        <v>423</v>
+      </c>
+      <c r="O119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="A120" t="s">
+        <v>490</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>491</v>
+      </c>
+      <c r="D120" t="s">
+        <v>492</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
+      </c>
+      <c r="F120" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" t="s">
+        <v>27</v>
+      </c>
+      <c r="H120" t="s">
+        <v>493</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>423</v>
+      </c>
+      <c r="K120" t="s">
+        <v>423</v>
+      </c>
+      <c r="L120" t="s">
+        <v>423</v>
+      </c>
+      <c r="M120" t="s">
+        <v>423</v>
+      </c>
+      <c r="N120" t="s">
+        <v>423</v>
+      </c>
+      <c r="O120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="A121" t="s">
+        <v>494</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>495</v>
+      </c>
+      <c r="D121" t="s">
+        <v>496</v>
+      </c>
+      <c r="E121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s">
+        <v>497</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>423</v>
+      </c>
+      <c r="K121" t="s">
+        <v>423</v>
+      </c>
+      <c r="L121" t="s">
+        <v>423</v>
+      </c>
+      <c r="M121" t="s">
+        <v>423</v>
+      </c>
+      <c r="N121" t="s">
+        <v>423</v>
+      </c>
+      <c r="O121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="A122" t="s">
+        <v>498</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" t="s">
+        <v>429</v>
+      </c>
+      <c r="E122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>27</v>
+      </c>
+      <c r="H122" t="s">
+        <v>343</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
+        <v>423</v>
+      </c>
+      <c r="K122" t="s">
+        <v>423</v>
+      </c>
+      <c r="L122" t="s">
+        <v>423</v>
+      </c>
+      <c r="M122" t="s">
+        <v>423</v>
+      </c>
+      <c r="N122" t="s">
+        <v>423</v>
+      </c>
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>266</v>
+      </c>
+      <c r="R122" t="s">
+        <v>345</v>
+      </c>
+      <c r="S122" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="A123" t="s">
+        <v>500</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>501</v>
+      </c>
+      <c r="D123" t="s">
+        <v>502</v>
+      </c>
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s">
+        <v>503</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>504</v>
+      </c>
+      <c r="K123" t="s">
+        <v>504</v>
+      </c>
+      <c r="L123" t="s">
+        <v>504</v>
+      </c>
+      <c r="M123" t="s">
+        <v>504</v>
+      </c>
+      <c r="N123" t="s">
+        <v>504</v>
+      </c>
+      <c r="O123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="A124" t="s">
+        <v>505</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
+        <v>506</v>
+      </c>
+      <c r="D124" t="s">
+        <v>507</v>
+      </c>
+      <c r="E124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s">
+        <v>508</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>504</v>
+      </c>
+      <c r="K124" t="s">
+        <v>504</v>
+      </c>
+      <c r="L124" t="s">
+        <v>504</v>
+      </c>
+      <c r="M124" t="s">
+        <v>504</v>
+      </c>
+      <c r="N124" t="s">
+        <v>504</v>
+      </c>
+      <c r="O124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="A125" t="s">
+        <v>509</v>
+      </c>
+      <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>510</v>
+      </c>
+      <c r="D125" t="s">
+        <v>511</v>
+      </c>
+      <c r="E125" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" t="s">
+        <v>512</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>504</v>
+      </c>
+      <c r="K125" t="s">
+        <v>504</v>
+      </c>
+      <c r="L125" t="s">
+        <v>504</v>
+      </c>
+      <c r="M125" t="s">
+        <v>504</v>
+      </c>
+      <c r="N125" t="s">
+        <v>504</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>266</v>
+      </c>
+      <c r="R125" t="s">
+        <v>345</v>
+      </c>
+      <c r="S125" t="s">
+        <v>345</v>
+      </c>
+      <c r="T125" t="s">
+        <v>424</v>
+      </c>
+      <c r="U125" t="s">
+        <v>424</v>
+      </c>
+      <c r="V125" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" t="s">
+        <v>513</v>
+      </c>
+      <c r="B126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" t="s">
+        <v>514</v>
+      </c>
+      <c r="D126" t="s">
+        <v>515</v>
+      </c>
+      <c r="E126" t="s">
+        <v>516</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s">
+        <v>517</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>504</v>
+      </c>
+      <c r="K126" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="A127" t="s">
+        <v>518</v>
+      </c>
+      <c r="B127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C127" t="s">
+        <v>520</v>
+      </c>
+      <c r="D127" t="s">
+        <v>521</v>
+      </c>
+      <c r="E127" t="s">
+        <v>522</v>
+      </c>
+      <c r="F127" t="s">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>27</v>
+      </c>
+      <c r="H127" t="s">
+        <v>523</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>504</v>
+      </c>
+      <c r="K127" t="s">
+        <v>504</v>
+      </c>
+      <c r="L127" t="s">
+        <v>504</v>
+      </c>
+      <c r="M127" t="s">
+        <v>504</v>
+      </c>
+      <c r="N127" t="s">
+        <v>504</v>
+      </c>
+      <c r="O127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>266</v>
+      </c>
+      <c r="R127" t="s">
+        <v>345</v>
+      </c>
+      <c r="S127" t="s">
+        <v>345</v>
+      </c>
+      <c r="T127" t="s">
+        <v>424</v>
+      </c>
+      <c r="U127" t="s">
+        <v>424</v>
+      </c>
+      <c r="V127" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" t="s">
+        <v>524</v>
+      </c>
+      <c r="B128" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" t="s">
+        <v>528</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s">
+        <v>529</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>530</v>
+      </c>
+      <c r="K128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="A129" t="s">
+        <v>524</v>
+      </c>
+      <c r="B129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C129" t="s">
+        <v>526</v>
+      </c>
+      <c r="D129" t="s">
+        <v>527</v>
+      </c>
+      <c r="E129" t="s">
+        <v>528</v>
+      </c>
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" t="s">
+        <v>531</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>530</v>
+      </c>
+      <c r="K129" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="A130" t="s">
+        <v>524</v>
+      </c>
+      <c r="B130" t="s">
+        <v>525</v>
+      </c>
+      <c r="C130" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" t="s">
+        <v>527</v>
+      </c>
+      <c r="E130" t="s">
+        <v>528</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s">
+        <v>532</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>530</v>
+      </c>
+      <c r="K130" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" t="s">
+        <v>526</v>
+      </c>
+      <c r="D131" t="s">
+        <v>527</v>
+      </c>
+      <c r="E131" t="s">
+        <v>528</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" t="s">
+        <v>533</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>530</v>
+      </c>
+      <c r="K131" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
+      <c r="A132" t="s">
+        <v>524</v>
+      </c>
+      <c r="B132" t="s">
+        <v>525</v>
+      </c>
+      <c r="C132" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" t="s">
+        <v>527</v>
+      </c>
+      <c r="E132" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s">
+        <v>534</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>530</v>
+      </c>
+      <c r="K132" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="A133" t="s">
+        <v>524</v>
+      </c>
+      <c r="B133" t="s">
+        <v>525</v>
+      </c>
+      <c r="C133" t="s">
+        <v>526</v>
+      </c>
+      <c r="D133" t="s">
+        <v>527</v>
+      </c>
+      <c r="E133" t="s">
+        <v>528</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" t="s">
+        <v>535</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>530</v>
+      </c>
+      <c r="K133" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="A134" t="s">
+        <v>524</v>
+      </c>
+      <c r="B134" t="s">
+        <v>525</v>
+      </c>
+      <c r="C134" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" t="s">
+        <v>527</v>
+      </c>
+      <c r="E134" t="s">
+        <v>528</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s">
+        <v>533</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>530</v>
+      </c>
+      <c r="K134" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="A135" t="s">
+        <v>524</v>
+      </c>
+      <c r="B135" t="s">
+        <v>525</v>
+      </c>
+      <c r="C135" t="s">
+        <v>526</v>
+      </c>
+      <c r="D135" t="s">
+        <v>527</v>
+      </c>
+      <c r="E135" t="s">
+        <v>528</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" t="s">
+        <v>536</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>530</v>
+      </c>
+      <c r="K135" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="A136" t="s">
+        <v>524</v>
+      </c>
+      <c r="B136" t="s">
+        <v>525</v>
+      </c>
+      <c r="C136" t="s">
+        <v>526</v>
+      </c>
+      <c r="D136" t="s">
+        <v>527</v>
+      </c>
+      <c r="E136" t="s">
+        <v>528</v>
+      </c>
+      <c r="F136" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" t="s">
+        <v>537</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>530</v>
+      </c>
+      <c r="K136" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
+      <c r="A137" t="s">
+        <v>538</v>
+      </c>
+      <c r="B137" t="s">
+        <v>525</v>
+      </c>
+      <c r="C137" t="s">
+        <v>539</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>528</v>
+      </c>
+      <c r="F137" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" t="s">
+        <v>540</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>530</v>
+      </c>
+      <c r="K137" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
+      <c r="A138" t="s">
+        <v>541</v>
+      </c>
+      <c r="B138" t="s">
+        <v>392</v>
+      </c>
+      <c r="C138" t="s">
+        <v>542</v>
+      </c>
+      <c r="D138" t="s">
+        <v>543</v>
+      </c>
+      <c r="E138" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s">
+        <v>544</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="A139" t="s">
+        <v>546</v>
+      </c>
+      <c r="B139" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>547</v>
+      </c>
+      <c r="D139" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" t="s">
+        <v>139</v>
+      </c>
+      <c r="F139" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" t="s">
+        <v>549</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="A140" t="s">
+        <v>550</v>
+      </c>
+      <c r="B140" t="s">
+        <v>551</v>
+      </c>
+      <c r="C140" t="s">
+        <v>552</v>
+      </c>
+      <c r="D140" t="s">
+        <v>553</v>
+      </c>
+      <c r="E140" t="s">
+        <v>554</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s">
+        <v>555</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="A141" t="s">
+        <v>556</v>
+      </c>
+      <c r="B141" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" t="s">
+        <v>553</v>
+      </c>
+      <c r="E141" t="s">
+        <v>160</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" t="s">
+        <v>558</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="A142" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" t="s">
+        <v>560</v>
+      </c>
+      <c r="C142" t="s">
+        <v>561</v>
+      </c>
+      <c r="D142" t="s">
+        <v>562</v>
+      </c>
+      <c r="E142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" t="s">
+        <v>563</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="A143" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" t="s">
+        <v>560</v>
+      </c>
+      <c r="C143" t="s">
+        <v>561</v>
+      </c>
+      <c r="D143" t="s">
+        <v>562</v>
+      </c>
+      <c r="E143" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" t="s">
+        <v>564</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
+      <c r="A144" t="s">
+        <v>565</v>
+      </c>
+      <c r="B144" t="s">
+        <v>560</v>
+      </c>
+      <c r="C144" t="s">
+        <v>566</v>
+      </c>
+      <c r="D144" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" t="s">
+        <v>568</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
+      <c r="A145" t="s">
+        <v>569</v>
+      </c>
+      <c r="B145" t="s">
+        <v>456</v>
+      </c>
+      <c r="C145" t="s">
+        <v>570</v>
+      </c>
+      <c r="D145" t="s">
+        <v>458</v>
+      </c>
+      <c r="E145" t="s">
+        <v>139</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s">
+        <v>571</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>545</v>
+      </c>
+      <c r="K145" t="s">
+        <v>545</v>
+      </c>
+      <c r="L145" t="s">
+        <v>545</v>
+      </c>
+      <c r="M145" t="s">
+        <v>545</v>
+      </c>
+      <c r="N145" t="s">
+        <v>545</v>
+      </c>
+      <c r="O145" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
+      <c r="A146" t="s">
+        <v>572</v>
+      </c>
+      <c r="B146" t="s">
+        <v>456</v>
+      </c>
+      <c r="C146" t="s">
+        <v>573</v>
+      </c>
+      <c r="D146" t="s">
+        <v>574</v>
+      </c>
+      <c r="E146" t="s">
+        <v>139</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s">
+        <v>575</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>545</v>
+      </c>
+      <c r="K146" t="s">
+        <v>545</v>
+      </c>
+      <c r="L146" t="s">
+        <v>545</v>
+      </c>
+      <c r="M146" t="s">
+        <v>545</v>
+      </c>
+      <c r="N146" t="s">
+        <v>545</v>
+      </c>
+      <c r="O146" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
+      <c r="A147" t="s">
+        <v>576</v>
+      </c>
+      <c r="B147" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" t="s">
+        <v>577</v>
+      </c>
+      <c r="D147" t="s">
+        <v>578</v>
+      </c>
+      <c r="E147" t="s">
+        <v>63</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" t="s">
+        <v>579</v>
+      </c>
+      <c r="I147">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>545</v>
+      </c>
+      <c r="K147" t="s">
+        <v>545</v>
+      </c>
+      <c r="L147" t="s">
+        <v>545</v>
+      </c>
+      <c r="M147" t="s">
+        <v>545</v>
+      </c>
+      <c r="N147" t="s">
+        <v>545</v>
+      </c>
+      <c r="O147" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
+      <c r="A148" t="s">
+        <v>576</v>
+      </c>
+      <c r="B148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>577</v>
+      </c>
+      <c r="D148" t="s">
+        <v>578</v>
+      </c>
+      <c r="E148" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s">
+        <v>580</v>
+      </c>
+      <c r="I148">
+        <v>30</v>
+      </c>
+      <c r="J148" t="s">
+        <v>545</v>
+      </c>
+      <c r="K148" t="s">
+        <v>545</v>
+      </c>
+      <c r="L148" t="s">
+        <v>545</v>
+      </c>
+      <c r="M148" t="s">
+        <v>545</v>
+      </c>
+      <c r="N148" t="s">
+        <v>545</v>
+      </c>
+      <c r="O148" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
+      <c r="A149" t="s">
+        <v>581</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>582</v>
+      </c>
+      <c r="D149" t="s">
+        <v>583</v>
+      </c>
+      <c r="E149" t="s">
+        <v>584</v>
+      </c>
+      <c r="F149" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s">
+        <v>585</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>586</v>
+      </c>
+      <c r="K149" t="s">
+        <v>586</v>
+      </c>
+      <c r="L149" t="s">
+        <v>586</v>
+      </c>
+      <c r="M149" t="s">
+        <v>586</v>
+      </c>
+      <c r="N149" t="s">
+        <v>586</v>
+      </c>
+      <c r="O149" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
+      <c r="A150" t="s">
+        <v>581</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>582</v>
+      </c>
+      <c r="D150" t="s">
+        <v>583</v>
+      </c>
+      <c r="E150" t="s">
+        <v>584</v>
+      </c>
+      <c r="F150" t="s">
+        <v>50</v>
+      </c>
+      <c r="G150" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" t="s">
+        <v>587</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>586</v>
+      </c>
+      <c r="K150" t="s">
+        <v>586</v>
+      </c>
+      <c r="L150" t="s">
+        <v>586</v>
+      </c>
+      <c r="M150" t="s">
+        <v>586</v>
+      </c>
+      <c r="N150" t="s">
+        <v>586</v>
+      </c>
+      <c r="O150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
+      <c r="A151" t="s">
+        <v>581</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" t="s">
+        <v>582</v>
+      </c>
+      <c r="D151" t="s">
+        <v>583</v>
+      </c>
+      <c r="E151" t="s">
+        <v>584</v>
+      </c>
+      <c r="F151" t="s">
+        <v>50</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s">
+        <v>588</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>586</v>
+      </c>
+      <c r="K151" t="s">
+        <v>586</v>
+      </c>
+      <c r="L151" t="s">
+        <v>586</v>
+      </c>
+      <c r="M151" t="s">
+        <v>586</v>
+      </c>
+      <c r="N151" t="s">
+        <v>586</v>
+      </c>
+      <c r="O151" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
+      <c r="A152" t="s">
+        <v>581</v>
+      </c>
+      <c r="B152" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" t="s">
+        <v>582</v>
+      </c>
+      <c r="D152" t="s">
+        <v>583</v>
+      </c>
+      <c r="E152" t="s">
+        <v>584</v>
+      </c>
+      <c r="F152" t="s">
+        <v>50</v>
+      </c>
+      <c r="G152" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" t="s">
+        <v>589</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+      <c r="J152" t="s">
+        <v>586</v>
+      </c>
+      <c r="K152" t="s">
+        <v>586</v>
+      </c>
+      <c r="L152" t="s">
+        <v>586</v>
+      </c>
+      <c r="M152" t="s">
+        <v>586</v>
+      </c>
+      <c r="N152" t="s">
+        <v>586</v>
+      </c>
+      <c r="O152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
+      <c r="A153" t="s">
+        <v>590</v>
+      </c>
+      <c r="B153" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" t="s">
+        <v>591</v>
+      </c>
+      <c r="D153" t="s">
+        <v>592</v>
+      </c>
+      <c r="E153" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" t="s">
+        <v>50</v>
+      </c>
+      <c r="G153" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" t="s">
+        <v>593</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>586</v>
+      </c>
+      <c r="K153" t="s">
+        <v>586</v>
+      </c>
+      <c r="L153" t="s">
+        <v>586</v>
+      </c>
+      <c r="M153" t="s">
+        <v>586</v>
+      </c>
+      <c r="N153" t="s">
+        <v>586</v>
+      </c>
+      <c r="O153" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
